--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B22BD85-0BD8-4A54-9208-009DF34FED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60286F3-F8DC-43DA-9497-26B0A7E49DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$22:$W$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$W$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$3:$W$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$4:$W$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$21:$W$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$22:$W$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
   <si>
     <t>Price</t>
   </si>
@@ -847,6 +847,48 @@
   <si>
     <t>Deferred Tax</t>
   </si>
+  <si>
+    <t>I dont like the Management</t>
+  </si>
+  <si>
+    <t>little experience</t>
+  </si>
+  <si>
+    <t>might be in over their head when this thing grows</t>
+  </si>
+  <si>
+    <t>HARTJE KARENChief Financial Officer</t>
+  </si>
+  <si>
+    <t>KRAUSE JUSTINOfficer</t>
+  </si>
+  <si>
+    <t>LAHIFF PAUL ALANDirector</t>
+  </si>
+  <si>
+    <t>PARADIS PAULPresident</t>
+  </si>
+  <si>
+    <t>PURCELL PAUL MARTINFormer</t>
+  </si>
+  <si>
+    <t>SABZIVAND AMINChief Operating Officer</t>
+  </si>
+  <si>
+    <t>WEBSTER KAREN LDirector</t>
+  </si>
+  <si>
+    <t>YOUAKIM CHARLESChief Executive Officer</t>
+  </si>
+  <si>
+    <t>CEO hält 40% der Aktien</t>
+  </si>
+  <si>
+    <t>Haben bereits Aktienrückkaufprogramme durchgeführt</t>
+  </si>
+  <si>
+    <t>Buy now Pay Later Anbieter</t>
+  </si>
 </sst>
 </file>
 
@@ -856,7 +898,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1601,7 +1643,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1765,6 +1807,24 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1822,41 +1882,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2646,6 +2672,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6839-4C5F-BC60-95E8249AFCF3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6587,18 +6618,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6642,7 +6673,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6662,7 +6693,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6693,18 +6724,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6748,7 +6779,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6768,7 +6799,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13084,8 +13115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13097,7 +13128,7 @@
     <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" customWidth="1"/>
     <col min="12" max="12" width="29.140625" customWidth="1"/>
     <col min="13" max="13" width="40.140625" customWidth="1"/>
@@ -13143,18 +13174,28 @@
       <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="148">
+      <c r="F3" s="129">
         <v>0.62009999999999998</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="37"/>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="9">
+        <v>37.363</v>
+      </c>
+      <c r="J3" s="164">
+        <f t="shared" ref="J3:J9" si="0">I3/($C$7*1000)</f>
+        <v>6.5796992776471783E-3</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>132</v>
       </c>
       <c r="M3" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
@@ -13164,33 +13205,53 @@
       <c r="E4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="129">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="37"/>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="9">
+        <v>16.533000000000001</v>
+      </c>
+      <c r="J4" s="164">
+        <f t="shared" si="0"/>
+        <v>2.9114944773530179E-3</v>
+      </c>
       <c r="L4" s="4" t="s">
         <v>134</v>
       </c>
       <c r="M4" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="27"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="37"/>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="J5" s="164">
+        <f t="shared" si="0"/>
+        <v>8.9776803033603605E-4</v>
+      </c>
       <c r="L5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="M5" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -13201,8 +13262,16 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="27"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="37"/>
+      <c r="H6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="9">
+        <v>173.11199999999999</v>
+      </c>
+      <c r="J6" s="164">
+        <f t="shared" si="0"/>
+        <v>3.0485370589943481E-2</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>138</v>
       </c>
@@ -13221,8 +13290,11 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="27"/>
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="164"/>
       <c r="L7" s="4" t="s">
         <v>140</v>
       </c>
@@ -13241,8 +13313,16 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="27"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="37"/>
+      <c r="H8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="9">
+        <v>53.247999999999998</v>
+      </c>
+      <c r="J8" s="164">
+        <f t="shared" si="0"/>
+        <v>9.3770796546357883E-3</v>
+      </c>
       <c r="L8" s="4" t="s">
         <v>142</v>
       </c>
@@ -13261,8 +13341,16 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="27"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="37"/>
+      <c r="H9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J9" s="164">
+        <f t="shared" si="0"/>
+        <v>2.0251730774547693E-4</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>144</v>
       </c>
@@ -13281,8 +13369,16 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="27"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="37"/>
+      <c r="H10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2226.58</v>
+      </c>
+      <c r="J10" s="164">
+        <f>I10/($C$7*1000)</f>
+        <v>0.39210520615645572</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="N10" s="12"/>
     </row>
@@ -13375,9 +13471,11 @@
       <c r="E17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="129"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131"/>
+      <c r="L17" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="146"/>
+      <c r="N17" s="147"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -13387,9 +13485,9 @@
         <f>C14/(C16*100)</f>
         <v>9.6481015585827418E-2</v>
       </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="134"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="150"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -13399,9 +13497,9 @@
         <f>C15/(C17*100)</f>
         <v>0.45843364366557121</v>
       </c>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="150"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -13411,9 +13509,9 @@
         <f>Model!G4/Model!F3-1</f>
         <v>0.38550748254363465</v>
       </c>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="134"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="150"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -13423,9 +13521,9 @@
         <f>Model!H4/Model!G4-1</f>
         <v>0.25431405407853624</v>
       </c>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="150"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -13435,9 +13533,9 @@
         <f>Model!E8+Model!E7</f>
         <v>27.162047000000001</v>
       </c>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="150"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -13447,27 +13545,27 @@
         <f>Model!E8</f>
         <v>18.972024999999999</v>
       </c>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="134"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="150"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="134"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="150"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -13477,9 +13575,9 @@
         <f>C12/C23</f>
         <v>48.423029985879751</v>
       </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="134"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="150"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -13489,9 +13587,9 @@
       <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="134"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="150"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
@@ -13501,35 +13599,41 @@
         <f>C22/-Model!E7</f>
         <v>-3.3164803464508394</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="137"/>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="151"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="153"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="35" t="e">
-        <f>Model!#REF!/Model!P38</f>
-        <v>#REF!</v>
+      <c r="C29" s="35">
+        <f>Model!X41/Model!X54</f>
+        <v>2.0715283893564633</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="35" t="e">
-        <f>(Model!P24+Model!P25)/Model!P38</f>
-        <v>#DIV/0!</v>
+      <c r="C30" s="35">
+        <f>(Model!X35+Model!X37)/Model!X54</f>
+        <v>2.0560557070594001</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="5" t="e">
-        <f>(Model!#REF!-Model!P38)/Model!P34</f>
-        <v>#REF!</v>
+      <c r="C31" s="5">
+        <f>(Model!X41-Model!X54)/Model!X47</f>
+        <v>0.46456548896968874</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -13545,27 +13649,27 @@
       <c r="B33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="35" t="e">
-        <f>Model!#REF!/Model!P34</f>
-        <v>#REF!</v>
+      <c r="C33" s="35">
+        <f>Model!F3/Model!F47</f>
+        <v>0.74940186658172903</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="37" t="e">
-        <f>Model!P10/Model!P34</f>
-        <v>#DIV/0!</v>
+      <c r="C34" s="37">
+        <f>Model!F19/Model!F47</f>
+        <v>3.3393860892743155E-2</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="37" t="e">
-        <f>Model!P10/Model!P44</f>
-        <v>#DIV/0!</v>
+      <c r="C35" s="37">
+        <f>Model!F19/Model!F61</f>
+        <v>0.32139688908336822</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -13610,7 +13714,7 @@
   <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
@@ -13621,7 +13725,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="12"/>
-    <col min="22" max="22" width="11.42578125" style="151"/>
     <col min="24" max="24" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
@@ -13682,7 +13785,7 @@
       <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="151" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
       <c r="W2" t="s">
@@ -13691,10 +13794,10 @@
       <c r="X2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="157" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" s="157" t="s">
+      <c r="Z2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -13702,47 +13805,47 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="161">
+      <c r="C3" s="132">
         <f>49.659042+9.129231</f>
         <v>58.788273000000004</v>
       </c>
-      <c r="D3" s="161">
+      <c r="D3" s="132">
         <f>98.200184+16.616451</f>
         <v>114.81663499999999</v>
       </c>
-      <c r="E3" s="161">
+      <c r="E3" s="132">
         <v>125.570441</v>
       </c>
-      <c r="F3" s="163">
+      <c r="F3" s="133">
         <v>159.35677200000001</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="171">
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="17">
         <v>34.673431000000001</v>
       </c>
-      <c r="T3" s="161">
+      <c r="T3" s="132">
         <v>34.937665000000003</v>
       </c>
-      <c r="U3" s="161">
+      <c r="U3" s="132">
         <v>40.844200999999998</v>
       </c>
-      <c r="V3" s="161">
+      <c r="V3" s="132">
         <f>F3-U3-T3-S3</f>
         <v>48.901474999999998</v>
       </c>
-      <c r="W3" s="161">
+      <c r="W3" s="132">
         <v>46.978634</v>
       </c>
-      <c r="X3" s="163">
+      <c r="X3" s="133">
         <v>55.968505</v>
       </c>
     </row>
@@ -13750,304 +13853,304 @@
       <c r="B4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="163"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="41">
         <v>220.79</v>
       </c>
       <c r="H4" s="41">
         <v>276.94</v>
       </c>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="172">
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="139">
         <v>52.63</v>
       </c>
-      <c r="Z4" s="172">
+      <c r="Z4" s="139">
         <v>65.180000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
+      <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="132">
         <v>30.689461999999999</v>
       </c>
-      <c r="D5" s="161">
+      <c r="D5" s="132">
         <v>56.831367999999998</v>
       </c>
-      <c r="E5" s="161">
+      <c r="E5" s="132">
         <v>51.217083000000002</v>
       </c>
-      <c r="F5" s="163">
+      <c r="F5" s="133">
         <v>46.373914999999997</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="171">
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="17">
         <v>11.57399</v>
       </c>
-      <c r="T5" s="161">
+      <c r="T5" s="132">
         <v>12.017071</v>
       </c>
-      <c r="U5" s="161">
+      <c r="U5" s="132">
         <v>11.079174</v>
       </c>
-      <c r="V5" s="161">
+      <c r="V5" s="132">
         <f t="shared" ref="V5:V10" si="0">F5-U5-T5-S5</f>
         <v>11.703679999999993</v>
       </c>
-      <c r="W5" s="161">
+      <c r="W5" s="132">
         <v>11.025040000000001</v>
       </c>
-      <c r="X5" s="163">
+      <c r="X5" s="133">
         <v>12.736523</v>
       </c>
-      <c r="Y5" s="172">
+      <c r="Y5" s="139">
         <f>Y4*0.23</f>
         <v>12.104900000000001</v>
       </c>
-      <c r="Z5" s="172">
+      <c r="Z5" s="139">
         <f>Z4*0.23</f>
         <v>14.991400000000002</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="149" t="s">
+      <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="161">
+      <c r="C6" s="132">
         <v>22.489626000000001</v>
       </c>
-      <c r="D6" s="161">
+      <c r="D6" s="132">
         <v>43.476143</v>
       </c>
-      <c r="E6" s="161">
+      <c r="E6" s="132">
         <v>40.776825000000002</v>
       </c>
-      <c r="F6" s="163">
+      <c r="F6" s="133">
         <v>39.207768000000002</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="171">
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="17">
         <v>8.2385859999999997</v>
       </c>
-      <c r="T6" s="161">
+      <c r="T6" s="132">
         <v>7.9459479999999996</v>
       </c>
-      <c r="U6" s="161">
+      <c r="U6" s="132">
         <v>9.9368040000000004</v>
       </c>
-      <c r="V6" s="161">
+      <c r="V6" s="132">
         <f t="shared" si="0"/>
         <v>13.086429999999998</v>
       </c>
-      <c r="W6" s="161">
+      <c r="W6" s="132">
         <v>11.787146</v>
       </c>
-      <c r="X6" s="163">
+      <c r="X6" s="133">
         <v>10.741618000000001</v>
       </c>
-      <c r="Y6" s="172">
-        <f>$Y$4*(X6/$X$3)</f>
+      <c r="Y6" s="139">
+        <f t="shared" ref="Y6:Z10" si="1">$Y$4*(X6/$X$3)</f>
         <v>10.100883619099708</v>
       </c>
-      <c r="Z6" s="172">
-        <f>$Y$4*(Y6/$X$3)</f>
+      <c r="Z6" s="139">
+        <f t="shared" si="1"/>
         <v>9.4983688571495293</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="149" t="s">
+      <c r="B7" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="161">
+      <c r="C7" s="132">
         <v>2.454113</v>
       </c>
-      <c r="D7" s="161">
+      <c r="D7" s="132">
         <v>5.5498440000000002</v>
       </c>
-      <c r="E7" s="161">
+      <c r="E7" s="132">
         <v>8.1900220000000008</v>
       </c>
-      <c r="F7" s="163">
+      <c r="F7" s="133">
         <v>7.8159150000000004</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="171">
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="17">
         <v>1.7491760000000001</v>
       </c>
-      <c r="T7" s="161">
+      <c r="T7" s="132">
         <v>1.9036299999999999</v>
       </c>
-      <c r="U7" s="161">
+      <c r="U7" s="132">
         <v>2.0025149999999998</v>
       </c>
-      <c r="V7" s="161">
+      <c r="V7" s="132">
         <f t="shared" si="0"/>
         <v>2.1605940000000006</v>
       </c>
-      <c r="W7" s="161">
+      <c r="W7" s="132">
         <v>2.1571720000000001</v>
       </c>
-      <c r="X7" s="163">
+      <c r="X7" s="133">
         <v>2.1802329999999999</v>
       </c>
-      <c r="Y7" s="172">
-        <f>$Y$4*(X7/$X$3)</f>
+      <c r="Y7" s="139">
+        <f t="shared" si="1"/>
         <v>2.0501827374163377</v>
       </c>
-      <c r="Z7" s="172">
-        <f>$Y$4*(Y7/$X$3)</f>
+      <c r="Z7" s="139">
+        <f t="shared" si="1"/>
         <v>1.9278899350665495</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="149" t="s">
+      <c r="B8" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="161">
+      <c r="C8" s="132">
         <v>4.2749290000000002</v>
       </c>
-      <c r="D8" s="161">
+      <c r="D8" s="132">
         <v>9.2518539999999998</v>
       </c>
-      <c r="E8" s="161">
+      <c r="E8" s="132">
         <v>18.972024999999999</v>
       </c>
-      <c r="F8" s="163">
+      <c r="F8" s="133">
         <v>11.984019</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="171">
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="17">
         <v>3.1991740000000002</v>
       </c>
-      <c r="T8" s="161">
+      <c r="T8" s="132">
         <v>3.3136619999999999</v>
       </c>
-      <c r="U8" s="161">
+      <c r="U8" s="132">
         <v>3.6153390000000001</v>
       </c>
-      <c r="V8" s="161">
+      <c r="V8" s="132">
         <f t="shared" si="0"/>
         <v>1.8558439999999994</v>
       </c>
-      <c r="W8" s="161">
+      <c r="W8" s="132">
         <v>0.65487499999999998</v>
       </c>
-      <c r="X8" s="163">
+      <c r="X8" s="133">
         <v>0.995089</v>
       </c>
-      <c r="Y8" s="172">
-        <f>$Y$4*(X8/$X$3)</f>
+      <c r="Y8" s="139">
+        <f t="shared" si="1"/>
         <v>0.93573223136833827</v>
       </c>
-      <c r="Z8" s="172">
-        <f>$Y$4*(Y8/$X$3)</f>
+      <c r="Z8" s="139">
+        <f t="shared" si="1"/>
         <v>0.87991607667411598</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="149" t="s">
+      <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="161">
+      <c r="C9" s="132">
         <v>7.2145349999999997</v>
       </c>
-      <c r="D9" s="161">
+      <c r="D9" s="132">
         <v>15.768583</v>
       </c>
-      <c r="E9" s="161">
+      <c r="E9" s="132">
         <v>16.411912000000001</v>
       </c>
-      <c r="F9" s="163">
+      <c r="F9" s="133">
         <v>8.5877809999999997</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="171">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="17">
         <v>2.7982100000000001</v>
       </c>
-      <c r="T9" s="161">
+      <c r="T9" s="132">
         <v>1.6976290000000001</v>
       </c>
-      <c r="U9" s="161">
+      <c r="U9" s="132">
         <v>2.1840760000000001</v>
       </c>
-      <c r="V9" s="161">
+      <c r="V9" s="132">
         <f t="shared" si="0"/>
         <v>1.9078659999999994</v>
       </c>
-      <c r="W9" s="161">
+      <c r="W9" s="132">
         <v>2.3797779999999999</v>
       </c>
-      <c r="X9" s="163">
+      <c r="X9" s="133">
         <v>2.521782</v>
       </c>
-      <c r="Y9" s="172">
-        <f>$Y$4*(X9/$X$3)</f>
+      <c r="Y9" s="139">
+        <f t="shared" si="1"/>
         <v>2.3713584391793203</v>
       </c>
-      <c r="Z9" s="172">
-        <f>$Y$4*(Y9/$X$3)</f>
+      <c r="Z9" s="139">
+        <f t="shared" si="1"/>
         <v>2.2299075998904678</v>
       </c>
     </row>
@@ -14055,53 +14158,53 @@
       <c r="B10" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="161">
+      <c r="C10" s="132">
         <v>19.587917999999998</v>
       </c>
-      <c r="D10" s="161">
+      <c r="D10" s="132">
         <v>52.621682</v>
       </c>
-      <c r="E10" s="161">
+      <c r="E10" s="132">
         <v>29.437179</v>
       </c>
-      <c r="F10" s="163">
+      <c r="F10" s="133">
         <v>23.186972999999998</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="171">
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="17">
         <v>1.694364</v>
       </c>
-      <c r="T10" s="161">
+      <c r="T10" s="132">
         <v>4.2964339999999996</v>
       </c>
-      <c r="U10" s="161">
+      <c r="U10" s="132">
         <v>6.6765480000000004</v>
       </c>
-      <c r="V10" s="161">
+      <c r="V10" s="132">
         <f t="shared" si="0"/>
         <v>10.519626999999998</v>
       </c>
-      <c r="W10" s="161">
+      <c r="W10" s="132">
         <v>5.1399660000000003</v>
       </c>
-      <c r="X10" s="163">
+      <c r="X10" s="133">
         <v>10.09388</v>
       </c>
-      <c r="Y10" s="172">
-        <f>$Y$4*(X10/$X$3)</f>
+      <c r="Y10" s="139">
+        <f t="shared" si="1"/>
         <v>9.4917830018865086</v>
       </c>
-      <c r="Z10" s="172">
-        <f>$Y$4*(Y10/$X$3)</f>
+      <c r="Z10" s="139">
+        <f t="shared" si="1"/>
         <v>8.9256009141085144</v>
       </c>
     </row>
@@ -14109,48 +14212,48 @@
       <c r="B11" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161">
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132">
         <v>-11</v>
       </c>
-      <c r="F11" s="163"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
     </row>
     <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="159">
-        <f t="shared" ref="C12:E12" si="1">C3-SUM(C5:C11)</f>
+      <c r="C12" s="130">
+        <f t="shared" ref="C12:E12" si="2">C3-SUM(C5:C11)</f>
         <v>-27.922309999999996</v>
       </c>
-      <c r="D12" s="159">
-        <f t="shared" si="1"/>
+      <c r="D12" s="130">
+        <f t="shared" si="2"/>
         <v>-68.682839000000001</v>
       </c>
-      <c r="E12" s="159">
-        <f t="shared" si="1"/>
+      <c r="E12" s="130">
+        <f t="shared" si="2"/>
         <v>-28.434604999999991</v>
       </c>
-      <c r="F12" s="165">
+      <c r="F12" s="134">
         <f>F3-SUM(F5:F11)</f>
         <v>22.200400999999999</v>
       </c>
@@ -14164,67 +14267,67 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="159">
-        <f t="shared" ref="K12" si="2">K3-SUM(K5:K11)</f>
+      <c r="K12" s="130">
+        <f t="shared" ref="K12" si="3">K3-SUM(K5:K11)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="159">
-        <f t="shared" ref="L12" si="3">L3-SUM(L5:L11)</f>
+      <c r="L12" s="130">
+        <f t="shared" ref="L12" si="4">L3-SUM(L5:L11)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="159">
-        <f t="shared" ref="M12" si="4">M3-SUM(M5:M11)</f>
+      <c r="M12" s="130">
+        <f t="shared" ref="M12" si="5">M3-SUM(M5:M11)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="159">
-        <f t="shared" ref="N12" si="5">N3-SUM(N5:N11)</f>
+      <c r="N12" s="130">
+        <f t="shared" ref="N12" si="6">N3-SUM(N5:N11)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="159">
-        <f t="shared" ref="O12" si="6">O3-SUM(O5:O11)</f>
+      <c r="O12" s="130">
+        <f t="shared" ref="O12" si="7">O3-SUM(O5:O11)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="159">
-        <f t="shared" ref="P12" si="7">P3-SUM(P5:P11)</f>
+      <c r="P12" s="130">
+        <f t="shared" ref="P12" si="8">P3-SUM(P5:P11)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="159">
-        <f t="shared" ref="Q12" si="8">Q3-SUM(Q5:Q11)</f>
+      <c r="Q12" s="130">
+        <f t="shared" ref="Q12" si="9">Q3-SUM(Q5:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="159">
-        <f t="shared" ref="R12" si="9">R3-SUM(R5:R11)</f>
+      <c r="R12" s="130">
+        <f t="shared" ref="R12" si="10">R3-SUM(R5:R11)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="153">
-        <f t="shared" ref="S12" si="10">S3-SUM(S5:S11)</f>
+      <c r="S12" s="2">
+        <f t="shared" ref="S12" si="11">S3-SUM(S5:S11)</f>
         <v>5.4199310000000018</v>
       </c>
-      <c r="T12" s="159">
+      <c r="T12" s="130">
         <f>T3-SUM(T5:T11)</f>
         <v>3.7632910000000024</v>
       </c>
-      <c r="U12" s="159">
-        <f t="shared" ref="U12" si="11">U3-SUM(U5:U11)</f>
+      <c r="U12" s="130">
+        <f t="shared" ref="U12" si="12">U3-SUM(U5:U11)</f>
         <v>5.3497449999999986</v>
       </c>
-      <c r="V12" s="159">
-        <f t="shared" ref="V12" si="12">V3-SUM(V5:V11)</f>
+      <c r="V12" s="130">
+        <f t="shared" ref="V12" si="13">V3-SUM(V5:V11)</f>
         <v>7.6674340000000072</v>
       </c>
-      <c r="W12" s="159">
-        <f t="shared" ref="W12" si="13">W3-SUM(W5:W11)</f>
+      <c r="W12" s="130">
+        <f t="shared" ref="W12" si="14">W3-SUM(W5:W11)</f>
         <v>13.834657</v>
       </c>
-      <c r="X12" s="159">
-        <f t="shared" ref="X12:Y14" si="14">X3-SUM(X5:X11)</f>
+      <c r="X12" s="130">
+        <f t="shared" ref="X12" si="15">X3-SUM(X5:X11)</f>
         <v>16.699379999999998</v>
       </c>
-      <c r="Y12" s="173">
+      <c r="Y12" s="140">
         <f>Y4-SUM(Y5:Y11)</f>
         <v>15.575159971049786</v>
       </c>
-      <c r="Z12" s="173">
+      <c r="Z12" s="140">
         <f>Z4-SUM(Z5:Z11)</f>
         <v>26.726916617110831</v>
       </c>
@@ -14233,52 +14336,52 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="132">
         <v>-4.3031750000000004</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="132">
         <v>-5.2692839999999999</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="132">
         <v>-8.6007160000000002</v>
       </c>
-      <c r="F13" s="166">
+      <c r="F13" s="133">
         <v>-15.96838</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
       <c r="S13" s="17">
         <v>-3.3770470000000001</v>
       </c>
-      <c r="T13" s="162">
+      <c r="T13" s="132">
         <v>-3.933446</v>
       </c>
-      <c r="U13" s="162">
+      <c r="U13" s="132">
         <v>-4.1432580000000003</v>
       </c>
-      <c r="V13" s="161">
-        <f t="shared" ref="V13:V15" si="15">F13-U13-T13-S13</f>
+      <c r="V13" s="132">
+        <f t="shared" ref="V13:V15" si="16">F13-U13-T13-S13</f>
         <v>-4.5146290000000002</v>
       </c>
-      <c r="W13" s="162">
+      <c r="W13" s="132">
         <v>-4.081442</v>
       </c>
-      <c r="X13" s="163">
+      <c r="X13" s="133">
         <v>-2.911133</v>
       </c>
-      <c r="Y13" s="172">
+      <c r="Y13" s="139">
         <f>$Y$4*(AVERAGE(U13:X13)/Y4)-1</f>
         <v>-4.9126155000000002</v>
       </c>
-      <c r="Z13" s="172">
+      <c r="Z13" s="139">
         <f>$Y$4*(AVERAGE(V13:Y13)/Z4)-1</f>
         <v>-4.3145715721271856</v>
       </c>
@@ -14287,52 +14390,52 @@
       <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="132">
         <v>-0.12629099999999999</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="132">
         <v>-6.5144999999999995E-2</v>
       </c>
-      <c r="E14" s="162">
+      <c r="E14" s="132">
         <v>-0.225606</v>
       </c>
-      <c r="F14" s="166">
+      <c r="F14" s="133">
         <v>1.9334499999999999</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
       <c r="S14" s="17">
         <v>0.113487</v>
       </c>
-      <c r="T14" s="162">
+      <c r="T14" s="132">
         <v>1.0787530000000001</v>
       </c>
-      <c r="U14" s="162">
+      <c r="U14" s="132">
         <v>1.456E-2</v>
       </c>
-      <c r="V14" s="161">
-        <f t="shared" si="15"/>
+      <c r="V14" s="132">
+        <f t="shared" si="16"/>
         <v>0.72664999999999991</v>
       </c>
-      <c r="W14" s="162">
+      <c r="W14" s="132">
         <v>-9.1560000000000002E-2</v>
       </c>
-      <c r="X14" s="163">
+      <c r="X14" s="133">
         <v>5.0126999999999998E-2</v>
       </c>
-      <c r="Y14" s="172">
+      <c r="Y14" s="139">
         <f>$Y$4*(X14/$X$3)</f>
         <v>4.7136939069571358E-2</v>
       </c>
-      <c r="Z14" s="172">
+      <c r="Z14" s="139">
         <f>$Y$4*(Y14/$X$3)</f>
         <v>4.4325234401589621E-2</v>
       </c>
@@ -14341,53 +14444,53 @@
       <c r="B15" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="132">
         <v>0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="132">
         <v>-1.092679</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="132">
         <f>-0.813806+0.050424</f>
         <v>-0.76338200000000001</v>
       </c>
-      <c r="F15" s="166">
+      <c r="F15" s="133">
         <v>-0.45596199999999998</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
       <c r="S15" s="17">
         <v>-0.42020099999999999</v>
       </c>
-      <c r="T15" s="162">
+      <c r="T15" s="132">
         <v>0.25170599999999999</v>
       </c>
-      <c r="U15" s="162">
+      <c r="U15" s="132">
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="V15" s="161">
-        <f t="shared" si="15"/>
+      <c r="V15" s="132">
+        <f t="shared" si="16"/>
         <v>-0.37669399999999992</v>
       </c>
-      <c r="W15" s="162">
+      <c r="W15" s="132">
         <v>-1.2615559999999999</v>
       </c>
-      <c r="X15" s="163">
+      <c r="X15" s="133">
         <v>-0.25970599999999999</v>
       </c>
-      <c r="Y15" s="172">
+      <c r="Y15" s="139">
         <f>$Y$4*(X15/$X$3)</f>
         <v>-0.24421461284341969</v>
       </c>
-      <c r="Z15" s="172">
+      <c r="Z15" s="139">
         <f>$Y$4*(Y15/$X$3)</f>
         <v>-0.22964728241265653</v>
       </c>
@@ -14396,92 +14499,92 @@
       <c r="B16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="158">
+      <c r="C16" s="130">
         <f>C12+SUM(C13:C15)</f>
         <v>-32.351775999999994</v>
       </c>
-      <c r="D16" s="158">
-        <f t="shared" ref="D16:H16" si="16">D12+SUM(D13:D15)</f>
+      <c r="D16" s="130">
+        <f t="shared" ref="D16:H16" si="17">D12+SUM(D13:D15)</f>
         <v>-75.109947000000005</v>
       </c>
-      <c r="E16" s="158">
-        <f t="shared" si="16"/>
+      <c r="E16" s="130">
+        <f t="shared" si="17"/>
         <v>-38.024308999999988</v>
       </c>
-      <c r="F16" s="165">
-        <f t="shared" si="16"/>
+      <c r="F16" s="134">
+        <f t="shared" si="17"/>
         <v>7.7095090000000006</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K16" s="158">
-        <f t="shared" ref="K16" si="17">K12+SUM(K13:K15)</f>
+      <c r="K16" s="130">
+        <f t="shared" ref="K16" si="18">K12+SUM(K13:K15)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="158">
-        <f t="shared" ref="L16" si="18">L12+SUM(L13:L15)</f>
+      <c r="L16" s="130">
+        <f t="shared" ref="L16" si="19">L12+SUM(L13:L15)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="158">
-        <f t="shared" ref="M16" si="19">M12+SUM(M13:M15)</f>
+      <c r="M16" s="130">
+        <f t="shared" ref="M16" si="20">M12+SUM(M13:M15)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="158">
-        <f t="shared" ref="N16" si="20">N12+SUM(N13:N15)</f>
+      <c r="N16" s="130">
+        <f t="shared" ref="N16" si="21">N12+SUM(N13:N15)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="158">
-        <f t="shared" ref="O16" si="21">O12+SUM(O13:O15)</f>
+      <c r="O16" s="130">
+        <f t="shared" ref="O16" si="22">O12+SUM(O13:O15)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="158">
-        <f t="shared" ref="P16" si="22">P12+SUM(P13:P15)</f>
+      <c r="P16" s="130">
+        <f t="shared" ref="P16" si="23">P12+SUM(P13:P15)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="158">
-        <f t="shared" ref="Q16" si="23">Q12+SUM(Q13:Q15)</f>
+      <c r="Q16" s="130">
+        <f t="shared" ref="Q16" si="24">Q12+SUM(Q13:Q15)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="158">
-        <f t="shared" ref="R16" si="24">R12+SUM(R13:R15)</f>
+      <c r="R16" s="130">
+        <f t="shared" ref="R16" si="25">R12+SUM(R13:R15)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16" si="25">S12+SUM(S13:S15)</f>
+        <f t="shared" ref="S16" si="26">S12+SUM(S13:S15)</f>
         <v>1.7361700000000018</v>
       </c>
-      <c r="T16" s="158">
+      <c r="T16" s="130">
         <f>T12+SUM(T13:T15)</f>
         <v>1.1603040000000022</v>
       </c>
-      <c r="U16" s="158">
-        <f t="shared" ref="U16" si="26">U12+SUM(U13:U15)</f>
+      <c r="U16" s="130">
+        <f t="shared" ref="U16" si="27">U12+SUM(U13:U15)</f>
         <v>1.3102739999999988</v>
       </c>
-      <c r="V16" s="159">
-        <f t="shared" ref="V16" si="27">V12+SUM(V13:V15)</f>
+      <c r="V16" s="130">
+        <f t="shared" ref="V16" si="28">V12+SUM(V13:V15)</f>
         <v>3.5027610000000067</v>
       </c>
-      <c r="W16" s="158">
-        <f t="shared" ref="W16" si="28">W12+SUM(W13:W15)</f>
+      <c r="W16" s="130">
+        <f t="shared" ref="W16" si="29">W12+SUM(W13:W15)</f>
         <v>8.4000990000000009</v>
       </c>
-      <c r="X16" s="165">
-        <f t="shared" ref="X16:Y16" si="29">X12+SUM(X13:X15)</f>
+      <c r="X16" s="134">
+        <f t="shared" ref="X16:Y16" si="30">X12+SUM(X13:X15)</f>
         <v>13.578667999999997</v>
       </c>
-      <c r="Y16" s="174">
-        <f t="shared" si="29"/>
+      <c r="Y16" s="141">
+        <f t="shared" si="30"/>
         <v>10.465466797275937</v>
       </c>
-      <c r="Z16" s="174">
-        <f t="shared" ref="Z16" si="30">Z12+SUM(Z13:Z15)</f>
+      <c r="Z16" s="141">
+        <f t="shared" ref="Z16" si="31">Z12+SUM(Z13:Z15)</f>
         <v>22.227022996972579</v>
       </c>
     </row>
@@ -14489,51 +14592,51 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="132">
         <v>3.0963999999999998E-2</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="132">
         <v>5.8416000000000003E-2</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="132">
         <v>6.9446999999999995E-2</v>
       </c>
-      <c r="F17" s="166">
+      <c r="F17" s="133">
         <v>0.611487</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
       <c r="S17" s="17">
         <v>1.1624000000000001E-2</v>
       </c>
-      <c r="T17" s="162">
+      <c r="T17" s="132">
         <v>2.0525999999999999E-2</v>
       </c>
-      <c r="U17" s="162">
+      <c r="U17" s="132">
         <v>1.5873999999999999E-2</v>
       </c>
-      <c r="V17" s="161">
-        <f t="shared" ref="V17:V18" si="31">F17-U17-T17-S17</f>
+      <c r="V17" s="132">
+        <f t="shared" ref="V17:V18" si="32">F17-U17-T17-S17</f>
         <v>0.56346299999999994</v>
       </c>
-      <c r="W17" s="162">
+      <c r="W17" s="132">
         <v>0.393094</v>
       </c>
-      <c r="X17" s="163">
+      <c r="X17" s="133">
         <v>-16.123213</v>
       </c>
-      <c r="Y17" s="172">
+      <c r="Y17" s="139">
         <v>0.5</v>
       </c>
-      <c r="Z17" s="172">
+      <c r="Z17" s="139">
         <v>0.5</v>
       </c>
     </row>
@@ -14541,52 +14644,52 @@
       <c r="B18" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="132">
         <v>0.49450499999999997</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="132">
         <v>6.9405999999999995E-2</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="132">
         <v>-1.2078850000000001</v>
       </c>
-      <c r="F18" s="166">
+      <c r="F18" s="133">
         <v>-3.0249999999999999E-3</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
       <c r="S18" s="17">
         <v>0.14580799999999999</v>
       </c>
-      <c r="T18" s="162">
+      <c r="T18" s="132">
         <v>-0.30468699999999999</v>
       </c>
-      <c r="U18" s="162">
+      <c r="U18" s="132">
         <v>0.35846499999999998</v>
       </c>
-      <c r="V18" s="161">
-        <f t="shared" si="31"/>
+      <c r="V18" s="132">
+        <f t="shared" si="32"/>
         <v>-0.20261099999999999</v>
       </c>
-      <c r="W18" s="162">
+      <c r="W18" s="132">
         <v>-1.451E-3</v>
       </c>
-      <c r="X18" s="163">
+      <c r="X18" s="133">
         <v>-7.5401999999999997E-2</v>
       </c>
-      <c r="Y18" s="172">
+      <c r="Y18" s="139">
         <f>$Y$4*(X18/$X$3)</f>
         <v>-7.0904292691041149E-2</v>
       </c>
-      <c r="Z18" s="172">
+      <c r="Z18" s="139">
         <f>$Y$4*(Y18/$X$3)</f>
         <v>-6.6674872311302508E-2</v>
       </c>
@@ -14595,86 +14698,86 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="158">
-        <f t="shared" ref="C19:F19" si="32">C16-SUM(C17:C18)</f>
+      <c r="C19" s="130">
+        <f t="shared" ref="C19:F19" si="33">C16-SUM(C17:C18)</f>
         <v>-32.877244999999995</v>
       </c>
-      <c r="D19" s="158">
-        <f t="shared" si="32"/>
+      <c r="D19" s="130">
+        <f t="shared" si="33"/>
         <v>-75.237769</v>
       </c>
-      <c r="E19" s="158">
-        <f t="shared" si="32"/>
+      <c r="E19" s="130">
+        <f t="shared" si="33"/>
         <v>-36.885870999999987</v>
       </c>
-      <c r="F19" s="165">
-        <f t="shared" si="32"/>
+      <c r="F19" s="134">
+        <f t="shared" si="33"/>
         <v>7.1010470000000003</v>
       </c>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
-      <c r="K19" s="158">
-        <f t="shared" ref="K19" si="33">K16-SUM(K17:K18)</f>
+      <c r="K19" s="130">
+        <f t="shared" ref="K19" si="34">K16-SUM(K17:K18)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="158">
-        <f t="shared" ref="L19" si="34">L16-SUM(L17:L18)</f>
+      <c r="L19" s="130">
+        <f t="shared" ref="L19" si="35">L16-SUM(L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="158">
-        <f t="shared" ref="M19" si="35">M16-SUM(M17:M18)</f>
+      <c r="M19" s="130">
+        <f t="shared" ref="M19" si="36">M16-SUM(M17:M18)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="158">
-        <f t="shared" ref="N19" si="36">N16-SUM(N17:N18)</f>
+      <c r="N19" s="130">
+        <f t="shared" ref="N19" si="37">N16-SUM(N17:N18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="158">
-        <f t="shared" ref="O19" si="37">O16-SUM(O17:O18)</f>
+      <c r="O19" s="130">
+        <f t="shared" ref="O19" si="38">O16-SUM(O17:O18)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="158">
-        <f t="shared" ref="P19" si="38">P16-SUM(P17:P18)</f>
+      <c r="P19" s="130">
+        <f t="shared" ref="P19" si="39">P16-SUM(P17:P18)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="158">
-        <f t="shared" ref="Q19" si="39">Q16-SUM(Q17:Q18)</f>
+      <c r="Q19" s="130">
+        <f t="shared" ref="Q19" si="40">Q16-SUM(Q17:Q18)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="158">
-        <f t="shared" ref="R19" si="40">R16-SUM(R17:R18)</f>
+      <c r="R19" s="130">
+        <f t="shared" ref="R19" si="41">R16-SUM(R17:R18)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19:T19" si="41">S16-SUM(S17:S18)</f>
+        <f t="shared" ref="S19:T19" si="42">S16-SUM(S17:S18)</f>
         <v>1.5787380000000018</v>
       </c>
-      <c r="T19" s="158">
-        <f t="shared" si="41"/>
+      <c r="T19" s="130">
+        <f t="shared" si="42"/>
         <v>1.4444650000000023</v>
       </c>
-      <c r="U19" s="158">
-        <f t="shared" ref="U19" si="42">U16-SUM(U17:U18)</f>
+      <c r="U19" s="130">
+        <f t="shared" ref="U19" si="43">U16-SUM(U17:U18)</f>
         <v>0.93593499999999885</v>
       </c>
-      <c r="V19" s="159">
-        <f t="shared" ref="V19" si="43">V16-SUM(V17:V18)</f>
+      <c r="V19" s="130">
+        <f t="shared" ref="V19" si="44">V16-SUM(V17:V18)</f>
         <v>3.1419090000000067</v>
       </c>
-      <c r="W19" s="158">
-        <f t="shared" ref="W19" si="44">W16-SUM(W17:W18)</f>
+      <c r="W19" s="130">
+        <f t="shared" ref="W19" si="45">W16-SUM(W17:W18)</f>
         <v>8.0084560000000007</v>
       </c>
-      <c r="X19" s="165">
-        <f t="shared" ref="X19:Y19" si="45">X16-SUM(X17:X18)</f>
+      <c r="X19" s="134">
+        <f t="shared" ref="X19:Y19" si="46">X16-SUM(X17:X18)</f>
         <v>29.777282999999997</v>
       </c>
-      <c r="Y19" s="174">
-        <f t="shared" si="45"/>
+      <c r="Y19" s="141">
+        <f t="shared" si="46"/>
         <v>10.036371089966979</v>
       </c>
-      <c r="Z19" s="174">
-        <f t="shared" ref="Z19" si="46">Z16-SUM(Z17:Z18)</f>
+      <c r="Z19" s="141">
+        <f t="shared" ref="Z19" si="47">Z16-SUM(Z17:Z18)</f>
         <v>21.793697869283882</v>
       </c>
     </row>
@@ -14682,51 +14785,51 @@
       <c r="B20" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="132">
         <v>186.842646</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="132">
         <v>200.34402800000001</v>
       </c>
-      <c r="E20" s="162">
+      <c r="E20" s="132">
         <v>5.4436049999999998</v>
       </c>
-      <c r="F20" s="166">
+      <c r="F20" s="133">
         <v>5.6785269999999999</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
       <c r="S20" s="17">
         <v>5.5568299999999997</v>
       </c>
-      <c r="T20" s="162">
+      <c r="T20" s="132">
         <v>5.6557409999999999</v>
       </c>
-      <c r="U20" s="160">
+      <c r="U20" s="131">
         <v>5.7296649999999998</v>
       </c>
-      <c r="V20" s="164">
+      <c r="V20" s="132">
         <f>F20</f>
         <v>5.6785269999999999</v>
       </c>
-      <c r="W20" s="162">
+      <c r="W20" s="132">
         <v>5.9607679999999998</v>
       </c>
-      <c r="X20" s="166">
+      <c r="X20" s="133">
         <v>6.0243779999999996</v>
       </c>
-      <c r="Y20" s="175">
+      <c r="Y20" s="142">
         <v>6.08</v>
       </c>
-      <c r="Z20" s="175">
+      <c r="Z20" s="142">
         <v>6.14</v>
       </c>
     </row>
@@ -14757,39 +14860,39 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="2" t="e">
-        <f t="shared" ref="L21:X21" si="47">L19/L20</f>
+        <f t="shared" ref="L21:R21" si="48">L19/L20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="2" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="2" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="2" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="2" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21:T21" si="48">(S19+S18)/S20</f>
+        <f t="shared" ref="S21:T21" si="49">(S19+S18)/S20</f>
         <v>0.3103470863783851</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.2015258478066804</v>
       </c>
       <c r="U21" s="2">
@@ -14797,23 +14900,23 @@
         <v>0.22591198612833366</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" ref="V21:Z21" si="49">(V19+V18)/V20</f>
+        <f t="shared" ref="V21:Z21" si="50">(V19+V18)/V20</f>
         <v>0.5176162761927533</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1.3432841204354877</v>
       </c>
       <c r="X21" s="34">
         <f>(X19+X18)/X20</f>
         <v>4.9302817651880408</v>
       </c>
-      <c r="Y21" s="174">
-        <f t="shared" si="49"/>
+      <c r="Y21" s="141">
+        <f t="shared" si="50"/>
         <v>1.6390570390256476</v>
       </c>
-      <c r="Z21" s="174">
-        <f t="shared" si="49"/>
+      <c r="Z21" s="141">
+        <f t="shared" si="50"/>
         <v>3.5386030939694755</v>
       </c>
     </row>
@@ -14842,13 +14945,13 @@
       <c r="S22" s="50"/>
       <c r="T22" s="50"/>
       <c r="U22" s="50"/>
-      <c r="V22" s="154"/>
+      <c r="V22" s="49"/>
       <c r="W22" s="49"/>
       <c r="X22" s="48"/>
-      <c r="Y22" s="176">
+      <c r="Y22" s="140">
         <v>0.89</v>
       </c>
-      <c r="Z22" s="176">
+      <c r="Z22" s="140">
         <v>2.21</v>
       </c>
     </row>
@@ -14857,15 +14960,15 @@
         <v>28</v>
       </c>
       <c r="C23" s="38">
-        <f t="shared" ref="C23:E23" si="50">1-(C6)/C3</f>
+        <f t="shared" ref="C23:E23" si="51">1-(C6)/C3</f>
         <v>0.61744707145930278</v>
       </c>
       <c r="D23" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.62134282197000457</v>
       </c>
       <c r="E23" s="38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.67526732664735967</v>
       </c>
       <c r="F23" s="5">
@@ -14875,67 +14978,67 @@
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
       <c r="K23" s="38" t="e">
-        <f t="shared" ref="K23:Z23" si="51">1-(K6)/K3</f>
+        <f t="shared" ref="K23:Z23" si="52">1-(K6)/K3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="38" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.76239484347539765</v>
       </c>
       <c r="T23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.77256785764017144</v>
       </c>
       <c r="U23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.75671444766418616</v>
       </c>
       <c r="V23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.73239191660374248</v>
       </c>
       <c r="W23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.74909559950167992</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.80807745356071237</v>
       </c>
-      <c r="Y23" s="177" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" s="177" t="e">
-        <f t="shared" si="51"/>
+      <c r="Y23" s="143" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="143" t="e">
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14972,80 +15075,80 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="3" t="e">
-        <f t="shared" ref="L24:Z24" si="52">L19/L3</f>
+        <f t="shared" ref="L24:Z24" si="53">L19/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="3" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.5531634870515168E-2</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.1344062346467696E-2</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2.2914758450042857E-2</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.4249779786806169E-2</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.17047017586760826</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.53203641941123847</v>
       </c>
-      <c r="Y24" s="172" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="172" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="167" t="s">
+      <c r="Y24" s="139" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="139" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168">
+      <c r="C25" s="136"/>
+      <c r="D25" s="136">
         <f>D3/C3-1</f>
         <v>0.95305337511785693</v>
       </c>
-      <c r="E25" s="169">
+      <c r="E25" s="137">
         <f>E3/D3-1</f>
         <v>9.3660696466152382E-2</v>
       </c>
-      <c r="F25" s="170">
+      <c r="F25" s="138">
         <f>F3/E3-1</f>
         <v>0.26906277250392074</v>
       </c>
@@ -15057,46 +15160,46 @@
         <f>H4/G4-1</f>
         <v>0.25431405407853624</v>
       </c>
-      <c r="K25" s="168"/>
-      <c r="L25" s="168"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="168"/>
-      <c r="Q25" s="169" t="e">
-        <f t="shared" ref="Q25:W25" si="53">Q3/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="169" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="169" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="169" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="169" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="169" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="169">
-        <f t="shared" si="53"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="137" t="e">
+        <f t="shared" ref="Q25:W25" si="54">Q3/M3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="137" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="137" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="137" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="137" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="137" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="137">
+        <f t="shared" si="54"/>
         <v>0.3548885312214991</v>
       </c>
-      <c r="X25" s="170">
+      <c r="X25" s="138">
         <f>X3/T3-1</f>
         <v>0.60195322154471387</v>
       </c>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="178"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="144"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -15125,63 +15228,63 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="3" t="e">
-        <f t="shared" ref="L26:Z26" si="54">L8/L3</f>
+        <f t="shared" ref="L26:Z26" si="55">L8/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="3" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="3" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="3" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="3" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="3" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="3" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9.2265862008291025E-2</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9.4844976045193624E-2</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8.8515356194628469E-2</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.795067531194099E-2</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.3939847633713658E-2</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.7779445779371808E-2</v>
       </c>
-      <c r="Y26" s="172" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="172" t="e">
-        <f t="shared" si="54"/>
+      <c r="Y26" s="139" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="139" t="e">
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15212,63 +15315,63 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:Z27" si="55">L5/L3</f>
+        <f t="shared" ref="L27:Z27" si="56">L5/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="3" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="3" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="3" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.33379996343598073</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.34395747397543591</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.27125451664484757</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.23933184019500423</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.23468200458957578</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.22756589621252166</v>
       </c>
-      <c r="Y27" s="172" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="172" t="e">
-        <f t="shared" si="55"/>
+      <c r="Y27" s="139" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="139" t="e">
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15299,80 +15402,80 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="3" t="e">
-        <f t="shared" ref="L28:Z28" si="56">L11/L3</f>
+        <f t="shared" ref="L28:Z28" si="57">L11/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="3" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="3" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="3" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="3" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="3" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="3" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="172" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="172" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="167" t="s">
+      <c r="Y28" s="139" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="139" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168">
+      <c r="C29" s="136"/>
+      <c r="D29" s="136">
         <f>-(D19/C19-1)</f>
         <v>-1.2884450628390551</v>
       </c>
-      <c r="E29" s="169">
+      <c r="E29" s="137">
         <f>E19/D19-1</f>
         <v>-0.50974262673844062</v>
       </c>
-      <c r="F29" s="170">
+      <c r="F29" s="138">
         <f>F21/E21-1</f>
         <v>-1.1845496616419049</v>
       </c>
@@ -15384,40 +15487,40 @@
         <f>H22/G22-1</f>
         <v>0.35661218424962859</v>
       </c>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="169" t="e">
-        <f t="shared" ref="S29:W29" si="57">S21/O21-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="169" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="169" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="169" t="e">
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="137" t="e">
+        <f t="shared" ref="S29:W29" si="58">S21/O21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="137" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="137" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="137" t="e">
         <f>V21/R21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W29" s="169">
-        <f t="shared" si="57"/>
+      <c r="W29" s="137">
+        <f t="shared" si="58"/>
         <v>3.3283284406211981</v>
       </c>
-      <c r="X29" s="170">
+      <c r="X29" s="138">
         <f>X21/T21-1</f>
         <v>23.46476131398072</v>
       </c>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -15452,63 +15555,63 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="52" t="e">
-        <f t="shared" ref="L30:Z30" si="58">L13/L3</f>
+        <f t="shared" ref="L30:Z30" si="59">L13/L3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="52" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="52" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="52" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="52" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="52" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="52" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="52">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-9.7395812949690505E-2</v>
       </c>
       <c r="T30" s="52">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.11258468475211493</v>
       </c>
       <c r="U30" s="52">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.1014405447666855</v>
       </c>
       <c r="V30" s="52">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-9.232091670036538E-2</v>
       </c>
       <c r="W30" s="52">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-8.6878686170398234E-2</v>
       </c>
       <c r="X30" s="53">
         <f>X13/X3</f>
         <v>-5.2013770959220725E-2</v>
       </c>
-      <c r="Y30" s="177" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="177" t="e">
-        <f t="shared" si="58"/>
+      <c r="Y30" s="143" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="143" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15517,27 +15620,27 @@
         <v>75</v>
       </c>
       <c r="C31" s="54">
-        <f>-C13/C12</f>
+        <f t="shared" ref="C31:H31" si="60">-C13/C12</f>
         <v>-0.1541124283771651</v>
       </c>
       <c r="D31" s="54">
-        <f>-D13/D12</f>
+        <f t="shared" si="60"/>
         <v>-7.671907679879103E-2</v>
       </c>
       <c r="E31" s="54">
-        <f>-E13/E12</f>
+        <f t="shared" si="60"/>
         <v>-0.30247355291202405</v>
       </c>
       <c r="F31" s="53">
-        <f>-F13/F12</f>
+        <f t="shared" si="60"/>
         <v>0.71928340393491097</v>
       </c>
       <c r="G31" s="52" t="e">
-        <f>-G13/G12</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="52" t="e">
-        <f>-H13/H12</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="54" t="e">
@@ -15545,63 +15648,63 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="54" t="e">
-        <f t="shared" ref="L31:Z31" si="59">-L13/L12</f>
+        <f t="shared" ref="L31:Z31" si="61">-L13/L12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="54" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="54" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="54" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="54" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="54" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="54" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="54">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.62307933440481045</v>
       </c>
       <c r="T31" s="54">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0452144147237079</v>
       </c>
       <c r="U31" s="54">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.77447766201940493</v>
       </c>
       <c r="V31" s="54">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.58880572040137491</v>
       </c>
       <c r="W31" s="54">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.2950157709005724</v>
       </c>
       <c r="X31" s="53">
         <f>-X13/X12</f>
         <v>0.1743258132936672</v>
       </c>
-      <c r="Y31" s="178">
-        <f t="shared" si="59"/>
+      <c r="Y31" s="144">
+        <f t="shared" si="61"/>
         <v>0.31541348590520341</v>
       </c>
-      <c r="Z31" s="178">
-        <f t="shared" si="59"/>
+      <c r="Z31" s="144">
+        <f t="shared" si="61"/>
         <v>0.16143169950868763</v>
       </c>
     </row>
@@ -15609,83 +15712,83 @@
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="150">
-        <f t="shared" ref="C34:E34" si="60">C35-C55-C57</f>
+      <c r="C34" s="10">
+        <f t="shared" ref="C34:E34" si="62">C35-C55-C57</f>
         <v>42.988823999999994</v>
       </c>
-      <c r="D34" s="150">
-        <f t="shared" si="60"/>
+      <c r="D34" s="10">
+        <f t="shared" si="62"/>
         <v>-0.97740299999999536</v>
       </c>
-      <c r="E34" s="150">
-        <f t="shared" si="60"/>
+      <c r="E34" s="10">
+        <f t="shared" si="62"/>
         <v>4.2520639999999972</v>
       </c>
       <c r="F34" s="13">
         <f>F35-F55-F57</f>
         <v>67.374212</v>
       </c>
-      <c r="K34" s="150">
-        <f t="shared" ref="K34" si="61">K35-K55-K57</f>
+      <c r="K34" s="10">
+        <f t="shared" ref="K34" si="63">K35-K55-K57</f>
         <v>0</v>
       </c>
-      <c r="L34" s="150">
-        <f t="shared" ref="L34" si="62">L35-L55-L57</f>
+      <c r="L34" s="10">
+        <f t="shared" ref="L34" si="64">L35-L55-L57</f>
         <v>0</v>
       </c>
-      <c r="M34" s="150">
-        <f t="shared" ref="M34" si="63">M35-M55-M57</f>
+      <c r="M34" s="10">
+        <f t="shared" ref="M34" si="65">M35-M55-M57</f>
         <v>0</v>
       </c>
-      <c r="N34" s="150">
-        <f t="shared" ref="N34" si="64">N35-N55-N57</f>
+      <c r="N34" s="10">
+        <f t="shared" ref="N34" si="66">N35-N55-N57</f>
         <v>0</v>
       </c>
-      <c r="O34" s="150">
-        <f t="shared" ref="O34" si="65">O35-O55-O57</f>
+      <c r="O34" s="10">
+        <f t="shared" ref="O34" si="67">O35-O55-O57</f>
         <v>0</v>
       </c>
-      <c r="P34" s="150">
-        <f t="shared" ref="P34" si="66">P35-P55-P57</f>
+      <c r="P34" s="10">
+        <f t="shared" ref="P34" si="68">P35-P55-P57</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="150">
-        <f t="shared" ref="Q34" si="67">Q35-Q55-Q57</f>
+      <c r="Q34" s="10">
+        <f t="shared" ref="Q34" si="69">Q35-Q55-Q57</f>
         <v>0</v>
       </c>
-      <c r="R34" s="150">
-        <f t="shared" ref="R34" si="68">R35-R55-R57</f>
+      <c r="R34" s="10">
+        <f t="shared" ref="R34" si="70">R35-R55-R57</f>
         <v>0</v>
       </c>
-      <c r="S34" s="150">
-        <f t="shared" ref="S34" si="69">S35-S55-S57</f>
+      <c r="S34" s="10">
+        <f t="shared" ref="S34" si="71">S35-S55-S57</f>
         <v>0</v>
       </c>
-      <c r="T34" s="150">
-        <f t="shared" ref="T34" si="70">T35-T55-T57</f>
+      <c r="T34" s="10">
+        <f t="shared" ref="T34" si="72">T35-T55-T57</f>
         <v>0</v>
       </c>
-      <c r="U34" s="150">
-        <f t="shared" ref="U34" si="71">U35-U55-U57</f>
+      <c r="U34" s="10">
+        <f t="shared" ref="U34" si="73">U35-U55-U57</f>
         <v>-10.23635800000001</v>
       </c>
-      <c r="V34" s="150">
-        <f t="shared" ref="V34" si="72">V35-V55-V57</f>
+      <c r="V34" s="10">
+        <f t="shared" ref="V34" si="74">V35-V55-V57</f>
         <v>67.374212</v>
       </c>
-      <c r="W34" s="150">
-        <f t="shared" ref="W34" si="73">W35-W55-W57</f>
+      <c r="W34" s="10">
+        <f t="shared" ref="W34" si="75">W35-W55-W57</f>
         <v>6.0957769999999982</v>
       </c>
       <c r="X34" s="13">
-        <f t="shared" ref="X34" si="74">X35-X55-X57</f>
+        <f t="shared" ref="X34" si="76">X35-X55-X57</f>
         <v>-10.855995</v>
       </c>
-      <c r="Y34" s="150">
-        <f t="shared" ref="Y34" si="75">Y35-Y55-Y57</f>
+      <c r="Y34" s="10">
+        <f t="shared" ref="Y34" si="77">Y35-Y55-Y57</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="150"/>
+      <c r="Z34" s="10"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -15713,21 +15816,21 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="161">
+      <c r="U35" s="132">
         <v>65.150279999999995</v>
       </c>
-      <c r="V35" s="152">
-        <f>F35</f>
+      <c r="V35" s="9">
+        <f t="shared" ref="V35:V40" si="78">F35</f>
         <v>67.624212</v>
       </c>
-      <c r="W35" s="152">
+      <c r="W35" s="9">
         <v>77.784582999999998</v>
       </c>
       <c r="X35" s="14">
         <v>58.026052999999997</v>
       </c>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="152"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -15755,21 +15858,21 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="161">
+      <c r="U36" s="132">
         <v>1.5804180000000001</v>
       </c>
-      <c r="V36" s="152">
-        <f>F36</f>
+      <c r="V36" s="9">
+        <f t="shared" si="78"/>
         <v>2.9930110000000001</v>
       </c>
-      <c r="W36" s="152">
+      <c r="W36" s="9">
         <v>3.8184969999999998</v>
       </c>
       <c r="X36" s="14">
         <v>5.384366</v>
       </c>
-      <c r="Y36" s="152"/>
-      <c r="Z36" s="152"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -15797,21 +15900,21 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="161">
+      <c r="U37" s="132">
         <v>111.146024</v>
       </c>
-      <c r="V37" s="152">
-        <f>F37</f>
+      <c r="V37" s="9">
+        <f t="shared" si="78"/>
         <v>142.885682</v>
       </c>
-      <c r="W37" s="152">
+      <c r="W37" s="9">
         <v>112.514403</v>
       </c>
       <c r="X37" s="14">
         <v>131.02147400000001</v>
       </c>
-      <c r="Y37" s="152"/>
-      <c r="Z37" s="152"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -15835,21 +15938,21 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="161">
+      <c r="U38" s="132">
         <v>-8.5979419999999998</v>
       </c>
-      <c r="V38" s="152">
-        <f>F38</f>
+      <c r="V38" s="9">
+        <f t="shared" si="78"/>
         <v>-12.253041</v>
       </c>
-      <c r="W38" s="152">
+      <c r="W38" s="9">
         <v>-9.1827319999999997</v>
       </c>
       <c r="X38" s="14">
         <v>-11.786141000000001</v>
       </c>
-      <c r="Y38" s="152"/>
-      <c r="Z38" s="152"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -15880,18 +15983,18 @@
       <c r="U39" s="9">
         <v>2.0556489999999998</v>
       </c>
-      <c r="V39" s="152">
-        <f>F39</f>
+      <c r="V39" s="9">
+        <f t="shared" si="78"/>
         <v>1.571728</v>
       </c>
-      <c r="W39" s="152">
+      <c r="W39" s="9">
         <v>1.31633</v>
       </c>
       <c r="X39" s="14">
         <v>1.023752</v>
       </c>
-      <c r="Y39" s="152"/>
-      <c r="Z39" s="152"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -15922,25 +16025,25 @@
       <c r="U40" s="9">
         <v>4.8685590000000003</v>
       </c>
-      <c r="V40" s="152">
-        <f>F40</f>
+      <c r="V40" s="9">
+        <f t="shared" si="78"/>
         <v>6.223274</v>
       </c>
-      <c r="W40" s="152">
+      <c r="W40" s="9">
         <v>5.4328779999999997</v>
       </c>
       <c r="X40" s="14">
         <v>6.8006849999999996</v>
       </c>
-      <c r="Y40" s="152"/>
-      <c r="Z40" s="152"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
     </row>
     <row r="41" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" ref="C41" si="76">SUM(C35:C40)</f>
+        <f t="shared" ref="C41" si="79">SUM(C35:C40)</f>
         <v>173.00042799999997</v>
       </c>
       <c r="D41" s="10">
@@ -15948,71 +16051,71 @@
         <v>221.29090299999999</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" ref="E41:F41" si="77">SUM(E35:E40)</f>
+        <f t="shared" ref="E41:F41" si="80">SUM(E35:E40)</f>
         <v>170.13146</v>
       </c>
       <c r="F41" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>209.04486600000001</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" ref="K41:X41" si="78">SUM(K35:K40)</f>
+        <f t="shared" ref="K41:X41" si="81">SUM(K35:K40)</f>
         <v>0</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>176.20298799999998</v>
       </c>
-      <c r="V41" s="150">
-        <f t="shared" si="78"/>
+      <c r="V41" s="10">
+        <f t="shared" si="81"/>
         <v>209.04486600000001</v>
       </c>
-      <c r="W41" s="150">
-        <f t="shared" si="78"/>
+      <c r="W41" s="10">
+        <f t="shared" si="81"/>
         <v>191.68395899999999</v>
       </c>
       <c r="X41" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>190.470189</v>
       </c>
-      <c r="Y41" s="150"/>
-      <c r="Z41" s="150"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -16043,18 +16146,18 @@
       <c r="U42" s="9">
         <v>1.791784</v>
       </c>
-      <c r="V42" s="152">
-        <f t="shared" ref="V42:V46" si="79">F42</f>
+      <c r="V42" s="9">
+        <f t="shared" ref="V42:V46" si="82">F42</f>
         <v>1.8984700000000001</v>
       </c>
-      <c r="W42" s="152">
+      <c r="W42" s="9">
         <v>2.058271</v>
       </c>
       <c r="X42" s="14">
         <v>2.1996370000000001</v>
       </c>
-      <c r="Y42" s="152"/>
-      <c r="Z42" s="152"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -16087,18 +16190,18 @@
       <c r="U43" s="9">
         <v>0.166264</v>
       </c>
-      <c r="V43" s="152">
-        <f t="shared" si="79"/>
+      <c r="V43" s="9">
+        <f t="shared" si="82"/>
         <v>0.99447600000000003</v>
       </c>
-      <c r="W43" s="152">
+      <c r="W43" s="9">
         <v>0.86786099999999999</v>
       </c>
       <c r="X43" s="14">
         <v>0.86539299999999997</v>
       </c>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="152"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -16129,18 +16232,18 @@
       <c r="U44" s="9">
         <v>1.028165</v>
       </c>
-      <c r="V44" s="152">
-        <f t="shared" si="79"/>
+      <c r="V44" s="9">
+        <f t="shared" si="82"/>
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="W44" s="152">
+      <c r="W44" s="9">
         <v>0.58199999999999996</v>
       </c>
       <c r="X44" s="14">
         <v>0.58199999999999996</v>
       </c>
-      <c r="Y44" s="152"/>
-      <c r="Z44" s="152"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -16163,13 +16266,13 @@
       <c r="U45" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="V45" s="152"/>
-      <c r="W45" s="152"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
       <c r="X45" s="14">
         <v>17.557068000000001</v>
       </c>
-      <c r="Y45" s="152"/>
-      <c r="Z45" s="152"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -16200,18 +16303,18 @@
       <c r="U46" s="9">
         <v>0.632158</v>
       </c>
-      <c r="V46" s="152">
-        <f t="shared" si="79"/>
+      <c r="V46" s="9">
+        <f t="shared" si="82"/>
         <v>0.625471</v>
       </c>
-      <c r="W46" s="152">
+      <c r="W46" s="9">
         <v>0.51632999999999996</v>
       </c>
       <c r="X46" s="14">
         <v>0.402366</v>
       </c>
-      <c r="Y46" s="152"/>
-      <c r="Z46" s="152"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -16234,63 +16337,63 @@
         <v>212.64528300000001</v>
       </c>
       <c r="K47" s="10">
-        <f>SUM(K41:K46)</f>
+        <f t="shared" ref="K47:X47" si="83">SUM(K41:K46)</f>
         <v>0</v>
       </c>
       <c r="L47" s="10">
-        <f>SUM(L41:L46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M47" s="10">
-        <f>SUM(M41:M46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="N47" s="10">
-        <f>SUM(N41:N46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O47" s="10">
-        <f>SUM(O41:O46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P47" s="10">
-        <f>SUM(P41:P46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Q47" s="10">
-        <f>SUM(Q41:Q46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R47" s="10">
-        <f>SUM(R41:R46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="S47" s="10">
-        <f>SUM(S41:S46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T47" s="10">
-        <f>SUM(T41:T46)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f>SUM(U41:U46)</f>
+        <f t="shared" si="83"/>
         <v>179.90335899999999</v>
       </c>
-      <c r="V47" s="150">
-        <f>SUM(V41:V46)</f>
+      <c r="V47" s="10">
+        <f t="shared" si="83"/>
         <v>212.64528300000001</v>
       </c>
-      <c r="W47" s="150">
-        <f>SUM(W41:W46)</f>
+      <c r="W47" s="10">
+        <f t="shared" si="83"/>
         <v>195.70842099999999</v>
       </c>
       <c r="X47" s="13">
-        <f>SUM(X41:X46)</f>
+        <f t="shared" si="83"/>
         <v>212.07665299999999</v>
       </c>
-      <c r="Y47" s="150"/>
-      <c r="Z47" s="150"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -16321,18 +16424,18 @@
       <c r="U48" s="9">
         <v>68.182563000000002</v>
       </c>
-      <c r="V48" s="152">
-        <f t="shared" ref="V48:V53" si="80">F48</f>
+      <c r="V48" s="9">
+        <f t="shared" ref="V48:V53" si="84">F48</f>
         <v>74.135491000000002</v>
       </c>
-      <c r="W48" s="152">
+      <c r="W48" s="9">
         <v>73.732664999999997</v>
       </c>
       <c r="X48" s="14">
         <v>71.251579000000007</v>
       </c>
-      <c r="Y48" s="152"/>
-      <c r="Z48" s="152"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -16363,18 +16466,18 @@
       <c r="U49" s="9">
         <v>5.2116999999999997E-2</v>
       </c>
-      <c r="V49" s="152">
-        <f t="shared" si="80"/>
+      <c r="V49" s="9">
+        <f t="shared" si="84"/>
         <v>5.7315999999999999E-2</v>
       </c>
-      <c r="W49" s="152">
+      <c r="W49" s="9">
         <v>5.0430999999999997E-2</v>
       </c>
       <c r="X49" s="14">
         <v>6.9705000000000003E-2</v>
       </c>
-      <c r="Y49" s="152"/>
-      <c r="Z49" s="152"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -16405,18 +16508,18 @@
       <c r="U50" s="9">
         <v>7.8326510000000003</v>
       </c>
-      <c r="V50" s="152">
-        <f t="shared" si="80"/>
+      <c r="V50" s="9">
+        <f t="shared" si="84"/>
         <v>10.790308</v>
       </c>
-      <c r="W50" s="152">
+      <c r="W50" s="9">
         <v>10.488273</v>
       </c>
       <c r="X50" s="14">
         <v>8.4402989999999996</v>
       </c>
-      <c r="Y50" s="152"/>
-      <c r="Z50" s="152"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -16447,18 +16550,18 @@
       <c r="U51" s="9">
         <v>5.300675</v>
       </c>
-      <c r="V51" s="152">
-        <f t="shared" si="80"/>
+      <c r="V51" s="9">
+        <f t="shared" si="84"/>
         <v>5.2614359999999998</v>
       </c>
-      <c r="W51" s="152">
+      <c r="W51" s="9">
         <v>5.5360370000000003</v>
       </c>
       <c r="X51" s="14">
         <v>8.2429919999999992</v>
       </c>
-      <c r="Y51" s="152"/>
-      <c r="Z51" s="152"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -16485,18 +16588,18 @@
       <c r="U52" s="9">
         <v>2.0702310000000002</v>
       </c>
-      <c r="V52" s="152">
-        <f t="shared" si="80"/>
+      <c r="V52" s="9">
+        <f t="shared" si="84"/>
         <v>2.64323</v>
       </c>
-      <c r="W52" s="152">
+      <c r="W52" s="9">
         <v>3.1341350000000001</v>
       </c>
       <c r="X52" s="14">
         <v>3.9421200000000001</v>
       </c>
-      <c r="Y52" s="152"/>
-      <c r="Z52" s="152"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -16519,14 +16622,14 @@
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="152">
-        <f t="shared" si="80"/>
+      <c r="V53" s="9">
+        <f t="shared" si="84"/>
         <v>94.380905999999996</v>
       </c>
-      <c r="W53" s="152"/>
+      <c r="W53" s="9"/>
       <c r="X53" s="14"/>
-      <c r="Y53" s="152"/>
-      <c r="Z53" s="152"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
@@ -16549,63 +16652,63 @@
         <v>187.268687</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" ref="K54:X54" si="81">SUM(K48:K53)</f>
+        <f t="shared" ref="K54:X54" si="85">SUM(K48:K53)</f>
         <v>0</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="T54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>83.438237000000001</v>
       </c>
-      <c r="V54" s="150">
-        <f t="shared" si="81"/>
+      <c r="V54" s="10">
+        <f t="shared" si="85"/>
         <v>187.268687</v>
       </c>
-      <c r="W54" s="150">
-        <f t="shared" si="81"/>
+      <c r="W54" s="10">
+        <f t="shared" si="85"/>
         <v>92.941540999999987</v>
       </c>
       <c r="X54" s="13">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>91.946695000000005</v>
       </c>
-      <c r="Y54" s="150"/>
-      <c r="Z54" s="150"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -16636,18 +16739,18 @@
       <c r="U55" s="9">
         <v>0.25</v>
       </c>
-      <c r="V55" s="152">
-        <f t="shared" ref="V55:V59" si="82">F55</f>
+      <c r="V55" s="9">
+        <f t="shared" ref="V55:V59" si="86">F55</f>
         <v>0.25</v>
       </c>
-      <c r="W55" s="152">
+      <c r="W55" s="9">
         <v>0.25</v>
       </c>
       <c r="X55" s="14">
         <v>0</v>
       </c>
-      <c r="Y55" s="152"/>
-      <c r="Z55" s="152"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -16674,18 +16777,18 @@
       <c r="U56" s="9">
         <v>0.99831599999999998</v>
       </c>
-      <c r="V56" s="152">
-        <f t="shared" si="82"/>
+      <c r="V56" s="9">
+        <f t="shared" si="86"/>
         <v>0.98169200000000001</v>
       </c>
-      <c r="W56" s="152">
+      <c r="W56" s="9">
         <v>0.88422699999999999</v>
       </c>
       <c r="X56" s="14">
         <v>0.88412400000000002</v>
       </c>
-      <c r="Y56" s="152"/>
-      <c r="Z56" s="152"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -16716,18 +16819,18 @@
       <c r="U57" s="9">
         <v>75.136638000000005</v>
       </c>
-      <c r="V57" s="152">
-        <f t="shared" si="82"/>
+      <c r="V57" s="9">
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="W57" s="152">
+      <c r="W57" s="9">
         <v>71.438806</v>
       </c>
       <c r="X57" s="14">
         <v>68.882047999999998</v>
       </c>
-      <c r="Y57" s="152"/>
-      <c r="Z57" s="152"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -16754,14 +16857,14 @@
       <c r="U58" s="9">
         <v>0.59056299999999995</v>
       </c>
-      <c r="V58" s="152">
-        <f t="shared" si="82"/>
+      <c r="V58" s="9">
+        <f t="shared" si="86"/>
         <v>0.96725700000000003</v>
       </c>
-      <c r="W58" s="152"/>
+      <c r="W58" s="9"/>
       <c r="X58" s="14"/>
-      <c r="Y58" s="152"/>
-      <c r="Z58" s="152"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -16788,18 +16891,18 @@
       <c r="U59" s="9">
         <v>1.51555</v>
       </c>
-      <c r="V59" s="152">
-        <f t="shared" si="82"/>
+      <c r="V59" s="9">
+        <f t="shared" si="86"/>
         <v>1.083323</v>
       </c>
-      <c r="W59" s="152">
+      <c r="W59" s="9">
         <v>0.58045599999999997</v>
       </c>
       <c r="X59" s="14">
         <v>7.4070999999999998E-2</v>
       </c>
-      <c r="Y59" s="152"/>
-      <c r="Z59" s="152"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -16822,74 +16925,74 @@
         <v>190.55095900000001</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" ref="K60:V60" si="83">SUM(K54:K59)</f>
+        <f t="shared" ref="K60:V60" si="87">SUM(K54:K59)</f>
         <v>0</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="O60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="P60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Q60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="T60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U60" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>161.929304</v>
       </c>
-      <c r="V60" s="150">
-        <f t="shared" si="83"/>
+      <c r="V60" s="10">
+        <f t="shared" si="87"/>
         <v>190.55095900000001</v>
       </c>
-      <c r="W60" s="150">
-        <f t="shared" ref="W60:X60" si="84">SUM(W54:W59)</f>
+      <c r="W60" s="10">
+        <f t="shared" ref="W60:X60" si="88">SUM(W54:W59)</f>
         <v>166.09502999999998</v>
       </c>
       <c r="X60" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>161.78693800000002</v>
       </c>
-      <c r="Y60" s="150"/>
-      <c r="Z60" s="150"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" ref="C61:D61" si="85">C47-C60</f>
+        <f t="shared" ref="C61:D61" si="89">C47-C60</f>
         <v>59.958416999999955</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>37.792038000000019</v>
       </c>
       <c r="E61" s="9">
@@ -16901,63 +17004,63 @@
         <v>22.094324</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" ref="K61:V61" si="86">K47-K60</f>
+        <f t="shared" ref="K61:V61" si="90">K47-K60</f>
         <v>0</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="P61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Q61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="R61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="T61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="U61" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>17.974054999999993</v>
       </c>
-      <c r="V61" s="152">
-        <f t="shared" si="86"/>
+      <c r="V61" s="9">
+        <f t="shared" si="90"/>
         <v>22.094324</v>
       </c>
-      <c r="W61" s="152">
-        <f t="shared" ref="W61:X61" si="87">W47-W60</f>
+      <c r="W61" s="9">
+        <f t="shared" ref="W61:X61" si="91">W47-W60</f>
         <v>29.613391000000007</v>
       </c>
       <c r="X61" s="14">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>50.289714999999973</v>
       </c>
-      <c r="Y61" s="152"/>
-      <c r="Z61" s="152"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
     </row>
     <row r="63" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -16967,17 +17070,14 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="56"/>
-      <c r="V63" s="155"/>
       <c r="X63" s="15"/>
     </row>
     <row r="81" spans="6:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F81" s="40"/>
-      <c r="V81" s="156"/>
       <c r="X81" s="40"/>
     </row>
     <row r="82" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F82" s="15"/>
-      <c r="V82" s="155"/>
       <c r="X82" s="15"/>
     </row>
   </sheetData>
@@ -25396,14 +25496,14 @@
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25810,10 +25910,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="142"/>
+      <c r="I17" s="158"/>
       <c r="M17" s="89"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25821,8 +25921,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
       <c r="M18" s="89"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -26245,14 +26345,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="145" t="s">
+      <c r="H43" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="163"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60286F3-F8DC-43DA-9497-26B0A7E49DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2362C-E0E7-4331-8670-712C805F6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1882,7 +1882,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4085,6 +4086,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.1010470000000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>38.216486709999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>51.844951510000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13115,7 +13122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -13183,7 +13190,7 @@
       <c r="I3" s="9">
         <v>37.363</v>
       </c>
-      <c r="J3" s="164">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" si="0">I3/($C$7*1000)</f>
         <v>6.5796992776471783E-3</v>
       </c>
@@ -13214,7 +13221,7 @@
       <c r="I4" s="9">
         <v>16.533000000000001</v>
       </c>
-      <c r="J4" s="164">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>2.9114944773530179E-3</v>
       </c>
@@ -13239,7 +13246,7 @@
       <c r="I5" s="9">
         <v>5.0979999999999999</v>
       </c>
-      <c r="J5" s="164">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>8.9776803033603605E-4</v>
       </c>
@@ -13268,7 +13275,7 @@
       <c r="I6" s="9">
         <v>173.11199999999999</v>
       </c>
-      <c r="J6" s="164">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>3.0485370589943481E-2</v>
       </c>
@@ -13294,7 +13301,7 @@
         <v>183</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="164"/>
+      <c r="J7" s="5"/>
       <c r="L7" s="4" t="s">
         <v>140</v>
       </c>
@@ -13319,7 +13326,7 @@
       <c r="I8" s="9">
         <v>53.247999999999998</v>
       </c>
-      <c r="J8" s="164">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>9.3770796546357883E-3</v>
       </c>
@@ -13347,7 +13354,7 @@
       <c r="I9" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J9" s="164">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>2.0251730774547693E-4</v>
       </c>
@@ -13375,7 +13382,7 @@
       <c r="I10" s="9">
         <v>2226.58</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="5">
         <f>I10/($C$7*1000)</f>
         <v>0.39210520615645572</v>
       </c>
@@ -13713,11 +13720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14714,8 +14721,14 @@
         <f t="shared" si="33"/>
         <v>7.1010470000000003</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="60">
+        <f>G22*G20</f>
+        <v>38.216486709999998</v>
+      </c>
+      <c r="H19" s="60">
+        <f>H22*H20</f>
+        <v>51.844951510000001</v>
+      </c>
       <c r="K19" s="130">
         <f t="shared" ref="K19" si="34">K16-SUM(K17:K18)</f>
         <v>0</v>
@@ -14797,8 +14810,12 @@
       <c r="F20" s="133">
         <v>5.6785269999999999</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="164">
+        <v>5.6785269999999999</v>
+      </c>
+      <c r="H20" s="164">
+        <v>5.6785269999999999</v>
+      </c>
       <c r="K20" s="132"/>
       <c r="L20" s="132"/>
       <c r="M20" s="132"/>
@@ -15064,11 +15081,11 @@
       </c>
       <c r="G24" s="46">
         <f>G19/G4</f>
-        <v>0</v>
+        <v>0.17308975365732143</v>
       </c>
       <c r="H24" s="46">
         <f>H19/H4</f>
-        <v>0</v>
+        <v>0.1872064400592186</v>
       </c>
       <c r="K24" s="3" t="e">
         <f>K19/K3</f>
@@ -17003,6 +17020,12 @@
         <f>F47-F60</f>
         <v>22.094324</v>
       </c>
+      <c r="G61">
+        <v>50</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
       <c r="K61" s="9">
         <f t="shared" ref="K61:V61" si="90">K47-K60</f>
         <v>0</v>
@@ -17070,6 +17093,14 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="56"/>
+      <c r="G63" s="165">
+        <f>G19/G61</f>
+        <v>0.76432973419999994</v>
+      </c>
+      <c r="H63" s="165">
+        <f>H19/H61</f>
+        <v>0.86408252516666673</v>
+      </c>
       <c r="X63" s="15"/>
     </row>
     <row r="81" spans="6:24" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2362C-E0E7-4331-8670-712C805F6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92029C4D-50DA-4A61-95A7-B2D4DB1DC84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$4:$W$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$21:$W$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$22:$W$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$21:$O$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$22:$O$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$O$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$O$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$O$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="192">
   <si>
     <t>Price</t>
   </si>
@@ -338,9 +338,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Q322</t>
   </si>
   <si>
@@ -348,18 +345,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
-    <t>Q122</t>
   </si>
   <si>
     <t>FY21</t>
@@ -414,9 +399,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>Q223</t>
@@ -889,16 +871,41 @@
   <si>
     <t>Buy now Pay Later Anbieter</t>
   </si>
+  <si>
+    <t>Active Subscribers</t>
+  </si>
+  <si>
+    <t>Active Consumers</t>
+  </si>
+  <si>
+    <t>Unique Merchants shopped at by consumers</t>
+  </si>
+  <si>
+    <t>Repeat Usage as a % of total oders</t>
+  </si>
+  <si>
+    <t>Quarterly Purchase Frequency</t>
+  </si>
+  <si>
+    <t>Number of Transactions</t>
+  </si>
+  <si>
+    <t>Subscribers y/y</t>
+  </si>
+  <si>
+    <t>Number of Transactions y/y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1643,7 +1650,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1696,9 +1703,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1825,6 +1829,7 @@
     <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1882,8 +1887,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2005,7 +2024,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2017,14 +2036,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2038,11 +2052,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2101,46 +2110,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$K$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Q124</c:v>
                 </c:pt>
               </c:strCache>
@@ -2148,23 +2133,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$3:$W$3</c:f>
+              <c:f>Model!$K$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="8" formatCode="0.00">
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>34.673431000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="1">
                   <c:v>34.937665000000003</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="2">
                   <c:v>40.844200999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="3">
                   <c:v>48.901474999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="4">
                   <c:v>46.978634</c:v>
                 </c:pt>
               </c:numCache>
@@ -2274,29 +2259,11 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$25:$W$25</c:f>
+              <c:f>Model!$K$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
                   <c:v>0.3548885312214991</c:v>
                 </c:pt>
               </c:numCache>
@@ -2391,7 +2358,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3293,7 +3260,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3305,14 +3272,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3326,11 +3288,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3389,46 +3346,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$K$2:$O$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Q124</c:v>
                 </c:pt>
               </c:strCache>
@@ -3436,47 +3369,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$19:$W$19</c:f>
+              <c:f>Model!$K$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.5787380000000018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.4444650000000023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.93593499999999885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.1419090000000067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>1.5787380000000018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4444650000000023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93593499999999885</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1419090000000067</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>8.0084560000000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -3586,47 +3495,23 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$23:$W$23</c:f>
+              <c:f>Model!$K$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.76239484347539765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.77256785764017144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.75671444766418616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.73239191660374248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76239484347539765</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77256785764017144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75671444766418616</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.73239191660374248</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.74909559950167992</c:v>
                 </c:pt>
               </c:numCache>
@@ -3721,7 +3606,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4667,40 +4552,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$U$2</c:f>
+              <c:f>Model!$K$2:$M$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q421</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
@@ -4708,41 +4569,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$26:$U$26</c:f>
+              <c:f>Model!$K$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.2265862008291025E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.4844976045193624E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2265862008291025E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4844976045193624E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>8.8515356194628469E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4853,44 +4690,20 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$27:$V$27</c:f>
+              <c:f>Model!$K$27:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33379996343598073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.34395747397543591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27125451664484757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33379996343598073</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.34395747397543591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27125451664484757</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0.23933184019500423</c:v>
                 </c:pt>
               </c:numCache>
@@ -5001,10 +4814,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$28:$V$28</c:f>
+              <c:f>Model!$K$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5015,30 +4828,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6625,18 +6414,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6680,7 +6469,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6700,7 +6489,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6731,18 +6520,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6786,7 +6575,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6806,7 +6595,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13146,46 +12935,46 @@
       <c r="B2" s="33"/>
       <c r="C2" s="18"/>
       <c r="E2" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="19">
         <v>45547</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="129">
+        <v>48</v>
+      </c>
+      <c r="F3" s="128">
         <v>0.62009999999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I3" s="9">
         <v>37.363</v>
@@ -13195,13 +12984,13 @@
         <v>6.5796992776471783E-3</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -13210,13 +12999,13 @@
         <v>0.95625000000000004</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="129">
+        <v>140</v>
+      </c>
+      <c r="F4" s="128">
         <v>0.14199999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I4" s="9">
         <v>16.533000000000001</v>
@@ -13226,13 +13015,13 @@
         <v>2.9114944773530179E-3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -13241,7 +13030,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="27"/>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I5" s="9">
         <v>5.0979999999999999</v>
@@ -13251,13 +13040,13 @@
         <v>8.9776803033603605E-4</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -13270,7 +13059,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="27"/>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I6" s="9">
         <v>173.11199999999999</v>
@@ -13280,10 +13069,10 @@
         <v>3.0485370589943481E-2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -13298,15 +13087,15 @@
       <c r="E7" s="4"/>
       <c r="F7" s="27"/>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="5"/>
       <c r="L7" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N7" s="12"/>
     </row>
@@ -13321,7 +13110,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="27"/>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I8" s="9">
         <v>53.247999999999998</v>
@@ -13331,10 +13120,10 @@
         <v>9.3770796546357883E-3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N8" s="12"/>
     </row>
@@ -13349,7 +13138,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="27"/>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I9" s="9">
         <v>1.1499999999999999</v>
@@ -13359,10 +13148,10 @@
         <v>2.0251730774547693E-4</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N9" s="12"/>
     </row>
@@ -13377,7 +13166,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="27"/>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I10" s="9">
         <v>2226.58</v>
@@ -13391,7 +13180,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
@@ -13420,7 +13209,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="35">
         <f>C6/Model!F21</f>
@@ -13433,7 +13222,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="35">
         <f>C6/Model!G22</f>
@@ -13451,7 +13240,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="35">
         <f>C6/Model!H22</f>
@@ -13460,7 +13249,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
         <f>Model!F12/Model!G22-1</f>
@@ -13469,26 +13258,26 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5">
         <f>Model!H22/Model!G22-1</f>
         <v>0.35661218424962859</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L17" s="145" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M17" s="146"/>
       <c r="N17" s="147"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="51">
+        <v>60</v>
+      </c>
+      <c r="C18" s="50">
         <f>C14/(C16*100)</f>
         <v>9.6481015585827418E-2</v>
       </c>
@@ -13498,9 +13287,9 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="51">
+        <v>61</v>
+      </c>
+      <c r="C19" s="50">
         <f>C15/(C17*100)</f>
         <v>0.45843364366557121</v>
       </c>
@@ -13510,7 +13299,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" s="5">
         <f>Model!G4/Model!F3-1</f>
@@ -13522,7 +13311,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5">
         <f>Model!H4/Model!G4-1</f>
@@ -13534,7 +13323,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="14">
         <f>Model!E8+Model!E7</f>
@@ -13546,7 +13335,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14">
         <f>Model!E8</f>
@@ -13558,7 +13347,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6"/>
       <c r="L24" s="148"/>
@@ -13567,7 +13356,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6"/>
       <c r="L25" s="148"/>
@@ -13576,7 +13365,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="35">
         <f>C12/C23</f>
@@ -13588,11 +13377,11 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="125"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="124"/>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L27" s="148"/>
       <c r="M27" s="149"/>
@@ -13600,14 +13389,14 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C28" s="35">
         <f>C22/-Model!E7</f>
         <v>-3.3164803464508394</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L28" s="151"/>
       <c r="M28" s="152"/>
@@ -13615,46 +13404,46 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C29" s="35">
-        <f>Model!X41/Model!X54</f>
+        <f>Model!P41/Model!P54</f>
         <v>2.0715283893564633</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C30" s="35">
-        <f>(Model!X35+Model!X37)/Model!X54</f>
+        <f>(Model!P35+Model!P37)/Model!P54</f>
         <v>2.0560557070594001</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5">
-        <f>(Model!X41-Model!X54)/Model!X47</f>
+        <f>(Model!P41-Model!P54)/Model!P47</f>
         <v>0.46456548896968874</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="35">
-        <f>(Model!P34-Model!P43)/Main!C7</f>
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C32" s="35" t="e">
+        <f>(Model!#REF!-Model!#REF!)/Main!C7</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C33" s="35">
         <f>Model!F3/Model!F47</f>
@@ -13663,7 +13452,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C34" s="37">
         <f>Model!F19/Model!F47</f>
@@ -13672,7 +13461,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C35" s="37">
         <f>Model!F19/Model!F61</f>
@@ -13681,31 +13470,31 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C36" s="22"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13718,13 +13507,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z82"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13732,535 +13521,437 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="12"/>
-    <col min="24" max="24" width="11.42578125" style="12"/>
+    <col min="16" max="16" width="11.42578125" style="164"/>
+    <col min="17" max="17" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="164" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="132">
+      <c r="C3" s="131">
         <f>49.659042+9.129231</f>
         <v>58.788273000000004</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="131">
         <f>98.200184+16.616451</f>
         <v>114.81663499999999</v>
       </c>
-      <c r="E3" s="132">
+      <c r="E3" s="131">
         <v>125.570441</v>
       </c>
-      <c r="F3" s="133">
+      <c r="F3" s="132">
         <v>159.35677200000001</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="17">
+      <c r="K3" s="17">
         <v>34.673431000000001</v>
       </c>
-      <c r="T3" s="132">
+      <c r="L3" s="131">
         <v>34.937665000000003</v>
       </c>
-      <c r="U3" s="132">
+      <c r="M3" s="131">
         <v>40.844200999999998</v>
       </c>
-      <c r="V3" s="132">
-        <f>F3-U3-T3-S3</f>
+      <c r="N3" s="131">
+        <f>F3-M3-L3-K3</f>
         <v>48.901474999999998</v>
       </c>
-      <c r="W3" s="132">
+      <c r="O3" s="131">
         <v>46.978634</v>
       </c>
-      <c r="X3" s="133">
+      <c r="P3" s="165">
         <v>55.968505</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q3" s="15">
+        <v>69.957999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+        <v>55</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="41">
         <v>220.79</v>
       </c>
       <c r="H4" s="41">
         <v>276.94</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="139">
+      <c r="K4" s="17"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="175">
         <v>52.63</v>
       </c>
-      <c r="Z4" s="139">
+      <c r="R4" s="138">
         <v>65.180000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="132">
+        <v>160</v>
+      </c>
+      <c r="C5" s="131">
         <v>30.689461999999999</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="131">
         <v>56.831367999999998</v>
       </c>
-      <c r="E5" s="132">
+      <c r="E5" s="131">
         <v>51.217083000000002</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F5" s="132">
         <v>46.373914999999997</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="17">
+      <c r="K5" s="17">
         <v>11.57399</v>
       </c>
-      <c r="T5" s="132">
+      <c r="L5" s="131">
         <v>12.017071</v>
       </c>
-      <c r="U5" s="132">
+      <c r="M5" s="131">
         <v>11.079174</v>
       </c>
-      <c r="V5" s="132">
-        <f t="shared" ref="V5:V10" si="0">F5-U5-T5-S5</f>
+      <c r="N5" s="131">
+        <f>F5-M5-L5-K5</f>
         <v>11.703679999999993</v>
       </c>
-      <c r="W5" s="132">
+      <c r="O5" s="131">
         <v>11.025040000000001</v>
       </c>
-      <c r="X5" s="133">
+      <c r="P5" s="165">
         <v>12.736523</v>
       </c>
-      <c r="Y5" s="139">
-        <f>Y4*0.23</f>
+      <c r="Q5" s="141">
+        <f>Q4*0.23</f>
         <v>12.104900000000001</v>
       </c>
-      <c r="Z5" s="139">
-        <f>Z4*0.23</f>
+      <c r="R5" s="138">
+        <f>R4*0.23</f>
         <v>14.991400000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="132">
+        <v>159</v>
+      </c>
+      <c r="C6" s="131">
         <v>22.489626000000001</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="131">
         <v>43.476143</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="131">
         <v>40.776825000000002</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="132">
         <v>39.207768000000002</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="17">
+      <c r="K6" s="17">
         <v>8.2385859999999997</v>
       </c>
-      <c r="T6" s="132">
+      <c r="L6" s="131">
         <v>7.9459479999999996</v>
       </c>
-      <c r="U6" s="132">
+      <c r="M6" s="131">
         <v>9.9368040000000004</v>
       </c>
-      <c r="V6" s="132">
-        <f t="shared" si="0"/>
+      <c r="N6" s="131">
+        <f>F6-M6-L6-K6</f>
         <v>13.086429999999998</v>
       </c>
-      <c r="W6" s="132">
+      <c r="O6" s="131">
         <v>11.787146</v>
       </c>
-      <c r="X6" s="133">
+      <c r="P6" s="165">
         <v>10.741618000000001</v>
       </c>
-      <c r="Y6" s="139">
-        <f t="shared" ref="Y6:Z10" si="1">$Y$4*(X6/$X$3)</f>
+      <c r="Q6" s="141">
+        <f>$Q$4*(P6/$P$3)</f>
         <v>10.100883619099708</v>
       </c>
-      <c r="Z6" s="139">
-        <f t="shared" si="1"/>
-        <v>9.4983688571495293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R6" s="138">
+        <f>$R$4*(Q6/$P$3)</f>
+        <v>11.763322859756911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="132">
+        <v>158</v>
+      </c>
+      <c r="C7" s="131">
         <v>2.454113</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="131">
         <v>5.5498440000000002</v>
       </c>
-      <c r="E7" s="132">
+      <c r="E7" s="131">
         <v>8.1900220000000008</v>
       </c>
-      <c r="F7" s="133">
+      <c r="F7" s="132">
         <v>7.8159150000000004</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="17">
+      <c r="K7" s="17">
         <v>1.7491760000000001</v>
       </c>
-      <c r="T7" s="132">
+      <c r="L7" s="131">
         <v>1.9036299999999999</v>
       </c>
-      <c r="U7" s="132">
+      <c r="M7" s="131">
         <v>2.0025149999999998</v>
       </c>
-      <c r="V7" s="132">
-        <f t="shared" si="0"/>
+      <c r="N7" s="131">
+        <f>F7-M7-L7-K7</f>
         <v>2.1605940000000006</v>
       </c>
-      <c r="W7" s="132">
+      <c r="O7" s="131">
         <v>2.1571720000000001</v>
       </c>
-      <c r="X7" s="133">
+      <c r="P7" s="165">
         <v>2.1802329999999999</v>
       </c>
-      <c r="Y7" s="139">
-        <f t="shared" si="1"/>
-        <v>2.0501827374163377</v>
-      </c>
-      <c r="Z7" s="139">
-        <f t="shared" si="1"/>
-        <v>1.9278899350665495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q7" s="141">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R7" s="138">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="132">
+        <v>157</v>
+      </c>
+      <c r="C8" s="131">
         <v>4.2749290000000002</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="131">
         <v>9.2518539999999998</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="131">
         <v>18.972024999999999</v>
       </c>
-      <c r="F8" s="133">
+      <c r="F8" s="132">
         <v>11.984019</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="17">
+      <c r="K8" s="17">
         <v>3.1991740000000002</v>
       </c>
-      <c r="T8" s="132">
+      <c r="L8" s="131">
         <v>3.3136619999999999</v>
       </c>
-      <c r="U8" s="132">
+      <c r="M8" s="131">
         <v>3.6153390000000001</v>
       </c>
-      <c r="V8" s="132">
-        <f t="shared" si="0"/>
+      <c r="N8" s="131">
+        <f>F8-M8-L8-K8</f>
         <v>1.8558439999999994</v>
       </c>
-      <c r="W8" s="132">
+      <c r="O8" s="131">
         <v>0.65487499999999998</v>
       </c>
-      <c r="X8" s="133">
+      <c r="P8" s="165">
         <v>0.995089</v>
       </c>
-      <c r="Y8" s="139">
-        <f t="shared" si="1"/>
-        <v>0.93573223136833827</v>
-      </c>
-      <c r="Z8" s="139">
-        <f t="shared" si="1"/>
-        <v>0.87991607667411598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q8" s="141">
+        <v>1.5</v>
+      </c>
+      <c r="R8" s="138">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="132">
+        <v>124</v>
+      </c>
+      <c r="C9" s="131">
         <v>7.2145349999999997</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="131">
         <v>15.768583</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="131">
         <v>16.411912000000001</v>
       </c>
-      <c r="F9" s="133">
+      <c r="F9" s="132">
         <v>8.5877809999999997</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="17">
+      <c r="K9" s="17">
         <v>2.7982100000000001</v>
       </c>
-      <c r="T9" s="132">
+      <c r="L9" s="131">
         <v>1.6976290000000001</v>
       </c>
-      <c r="U9" s="132">
+      <c r="M9" s="131">
         <v>2.1840760000000001</v>
       </c>
-      <c r="V9" s="132">
-        <f t="shared" si="0"/>
+      <c r="N9" s="131">
+        <f>F9-M9-L9-K9</f>
         <v>1.9078659999999994</v>
       </c>
-      <c r="W9" s="132">
+      <c r="O9" s="131">
         <v>2.3797779999999999</v>
       </c>
-      <c r="X9" s="133">
+      <c r="P9" s="165">
         <v>2.521782</v>
       </c>
-      <c r="Y9" s="139">
-        <f t="shared" si="1"/>
-        <v>2.3713584391793203</v>
-      </c>
-      <c r="Z9" s="139">
-        <f t="shared" si="1"/>
-        <v>2.2299075998904678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q9" s="141">
+        <v>2.6</v>
+      </c>
+      <c r="R9" s="138">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="132">
+        <v>156</v>
+      </c>
+      <c r="C10" s="131">
         <v>19.587917999999998</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="131">
         <v>52.621682</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="131">
         <v>29.437179</v>
       </c>
-      <c r="F10" s="133">
+      <c r="F10" s="132">
         <v>23.186972999999998</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="17">
+      <c r="K10" s="17">
         <v>1.694364</v>
       </c>
-      <c r="T10" s="132">
+      <c r="L10" s="131">
         <v>4.2964339999999996</v>
       </c>
-      <c r="U10" s="132">
+      <c r="M10" s="131">
         <v>6.6765480000000004</v>
       </c>
-      <c r="V10" s="132">
-        <f t="shared" si="0"/>
+      <c r="N10" s="131">
+        <f>F10-M10-L10-K10</f>
         <v>10.519626999999998</v>
       </c>
-      <c r="W10" s="132">
+      <c r="O10" s="131">
         <v>5.1399660000000003</v>
       </c>
-      <c r="X10" s="133">
+      <c r="P10" s="165">
         <v>10.09388</v>
       </c>
-      <c r="Y10" s="139">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="141">
+        <f>$Q$4*(P10/$P$3)</f>
         <v>9.4917830018865086</v>
       </c>
-      <c r="Z10" s="139">
-        <f t="shared" si="1"/>
-        <v>8.9256009141085144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R10" s="138">
+        <f>$R$4*(Q10/$P$3)</f>
+        <v>11.053974303279366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132">
+        <v>155</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131">
         <v>-11</v>
       </c>
-      <c r="F11" s="133"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="139"/>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="17"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="138"/>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="130">
-        <f t="shared" ref="C12:E12" si="2">C3-SUM(C5:C11)</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="129">
+        <f t="shared" ref="C12:E12" si="0">C3-SUM(C5:C11)</f>
         <v>-27.922309999999996</v>
       </c>
-      <c r="D12" s="130">
-        <f t="shared" si="2"/>
+      <c r="D12" s="129">
+        <f t="shared" si="0"/>
         <v>-68.682839000000001</v>
       </c>
-      <c r="E12" s="130">
-        <f t="shared" si="2"/>
+      <c r="E12" s="129">
+        <f t="shared" si="0"/>
         <v>-28.434604999999991</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="133">
         <f>F3-SUM(F5:F11)</f>
         <v>22.200400999999999</v>
       </c>
@@ -14274,585 +13965,439 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="130">
-        <f t="shared" ref="K12" si="3">K3-SUM(K5:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="130">
-        <f t="shared" ref="L12" si="4">L3-SUM(L5:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="130">
-        <f t="shared" ref="M12" si="5">M3-SUM(M5:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="130">
-        <f t="shared" ref="N12" si="6">N3-SUM(N5:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="130">
-        <f t="shared" ref="O12" si="7">O3-SUM(O5:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="130">
-        <f t="shared" ref="P12" si="8">P3-SUM(P5:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="130">
-        <f t="shared" ref="Q12" si="9">Q3-SUM(Q5:Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="130">
-        <f t="shared" ref="R12" si="10">R3-SUM(R5:R11)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" ref="S12" si="11">S3-SUM(S5:S11)</f>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12" si="1">K3-SUM(K5:K11)</f>
         <v>5.4199310000000018</v>
       </c>
-      <c r="T12" s="130">
-        <f>T3-SUM(T5:T11)</f>
+      <c r="L12" s="129">
+        <f>L3-SUM(L5:L11)</f>
         <v>3.7632910000000024</v>
       </c>
-      <c r="U12" s="130">
-        <f t="shared" ref="U12" si="12">U3-SUM(U5:U11)</f>
+      <c r="M12" s="129">
+        <f t="shared" ref="M12" si="2">M3-SUM(M5:M11)</f>
         <v>5.3497449999999986</v>
       </c>
-      <c r="V12" s="130">
-        <f t="shared" ref="V12" si="13">V3-SUM(V5:V11)</f>
+      <c r="N12" s="129">
+        <f t="shared" ref="N12" si="3">N3-SUM(N5:N11)</f>
         <v>7.6674340000000072</v>
       </c>
-      <c r="W12" s="130">
-        <f t="shared" ref="W12" si="14">W3-SUM(W5:W11)</f>
+      <c r="O12" s="129">
+        <f t="shared" ref="O12" si="4">O3-SUM(O5:O11)</f>
         <v>13.834657</v>
       </c>
-      <c r="X12" s="130">
-        <f t="shared" ref="X12" si="15">X3-SUM(X5:X11)</f>
+      <c r="P12" s="166">
+        <f t="shared" ref="P12" si="5">P3-SUM(P5:P11)</f>
         <v>16.699379999999998</v>
       </c>
-      <c r="Y12" s="140">
-        <f>Y4-SUM(Y5:Y11)</f>
-        <v>15.575159971049786</v>
-      </c>
-      <c r="Z12" s="140">
-        <f>Z4-SUM(Z5:Z11)</f>
-        <v>26.726916617110831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q12" s="140">
+        <f>Q4-SUM(Q5:Q11)</f>
+        <v>14.632433379013783</v>
+      </c>
+      <c r="R12" s="139">
+        <f>R4-SUM(R5:R11)</f>
+        <v>21.051302836963728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="132">
+        <v>58</v>
+      </c>
+      <c r="C13" s="131">
         <v>-4.3031750000000004</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="131">
         <v>-5.2692839999999999</v>
       </c>
-      <c r="E13" s="132">
+      <c r="E13" s="131">
         <v>-8.6007160000000002</v>
       </c>
-      <c r="F13" s="133">
+      <c r="F13" s="132">
         <v>-15.96838</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="17">
+      <c r="K13" s="17">
         <v>-3.3770470000000001</v>
       </c>
-      <c r="T13" s="132">
+      <c r="L13" s="131">
         <v>-3.933446</v>
       </c>
-      <c r="U13" s="132">
+      <c r="M13" s="131">
         <v>-4.1432580000000003</v>
       </c>
-      <c r="V13" s="132">
-        <f t="shared" ref="V13:V15" si="16">F13-U13-T13-S13</f>
+      <c r="N13" s="131">
+        <f>F13-M13-L13-K13</f>
         <v>-4.5146290000000002</v>
       </c>
-      <c r="W13" s="132">
+      <c r="O13" s="131">
         <v>-4.081442</v>
       </c>
-      <c r="X13" s="133">
+      <c r="P13" s="165">
         <v>-2.911133</v>
       </c>
-      <c r="Y13" s="139">
-        <f>$Y$4*(AVERAGE(U13:X13)/Y4)-1</f>
+      <c r="Q13" s="141">
+        <f>$Q$4*(AVERAGE(M13:P13)/Q4)-1</f>
         <v>-4.9126155000000002</v>
       </c>
-      <c r="Z13" s="139">
-        <f>$Y$4*(AVERAGE(V13:Y13)/Z4)-1</f>
+      <c r="R13" s="138">
+        <f>$Q$4*(AVERAGE(N13:Q13)/R4)-1</f>
         <v>-4.3145715721271856</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="132">
+        <v>161</v>
+      </c>
+      <c r="C14" s="131">
         <v>-0.12629099999999999</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="131">
         <v>-6.5144999999999995E-2</v>
       </c>
-      <c r="E14" s="132">
+      <c r="E14" s="131">
         <v>-0.225606</v>
       </c>
-      <c r="F14" s="133">
+      <c r="F14" s="132">
         <v>1.9334499999999999</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="17">
+      <c r="K14" s="17">
         <v>0.113487</v>
       </c>
-      <c r="T14" s="132">
+      <c r="L14" s="131">
         <v>1.0787530000000001</v>
       </c>
-      <c r="U14" s="132">
+      <c r="M14" s="131">
         <v>1.456E-2</v>
       </c>
-      <c r="V14" s="132">
-        <f t="shared" si="16"/>
+      <c r="N14" s="131">
+        <f>F14-M14-L14-K14</f>
         <v>0.72664999999999991</v>
       </c>
-      <c r="W14" s="132">
+      <c r="O14" s="131">
         <v>-9.1560000000000002E-2</v>
       </c>
-      <c r="X14" s="133">
+      <c r="P14" s="165">
         <v>5.0126999999999998E-2</v>
       </c>
-      <c r="Y14" s="139">
-        <f>$Y$4*(X14/$X$3)</f>
+      <c r="Q14" s="141">
+        <f>$Q$4*(P14/$P$3)</f>
         <v>4.7136939069571358E-2</v>
       </c>
-      <c r="Z14" s="139">
-        <f>$Y$4*(Y14/$X$3)</f>
-        <v>4.4325234401589621E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R14" s="138">
+        <f>$R$4*(Q14/$P$3)</f>
+        <v>5.4894903634725663E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="132">
+        <v>162</v>
+      </c>
+      <c r="C15" s="131">
         <v>0</v>
       </c>
-      <c r="D15" s="132">
+      <c r="D15" s="131">
         <v>-1.092679</v>
       </c>
-      <c r="E15" s="132">
+      <c r="E15" s="131">
         <f>-0.813806+0.050424</f>
         <v>-0.76338200000000001</v>
       </c>
-      <c r="F15" s="133">
+      <c r="F15" s="132">
         <v>-0.45596199999999998</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="17">
+      <c r="K15" s="17">
         <v>-0.42020099999999999</v>
       </c>
-      <c r="T15" s="132">
+      <c r="L15" s="131">
         <v>0.25170599999999999</v>
       </c>
-      <c r="U15" s="132">
+      <c r="M15" s="131">
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="V15" s="132">
-        <f t="shared" si="16"/>
+      <c r="N15" s="131">
+        <f>F15-M15-L15-K15</f>
         <v>-0.37669399999999992</v>
       </c>
-      <c r="W15" s="132">
+      <c r="O15" s="131">
         <v>-1.2615559999999999</v>
       </c>
-      <c r="X15" s="133">
+      <c r="P15" s="165">
         <v>-0.25970599999999999</v>
       </c>
-      <c r="Y15" s="139">
-        <f>$Y$4*(X15/$X$3)</f>
+      <c r="Q15" s="141">
+        <f>$Q$4*(P15/$P$3)</f>
         <v>-0.24421461284341969</v>
       </c>
-      <c r="Z15" s="139">
-        <f>$Y$4*(Y15/$X$3)</f>
-        <v>-0.22964728241265653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="138">
+        <f>$R$4*(Q15/$P$3)</f>
+        <v>-0.28440831973507419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="130">
+        <v>125</v>
+      </c>
+      <c r="C16" s="129">
         <f>C12+SUM(C13:C15)</f>
         <v>-32.351775999999994</v>
       </c>
-      <c r="D16" s="130">
-        <f t="shared" ref="D16:H16" si="17">D12+SUM(D13:D15)</f>
+      <c r="D16" s="129">
+        <f t="shared" ref="D16:H16" si="6">D12+SUM(D13:D15)</f>
         <v>-75.109947000000005</v>
       </c>
-      <c r="E16" s="130">
-        <f t="shared" si="17"/>
+      <c r="E16" s="129">
+        <f t="shared" si="6"/>
         <v>-38.024308999999988</v>
       </c>
-      <c r="F16" s="134">
-        <f t="shared" si="17"/>
+      <c r="F16" s="133">
+        <f t="shared" si="6"/>
         <v>7.7095090000000006</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K16" s="130">
-        <f t="shared" ref="K16" si="18">K12+SUM(K13:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="130">
-        <f t="shared" ref="L16" si="19">L12+SUM(L13:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="130">
-        <f t="shared" ref="M16" si="20">M12+SUM(M13:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="130">
-        <f t="shared" ref="N16" si="21">N12+SUM(N13:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="130">
-        <f t="shared" ref="O16" si="22">O12+SUM(O13:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="130">
-        <f t="shared" ref="P16" si="23">P12+SUM(P13:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="130">
-        <f t="shared" ref="Q16" si="24">Q12+SUM(Q13:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="130">
-        <f t="shared" ref="R16" si="25">R12+SUM(R13:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" ref="S16" si="26">S12+SUM(S13:S15)</f>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16" si="7">K12+SUM(K13:K15)</f>
         <v>1.7361700000000018</v>
       </c>
-      <c r="T16" s="130">
-        <f>T12+SUM(T13:T15)</f>
+      <c r="L16" s="129">
+        <f>L12+SUM(L13:L15)</f>
         <v>1.1603040000000022</v>
       </c>
-      <c r="U16" s="130">
-        <f t="shared" ref="U16" si="27">U12+SUM(U13:U15)</f>
+      <c r="M16" s="129">
+        <f t="shared" ref="M16" si="8">M12+SUM(M13:M15)</f>
         <v>1.3102739999999988</v>
       </c>
-      <c r="V16" s="130">
-        <f t="shared" ref="V16" si="28">V12+SUM(V13:V15)</f>
+      <c r="N16" s="129">
+        <f t="shared" ref="N16" si="9">N12+SUM(N13:N15)</f>
         <v>3.5027610000000067</v>
       </c>
-      <c r="W16" s="130">
-        <f t="shared" ref="W16" si="29">W12+SUM(W13:W15)</f>
+      <c r="O16" s="129">
+        <f t="shared" ref="O16" si="10">O12+SUM(O13:O15)</f>
         <v>8.4000990000000009</v>
       </c>
-      <c r="X16" s="134">
-        <f t="shared" ref="X16:Y16" si="30">X12+SUM(X13:X15)</f>
+      <c r="P16" s="166">
+        <f t="shared" ref="P16:Q16" si="11">P12+SUM(P13:P15)</f>
         <v>13.578667999999997</v>
       </c>
-      <c r="Y16" s="141">
-        <f t="shared" si="30"/>
-        <v>10.465466797275937</v>
-      </c>
-      <c r="Z16" s="141">
-        <f t="shared" ref="Z16" si="31">Z12+SUM(Z13:Z15)</f>
-        <v>22.227022996972579</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q16" s="140">
+        <f t="shared" si="11"/>
+        <v>9.5227402052399341</v>
+      </c>
+      <c r="R16" s="140">
+        <f t="shared" ref="R16" si="12">R12+SUM(R13:R15)</f>
+        <v>16.507217848736193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="132">
+        <v>15</v>
+      </c>
+      <c r="C17" s="131">
         <v>3.0963999999999998E-2</v>
       </c>
-      <c r="D17" s="132">
+      <c r="D17" s="131">
         <v>5.8416000000000003E-2</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="131">
         <v>6.9446999999999995E-2</v>
       </c>
-      <c r="F17" s="133">
+      <c r="F17" s="132">
         <v>0.611487</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="17">
+      <c r="K17" s="17">
         <v>1.1624000000000001E-2</v>
       </c>
-      <c r="T17" s="132">
+      <c r="L17" s="131">
         <v>2.0525999999999999E-2</v>
       </c>
-      <c r="U17" s="132">
+      <c r="M17" s="131">
         <v>1.5873999999999999E-2</v>
       </c>
-      <c r="V17" s="132">
-        <f t="shared" ref="V17:V18" si="32">F17-U17-T17-S17</f>
+      <c r="N17" s="131">
+        <f>F17-M17-L17-K17</f>
         <v>0.56346299999999994</v>
       </c>
-      <c r="W17" s="132">
+      <c r="O17" s="131">
         <v>0.393094</v>
       </c>
-      <c r="X17" s="133">
+      <c r="P17" s="165">
         <v>-16.123213</v>
       </c>
-      <c r="Y17" s="139">
+      <c r="Q17" s="141">
         <v>0.5</v>
       </c>
-      <c r="Z17" s="139">
+      <c r="R17" s="138">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="132">
+        <v>163</v>
+      </c>
+      <c r="C18" s="131">
         <v>0.49450499999999997</v>
       </c>
-      <c r="D18" s="132">
+      <c r="D18" s="131">
         <v>6.9405999999999995E-2</v>
       </c>
-      <c r="E18" s="132">
+      <c r="E18" s="131">
         <v>-1.2078850000000001</v>
       </c>
-      <c r="F18" s="133">
+      <c r="F18" s="132">
         <v>-3.0249999999999999E-3</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="17">
+      <c r="K18" s="17">
         <v>0.14580799999999999</v>
       </c>
-      <c r="T18" s="132">
+      <c r="L18" s="131">
         <v>-0.30468699999999999</v>
       </c>
-      <c r="U18" s="132">
+      <c r="M18" s="131">
         <v>0.35846499999999998</v>
       </c>
-      <c r="V18" s="132">
-        <f t="shared" si="32"/>
+      <c r="N18" s="131">
+        <f>F18-M18-L18-K18</f>
         <v>-0.20261099999999999</v>
       </c>
-      <c r="W18" s="132">
+      <c r="O18" s="131">
         <v>-1.451E-3</v>
       </c>
-      <c r="X18" s="133">
+      <c r="P18" s="165">
         <v>-7.5401999999999997E-2</v>
       </c>
-      <c r="Y18" s="139">
-        <f>$Y$4*(X18/$X$3)</f>
-        <v>-7.0904292691041149E-2</v>
-      </c>
-      <c r="Z18" s="139">
-        <f>$Y$4*(Y18/$X$3)</f>
-        <v>-6.6674872311302508E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="141">
+        <v>-0.3</v>
+      </c>
+      <c r="R18" s="138">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="130">
-        <f t="shared" ref="C19:F19" si="33">C16-SUM(C17:C18)</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="129">
+        <f t="shared" ref="C19:F19" si="13">C16-SUM(C17:C18)</f>
         <v>-32.877244999999995</v>
       </c>
-      <c r="D19" s="130">
-        <f t="shared" si="33"/>
+      <c r="D19" s="129">
+        <f t="shared" si="13"/>
         <v>-75.237769</v>
       </c>
-      <c r="E19" s="130">
-        <f t="shared" si="33"/>
+      <c r="E19" s="129">
+        <f t="shared" si="13"/>
         <v>-36.885870999999987</v>
       </c>
-      <c r="F19" s="134">
-        <f t="shared" si="33"/>
+      <c r="F19" s="133">
+        <f t="shared" si="13"/>
         <v>7.1010470000000003</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="59">
         <f>G22*G20</f>
         <v>38.216486709999998</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="59">
         <f>H22*H20</f>
         <v>51.844951510000001</v>
       </c>
-      <c r="K19" s="130">
-        <f t="shared" ref="K19" si="34">K16-SUM(K17:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="130">
-        <f t="shared" ref="L19" si="35">L16-SUM(L17:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="130">
-        <f t="shared" ref="M19" si="36">M16-SUM(M17:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="130">
-        <f t="shared" ref="N19" si="37">N16-SUM(N17:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="130">
-        <f t="shared" ref="O19" si="38">O16-SUM(O17:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="130">
-        <f t="shared" ref="P19" si="39">P16-SUM(P17:P18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="130">
-        <f t="shared" ref="Q19" si="40">Q16-SUM(Q17:Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="130">
-        <f t="shared" ref="R19" si="41">R16-SUM(R17:R18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" ref="S19:T19" si="42">S16-SUM(S17:S18)</f>
+      <c r="K19" s="2">
+        <f t="shared" ref="K19:L19" si="14">K16-SUM(K17:K18)</f>
         <v>1.5787380000000018</v>
       </c>
-      <c r="T19" s="130">
-        <f t="shared" si="42"/>
+      <c r="L19" s="129">
+        <f t="shared" si="14"/>
         <v>1.4444650000000023</v>
       </c>
-      <c r="U19" s="130">
-        <f t="shared" ref="U19" si="43">U16-SUM(U17:U18)</f>
+      <c r="M19" s="129">
+        <f t="shared" ref="M19" si="15">M16-SUM(M17:M18)</f>
         <v>0.93593499999999885</v>
       </c>
-      <c r="V19" s="130">
-        <f t="shared" ref="V19" si="44">V16-SUM(V17:V18)</f>
+      <c r="N19" s="129">
+        <f t="shared" ref="N19" si="16">N16-SUM(N17:N18)</f>
         <v>3.1419090000000067</v>
       </c>
-      <c r="W19" s="130">
-        <f t="shared" ref="W19" si="45">W16-SUM(W17:W18)</f>
+      <c r="O19" s="129">
+        <f t="shared" ref="O19" si="17">O16-SUM(O17:O18)</f>
         <v>8.0084560000000007</v>
       </c>
-      <c r="X19" s="134">
-        <f t="shared" ref="X19:Y19" si="46">X16-SUM(X17:X18)</f>
+      <c r="P19" s="166">
+        <f t="shared" ref="P19:Q19" si="18">P16-SUM(P17:P18)</f>
         <v>29.777282999999997</v>
       </c>
-      <c r="Y19" s="141">
-        <f t="shared" si="46"/>
-        <v>10.036371089966979</v>
-      </c>
-      <c r="Z19" s="141">
-        <f t="shared" ref="Z19" si="47">Z16-SUM(Z17:Z18)</f>
-        <v>21.793697869283882</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q19" s="140">
+        <f t="shared" si="18"/>
+        <v>9.3227402052399349</v>
+      </c>
+      <c r="R19" s="140">
+        <f t="shared" ref="R19" si="19">R16-SUM(R17:R18)</f>
+        <v>16.307217848736194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="132">
+        <v>164</v>
+      </c>
+      <c r="C20" s="131">
         <v>186.842646</v>
       </c>
-      <c r="D20" s="132">
+      <c r="D20" s="131">
         <v>200.34402800000001</v>
       </c>
-      <c r="E20" s="132">
+      <c r="E20" s="131">
         <v>5.4436049999999998</v>
       </c>
-      <c r="F20" s="133">
+      <c r="F20" s="132">
         <v>5.6785269999999999</v>
       </c>
-      <c r="G20" s="164">
+      <c r="G20" s="131">
         <v>5.6785269999999999</v>
       </c>
-      <c r="H20" s="164">
+      <c r="H20" s="131">
         <v>5.6785269999999999</v>
       </c>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="17">
+      <c r="K20" s="17">
         <v>5.5568299999999997</v>
       </c>
-      <c r="T20" s="132">
+      <c r="L20" s="131">
         <v>5.6557409999999999</v>
       </c>
-      <c r="U20" s="131">
+      <c r="M20" s="130">
         <v>5.7296649999999998</v>
       </c>
-      <c r="V20" s="132">
+      <c r="N20" s="131">
         <f>F20</f>
         <v>5.6785269999999999</v>
       </c>
-      <c r="W20" s="132">
+      <c r="O20" s="131">
         <v>5.9607679999999998</v>
       </c>
-      <c r="X20" s="133">
+      <c r="P20" s="165">
         <v>6.0243779999999996</v>
       </c>
-      <c r="Y20" s="142">
-        <v>6.08</v>
-      </c>
-      <c r="Z20" s="142">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="141">
+        <v>6.15</v>
+      </c>
+      <c r="R20" s="141">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <f>C19/C20</f>
@@ -14866,80 +14411,48 @@
         <f>E19/E20</f>
         <v>-6.77600064663031</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="56">
         <f>F19/F20</f>
         <v>1.2505086266209531</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="K21" s="2" t="e">
-        <f>K19/K20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="2" t="e">
-        <f t="shared" ref="L21:R21" si="48">L19/L20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" ref="S21:T21" si="49">(S19+S18)/S20</f>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:L21" si="20">(K19+K18)/K20</f>
         <v>0.3103470863783851</v>
       </c>
-      <c r="T21" s="2">
-        <f t="shared" si="49"/>
+      <c r="L21" s="2">
+        <f t="shared" si="20"/>
         <v>0.2015258478066804</v>
       </c>
-      <c r="U21" s="2">
-        <f>(U19+U18)/U20</f>
+      <c r="M21" s="2">
+        <f>(M19+M18)/M20</f>
         <v>0.22591198612833366</v>
       </c>
-      <c r="V21" s="2">
-        <f t="shared" ref="V21:Z21" si="50">(V19+V18)/V20</f>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:R21" si="21">(N19+N18)/N20</f>
         <v>0.5176162761927533</v>
       </c>
-      <c r="W21" s="2">
-        <f t="shared" si="50"/>
+      <c r="O21" s="2">
+        <f t="shared" si="21"/>
         <v>1.3432841204354877</v>
       </c>
-      <c r="X21" s="34">
-        <f>(X19+X18)/X20</f>
+      <c r="P21" s="167">
+        <f>(P19+P18)/P20</f>
         <v>4.9302817651880408</v>
       </c>
-      <c r="Y21" s="141">
-        <f t="shared" si="50"/>
-        <v>1.6390570390256476</v>
-      </c>
-      <c r="Z21" s="141">
-        <f t="shared" si="50"/>
-        <v>3.5386030939694755</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="140">
+        <f t="shared" si="21"/>
+        <v>1.4671122284942981</v>
+      </c>
+      <c r="R21" s="140">
+        <f t="shared" si="21"/>
+        <v>2.5408282299581262</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -14951,41 +14464,33 @@
       <c r="H22" s="44">
         <v>9.1300000000000008</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="140">
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="140">
         <v>0.89</v>
       </c>
-      <c r="Z22" s="140">
+      <c r="R22" s="139">
         <v>2.21</v>
       </c>
     </row>
-    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C23" s="38">
-        <f t="shared" ref="C23:E23" si="51">1-(C6)/C3</f>
+        <f t="shared" ref="C23:E23" si="22">1-(C6)/C3</f>
         <v>0.61744707145930278</v>
       </c>
       <c r="D23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>0.62134282197000457</v>
       </c>
       <c r="E23" s="38">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>0.67526732664735967</v>
       </c>
       <c r="F23" s="5">
@@ -14994,74 +14499,42 @@
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
-      <c r="K23" s="38" t="e">
-        <f t="shared" ref="K23:Z23" si="52">1-(K6)/K3</f>
+      <c r="K23" s="38">
+        <f t="shared" ref="K23:R23" si="23">1-(K6)/K3</f>
+        <v>0.76239484347539765</v>
+      </c>
+      <c r="L23" s="38">
+        <f t="shared" si="23"/>
+        <v>0.77256785764017144</v>
+      </c>
+      <c r="M23" s="38">
+        <f t="shared" si="23"/>
+        <v>0.75671444766418616</v>
+      </c>
+      <c r="N23" s="38">
+        <f t="shared" si="23"/>
+        <v>0.73239191660374248</v>
+      </c>
+      <c r="O23" s="38">
+        <f t="shared" si="23"/>
+        <v>0.74909559950167992</v>
+      </c>
+      <c r="P23" s="38">
+        <f>1-(P6)/P3</f>
+        <v>0.80807745356071237</v>
+      </c>
+      <c r="Q23" s="174">
+        <f t="shared" si="23"/>
+        <v>0.85561503160325181</v>
+      </c>
+      <c r="R23" s="142" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="38" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="38">
-        <f t="shared" si="52"/>
-        <v>0.76239484347539765</v>
-      </c>
-      <c r="T23" s="38">
-        <f t="shared" si="52"/>
-        <v>0.77256785764017144</v>
-      </c>
-      <c r="U23" s="38">
-        <f t="shared" si="52"/>
-        <v>0.75671444766418616</v>
-      </c>
-      <c r="V23" s="38">
-        <f t="shared" si="52"/>
-        <v>0.73239191660374248</v>
-      </c>
-      <c r="W23" s="38">
-        <f t="shared" si="52"/>
-        <v>0.74909559950167992</v>
-      </c>
-      <c r="X23" s="5">
-        <f t="shared" si="52"/>
-        <v>0.80807745356071237</v>
-      </c>
-      <c r="Y23" s="143" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" s="143" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3">
         <f>C19/C3</f>
@@ -15087,85 +14560,53 @@
         <f>H19/H4</f>
         <v>0.1872064400592186</v>
       </c>
-      <c r="K24" s="3" t="e">
-        <f>K19/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="3" t="e">
-        <f t="shared" ref="L24:Z24" si="53">L19/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="3" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="53"/>
+      <c r="K24" s="3">
+        <f t="shared" ref="K24:P24" si="24">K19/K3</f>
         <v>4.5531634870515168E-2</v>
       </c>
-      <c r="T24" s="3">
-        <f t="shared" si="53"/>
+      <c r="L24" s="3">
+        <f t="shared" si="24"/>
         <v>4.1344062346467696E-2</v>
       </c>
-      <c r="U24" s="3">
-        <f t="shared" si="53"/>
+      <c r="M24" s="3">
+        <f t="shared" si="24"/>
         <v>2.2914758450042857E-2</v>
       </c>
-      <c r="V24" s="3">
-        <f t="shared" si="53"/>
+      <c r="N24" s="3">
+        <f t="shared" si="24"/>
         <v>6.4249779786806169E-2</v>
       </c>
-      <c r="W24" s="3">
-        <f t="shared" si="53"/>
+      <c r="O24" s="3">
+        <f t="shared" si="24"/>
         <v>0.17047017586760826</v>
       </c>
-      <c r="X24" s="6">
-        <f t="shared" si="53"/>
+      <c r="P24" s="169">
+        <f t="shared" si="24"/>
         <v>0.53203641941123847</v>
       </c>
-      <c r="Y24" s="139" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="139" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" s="135" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="135" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136">
+      <c r="Q24" s="6">
+        <f>Q19/Q4</f>
+        <v>0.17713737802089938</v>
+      </c>
+      <c r="R24" s="3">
+        <f>R19/R4</f>
+        <v>0.25018744781737023</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135">
         <f>D3/C3-1</f>
         <v>0.95305337511785693</v>
       </c>
-      <c r="E25" s="137">
+      <c r="E25" s="136">
         <f>E3/D3-1</f>
         <v>9.3660696466152382E-2</v>
       </c>
-      <c r="F25" s="138">
+      <c r="F25" s="137">
         <f>F3/E3-1</f>
         <v>0.26906277250392074</v>
       </c>
@@ -15181,46 +14622,20 @@
       <c r="L25" s="136"/>
       <c r="M25" s="136"/>
       <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="137" t="e">
-        <f t="shared" ref="Q25:W25" si="54">Q3/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="137" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="137" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="137" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="137" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="137" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="137">
-        <f t="shared" si="54"/>
+      <c r="O25" s="136">
+        <f t="shared" ref="O25" si="25">O3/K3-1</f>
         <v>0.3548885312214991</v>
       </c>
-      <c r="X25" s="138">
-        <f>X3/T3-1</f>
+      <c r="P25" s="136">
+        <f>P3/L3-1</f>
         <v>0.60195322154471387</v>
       </c>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q25" s="174"/>
+      <c r="R25" s="143"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
         <f>C8/C3</f>
@@ -15238,76 +14653,44 @@
         <f>F8/F3</f>
         <v>7.5202445742312093E-2</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="K26" s="3" t="e">
-        <f>K8/K3</f>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="K26" s="3">
+        <f t="shared" ref="K26:R26" si="26">K8/K3</f>
+        <v>9.2265862008291025E-2</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="26"/>
+        <v>9.4844976045193624E-2</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="26"/>
+        <v>8.8515356194628469E-2</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="26"/>
+        <v>3.795067531194099E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="26"/>
+        <v>1.3939847633713658E-2</v>
+      </c>
+      <c r="P26" s="169">
+        <f t="shared" si="26"/>
+        <v>1.7779445779371808E-2</v>
+      </c>
+      <c r="Q26" s="141">
+        <f t="shared" si="26"/>
+        <v>2.1441436290345638E-2</v>
+      </c>
+      <c r="R26" s="138" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="3" t="e">
-        <f t="shared" ref="L26:Z26" si="55">L8/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="3" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="3" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="3" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="3" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="3" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="3" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="55"/>
-        <v>9.2265862008291025E-2</v>
-      </c>
-      <c r="T26" s="3">
-        <f t="shared" si="55"/>
-        <v>9.4844976045193624E-2</v>
-      </c>
-      <c r="U26" s="3">
-        <f t="shared" si="55"/>
-        <v>8.8515356194628469E-2</v>
-      </c>
-      <c r="V26" s="3">
-        <f t="shared" si="55"/>
-        <v>3.795067531194099E-2</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="55"/>
-        <v>1.3939847633713658E-2</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" si="55"/>
-        <v>1.7779445779371808E-2</v>
-      </c>
-      <c r="Y26" s="139" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="139" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C27" s="3">
         <f>C5/C3</f>
@@ -15325,76 +14708,44 @@
         <f>F5/F3</f>
         <v>0.29100686728267811</v>
       </c>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="K27" s="3" t="e">
-        <f>K5/K3</f>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="K27" s="3">
+        <f t="shared" ref="K27:R27" si="27">K5/K3</f>
+        <v>0.33379996343598073</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="27"/>
+        <v>0.34395747397543591</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="27"/>
+        <v>0.27125451664484757</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="27"/>
+        <v>0.23933184019500423</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="27"/>
+        <v>0.23468200458957578</v>
+      </c>
+      <c r="P27" s="169">
+        <f t="shared" si="27"/>
+        <v>0.22756589621252166</v>
+      </c>
+      <c r="Q27" s="141">
+        <f t="shared" si="27"/>
+        <v>0.17303096143400326</v>
+      </c>
+      <c r="R27" s="138" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="3" t="e">
-        <f t="shared" ref="L27:Z27" si="56">L5/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="3" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="3" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="3" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="3" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="3" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="3" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="56"/>
-        <v>0.33379996343598073</v>
-      </c>
-      <c r="T27" s="3">
-        <f t="shared" si="56"/>
-        <v>0.34395747397543591</v>
-      </c>
-      <c r="U27" s="3">
-        <f t="shared" si="56"/>
-        <v>0.27125451664484757</v>
-      </c>
-      <c r="V27" s="3">
-        <f t="shared" si="56"/>
-        <v>0.23933184019500423</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="56"/>
-        <v>0.23468200458957578</v>
-      </c>
-      <c r="X27" s="6">
-        <f t="shared" si="56"/>
-        <v>0.22756589621252166</v>
-      </c>
-      <c r="Y27" s="139" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="139" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3">
         <f>C11/C3</f>
@@ -15412,87 +14763,55 @@
         <f>F11/F3</f>
         <v>0</v>
       </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="K28" s="3" t="e">
-        <f>K11/K3</f>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="K28" s="3">
+        <f t="shared" ref="K28:R28" si="28">K11/K3</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="169">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="141">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="138" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="3" t="e">
-        <f t="shared" ref="L28:Z28" si="57">L11/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="3" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="3" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="3" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="3" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="3" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="3" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="3">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="139" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="139" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" s="135" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136">
+    </row>
+    <row r="29" spans="2:18" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135">
         <f>-(D19/C19-1)</f>
         <v>-1.2884450628390551</v>
       </c>
-      <c r="E29" s="137">
+      <c r="E29" s="136">
         <f>E19/D19-1</f>
         <v>-0.50974262673844062</v>
       </c>
-      <c r="F29" s="138">
+      <c r="F29" s="137">
         <f>F21/E21-1</f>
         <v>-1.1845496616419049</v>
       </c>
@@ -15508,237 +14827,153 @@
       <c r="L29" s="136"/>
       <c r="M29" s="136"/>
       <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="137" t="e">
-        <f t="shared" ref="S29:W29" si="58">S21/O21-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="137" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="137" t="e">
-        <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="137" t="e">
-        <f>V21/R21-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="137">
-        <f t="shared" si="58"/>
+      <c r="O29" s="136">
+        <f t="shared" ref="O29" si="29">O21/K21-1</f>
         <v>3.3283284406211981</v>
       </c>
-      <c r="X29" s="138">
-        <f>X21/T21-1</f>
+      <c r="P29" s="136">
+        <f>P21/L21-1</f>
         <v>23.46476131398072</v>
       </c>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q29" s="174"/>
+      <c r="R29" s="143"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="52">
+        <v>68</v>
+      </c>
+      <c r="C30" s="51">
         <f>C13/C3</f>
         <v>-7.3197846788253168E-2</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="51">
         <f>D13/D3</f>
         <v>-4.5893036318300044E-2</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="51">
         <f>E13/E3</f>
         <v>-6.8493157557677126E-2</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="52">
         <f>F13/F3</f>
         <v>-0.10020521751030448</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="51">
         <f>G13/G4</f>
         <v>0</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="51">
         <f>H13/H4</f>
         <v>0</v>
       </c>
-      <c r="K30" s="52" t="e">
-        <f>K13/K3</f>
+      <c r="K30" s="51">
+        <f t="shared" ref="K30:R30" si="30">K13/K3</f>
+        <v>-9.7395812949690505E-2</v>
+      </c>
+      <c r="L30" s="51">
+        <f t="shared" si="30"/>
+        <v>-0.11258468475211493</v>
+      </c>
+      <c r="M30" s="51">
+        <f t="shared" si="30"/>
+        <v>-0.1014405447666855</v>
+      </c>
+      <c r="N30" s="51">
+        <f t="shared" si="30"/>
+        <v>-9.232091670036538E-2</v>
+      </c>
+      <c r="O30" s="51">
+        <f t="shared" si="30"/>
+        <v>-8.6878686170398234E-2</v>
+      </c>
+      <c r="P30" s="51">
+        <f>P13/P3</f>
+        <v>-5.2013770959220725E-2</v>
+      </c>
+      <c r="Q30" s="174">
+        <f t="shared" si="30"/>
+        <v>-7.022235484147632E-2</v>
+      </c>
+      <c r="R30" s="142" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="52" t="e">
-        <f t="shared" ref="L30:Z30" si="59">L13/L3</f>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="53">
+        <f t="shared" ref="C31:H31" si="31">-C13/C12</f>
+        <v>-0.1541124283771651</v>
+      </c>
+      <c r="D31" s="53">
+        <f t="shared" si="31"/>
+        <v>-7.671907679879103E-2</v>
+      </c>
+      <c r="E31" s="53">
+        <f t="shared" si="31"/>
+        <v>-0.30247355291202405</v>
+      </c>
+      <c r="F31" s="52">
+        <f t="shared" si="31"/>
+        <v>0.71928340393491097</v>
+      </c>
+      <c r="G31" s="51" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="52" t="e">
-        <f t="shared" si="59"/>
+      <c r="H31" s="51" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="52" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="52" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="52" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="52" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="52" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="52">
-        <f t="shared" si="59"/>
-        <v>-9.7395812949690505E-2</v>
-      </c>
-      <c r="T30" s="52">
-        <f t="shared" si="59"/>
-        <v>-0.11258468475211493</v>
-      </c>
-      <c r="U30" s="52">
-        <f t="shared" si="59"/>
-        <v>-0.1014405447666855</v>
-      </c>
-      <c r="V30" s="52">
-        <f t="shared" si="59"/>
-        <v>-9.232091670036538E-2</v>
-      </c>
-      <c r="W30" s="52">
-        <f t="shared" si="59"/>
-        <v>-8.6878686170398234E-2</v>
-      </c>
-      <c r="X30" s="53">
-        <f>X13/X3</f>
-        <v>-5.2013770959220725E-2</v>
-      </c>
-      <c r="Y30" s="143" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="143" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="54">
-        <f t="shared" ref="C31:H31" si="60">-C13/C12</f>
-        <v>-0.1541124283771651</v>
-      </c>
-      <c r="D31" s="54">
-        <f t="shared" si="60"/>
-        <v>-7.671907679879103E-2</v>
-      </c>
-      <c r="E31" s="54">
-        <f t="shared" si="60"/>
-        <v>-0.30247355291202405</v>
-      </c>
-      <c r="F31" s="53">
-        <f t="shared" si="60"/>
-        <v>0.71928340393491097</v>
-      </c>
-      <c r="G31" s="52" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="52" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="54" t="e">
-        <f>-K13/K12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="54" t="e">
-        <f t="shared" ref="L31:Z31" si="61">-L13/L12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="54" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="54" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="54" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="54" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="54" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="54" t="e">
-        <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="54">
-        <f t="shared" si="61"/>
+      <c r="K31" s="53">
+        <f t="shared" ref="K31:R31" si="32">-K13/K12</f>
         <v>0.62307933440481045</v>
       </c>
-      <c r="T31" s="54">
-        <f t="shared" si="61"/>
+      <c r="L31" s="53">
+        <f t="shared" si="32"/>
         <v>1.0452144147237079</v>
       </c>
-      <c r="U31" s="54">
-        <f t="shared" si="61"/>
+      <c r="M31" s="53">
+        <f t="shared" si="32"/>
         <v>0.77447766201940493</v>
       </c>
-      <c r="V31" s="54">
-        <f t="shared" si="61"/>
+      <c r="N31" s="53">
+        <f t="shared" si="32"/>
         <v>0.58880572040137491</v>
       </c>
-      <c r="W31" s="54">
-        <f t="shared" si="61"/>
+      <c r="O31" s="53">
+        <f t="shared" si="32"/>
         <v>0.2950157709005724</v>
       </c>
-      <c r="X31" s="53">
-        <f>-X13/X12</f>
+      <c r="P31" s="51">
+        <f>-P13/P12</f>
         <v>0.1743258132936672</v>
       </c>
-      <c r="Y31" s="144">
-        <f t="shared" si="61"/>
-        <v>0.31541348590520341</v>
-      </c>
-      <c r="Z31" s="144">
-        <f t="shared" si="61"/>
-        <v>0.16143169950868763</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="174">
+        <f t="shared" si="32"/>
+        <v>0.33573469106278669</v>
+      </c>
+      <c r="R31" s="143">
+        <f t="shared" si="32"/>
+        <v>0.20495508546631525</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" ref="C34:E34" si="62">C35-C55-C57</f>
+        <f t="shared" ref="C34:E34" si="33">C35-C55-C57</f>
         <v>42.988823999999994</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="33"/>
         <v>-0.97740299999999536</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="33"/>
         <v>4.2520639999999972</v>
       </c>
       <c r="F34" s="13">
@@ -15746,70 +14981,38 @@
         <v>67.374212</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" ref="K34" si="63">K35-K55-K57</f>
+        <f t="shared" ref="K34" si="34">K35-K55-K57</f>
         <v>0</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" ref="L34" si="64">L35-L55-L57</f>
+        <f t="shared" ref="L34" si="35">L35-L55-L57</f>
         <v>0</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" ref="M34" si="65">M35-M55-M57</f>
+        <f t="shared" ref="M34" si="36">M35-M55-M57</f>
+        <v>-10.23635800000001</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" ref="N34" si="37">N35-N55-N57</f>
+        <v>67.374212</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" ref="O34" si="38">O35-O55-O57</f>
+        <v>6.0957769999999982</v>
+      </c>
+      <c r="P34" s="170">
+        <f t="shared" ref="P34" si="39">P35-P55-P57</f>
+        <v>-10.855995</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" ref="Q34" si="40">Q35-Q55-Q57</f>
         <v>0</v>
       </c>
-      <c r="N34" s="10">
-        <f t="shared" ref="N34" si="66">N35-N55-N57</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" ref="O34" si="67">O35-O55-O57</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
-        <f t="shared" ref="P34" si="68">P35-P55-P57</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="10">
-        <f t="shared" ref="Q34" si="69">Q35-Q55-Q57</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="10">
-        <f t="shared" ref="R34" si="70">R35-R55-R57</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="10">
-        <f t="shared" ref="S34" si="71">S35-S55-S57</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="10">
-        <f t="shared" ref="T34" si="72">T35-T55-T57</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="10">
-        <f t="shared" ref="U34" si="73">U35-U55-U57</f>
-        <v>-10.23635800000001</v>
-      </c>
-      <c r="V34" s="10">
-        <f t="shared" ref="V34" si="74">V35-V55-V57</f>
-        <v>67.374212</v>
-      </c>
-      <c r="W34" s="10">
-        <f t="shared" ref="W34" si="75">W35-W55-W57</f>
-        <v>6.0957769999999982</v>
-      </c>
-      <c r="X34" s="13">
-        <f t="shared" ref="X34" si="76">X35-X55-X57</f>
-        <v>-10.855995</v>
-      </c>
-      <c r="Y34" s="10">
-        <f t="shared" ref="Y34" si="77">Y35-Y55-Y57</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="10"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35" s="9">
         <v>84.285382999999996</v>
@@ -15825,33 +15028,25 @@
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+      <c r="M35" s="131">
+        <v>65.150279999999995</v>
+      </c>
+      <c r="N35" s="9">
+        <f>F35</f>
+        <v>67.624212</v>
+      </c>
+      <c r="O35" s="9">
+        <v>77.784582999999998</v>
+      </c>
+      <c r="P35" s="171">
+        <v>58.026052999999997</v>
+      </c>
+      <c r="Q35" s="14"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="132">
-        <v>65.150279999999995</v>
-      </c>
-      <c r="V35" s="9">
-        <f t="shared" ref="V35:V40" si="78">F35</f>
-        <v>67.624212</v>
-      </c>
-      <c r="W35" s="9">
-        <v>77.784582999999998</v>
-      </c>
-      <c r="X35" s="14">
-        <v>58.026052999999997</v>
-      </c>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C36" s="9">
         <v>4.7985199999999999</v>
@@ -15867,33 +15062,25 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="M36" s="131">
+        <v>1.5804180000000001</v>
+      </c>
+      <c r="N36" s="9">
+        <f>F36</f>
+        <v>2.9930110000000001</v>
+      </c>
+      <c r="O36" s="9">
+        <v>3.8184969999999998</v>
+      </c>
+      <c r="P36" s="171">
+        <v>5.384366</v>
+      </c>
+      <c r="Q36" s="14"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="132">
-        <v>1.5804180000000001</v>
-      </c>
-      <c r="V36" s="9">
-        <f t="shared" si="78"/>
-        <v>2.9930110000000001</v>
-      </c>
-      <c r="W36" s="9">
-        <v>3.8184969999999998</v>
-      </c>
-      <c r="X36" s="14">
-        <v>5.384366</v>
-      </c>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C37" s="9">
         <v>80.807299999999998</v>
@@ -15909,33 +15096,25 @@
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
+      <c r="M37" s="131">
+        <v>111.146024</v>
+      </c>
+      <c r="N37" s="9">
+        <f>F37</f>
+        <v>142.885682</v>
+      </c>
+      <c r="O37" s="9">
+        <v>112.514403</v>
+      </c>
+      <c r="P37" s="171">
+        <v>131.02147400000001</v>
+      </c>
+      <c r="Q37" s="14"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="132">
-        <v>111.146024</v>
-      </c>
-      <c r="V37" s="9">
-        <f t="shared" si="78"/>
-        <v>142.885682</v>
-      </c>
-      <c r="W37" s="9">
-        <v>112.514403</v>
-      </c>
-      <c r="X37" s="14">
-        <v>131.02147400000001</v>
-      </c>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -15947,33 +15126,25 @@
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
+      <c r="M38" s="131">
+        <v>-8.5979419999999998</v>
+      </c>
+      <c r="N38" s="9">
+        <f>F38</f>
+        <v>-12.253041</v>
+      </c>
+      <c r="O38" s="9">
+        <v>-9.1827319999999997</v>
+      </c>
+      <c r="P38" s="171">
+        <v>-11.786141000000001</v>
+      </c>
+      <c r="Q38" s="14"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="132">
-        <v>-8.5979419999999998</v>
-      </c>
-      <c r="V38" s="9">
-        <f t="shared" si="78"/>
-        <v>-12.253041</v>
-      </c>
-      <c r="W38" s="9">
-        <v>-9.1827319999999997</v>
-      </c>
-      <c r="X38" s="14">
-        <v>-11.786141000000001</v>
-      </c>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C39" s="9">
         <v>1.4033059999999999</v>
@@ -15989,33 +15160,25 @@
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
+      <c r="M39" s="9">
+        <v>2.0556489999999998</v>
+      </c>
+      <c r="N39" s="9">
+        <f>F39</f>
+        <v>1.571728</v>
+      </c>
+      <c r="O39" s="9">
+        <v>1.31633</v>
+      </c>
+      <c r="P39" s="171">
+        <v>1.023752</v>
+      </c>
+      <c r="Q39" s="14"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9">
-        <v>2.0556489999999998</v>
-      </c>
-      <c r="V39" s="9">
-        <f t="shared" si="78"/>
-        <v>1.571728</v>
-      </c>
-      <c r="W39" s="9">
-        <v>1.31633</v>
-      </c>
-      <c r="X39" s="14">
-        <v>1.023752</v>
-      </c>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C40" s="9">
         <v>1.705919</v>
@@ -16031,36 +15194,28 @@
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
+      <c r="M40" s="9">
+        <v>4.8685590000000003</v>
+      </c>
+      <c r="N40" s="9">
+        <f>F40</f>
+        <v>6.223274</v>
+      </c>
+      <c r="O40" s="9">
+        <v>5.4328779999999997</v>
+      </c>
+      <c r="P40" s="171">
+        <v>6.8006849999999996</v>
+      </c>
+      <c r="Q40" s="14"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9">
-        <v>4.8685590000000003</v>
-      </c>
-      <c r="V40" s="9">
-        <f t="shared" si="78"/>
-        <v>6.223274</v>
-      </c>
-      <c r="W40" s="9">
-        <v>5.4328779999999997</v>
-      </c>
-      <c r="X40" s="14">
-        <v>6.8006849999999996</v>
-      </c>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-    </row>
-    <row r="41" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" ref="C41" si="79">SUM(C35:C40)</f>
+        <f t="shared" ref="C41" si="41">SUM(C35:C40)</f>
         <v>173.00042799999997</v>
       </c>
       <c r="D41" s="10">
@@ -16068,75 +15223,43 @@
         <v>221.29090299999999</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" ref="E41:F41" si="80">SUM(E35:E40)</f>
+        <f t="shared" ref="E41:F41" si="42">SUM(E35:E40)</f>
         <v>170.13146</v>
       </c>
       <c r="F41" s="13">
-        <f t="shared" si="80"/>
+        <f t="shared" si="42"/>
         <v>209.04486600000001</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" ref="K41:X41" si="81">SUM(K35:K40)</f>
+        <f t="shared" ref="K41:P41" si="43">SUM(K35:K40)</f>
         <v>0</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>176.20298799999998</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>209.04486600000001</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="10">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="10">
-        <f t="shared" si="81"/>
-        <v>176.20298799999998</v>
-      </c>
-      <c r="V41" s="10">
-        <f t="shared" si="81"/>
-        <v>209.04486600000001</v>
-      </c>
-      <c r="W41" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="43"/>
         <v>191.68395899999999</v>
       </c>
-      <c r="X41" s="13">
-        <f t="shared" si="81"/>
+      <c r="P41" s="170">
+        <f t="shared" si="43"/>
         <v>190.470189</v>
       </c>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q41" s="13"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C42" s="9">
         <v>0.53704600000000002</v>
@@ -16152,33 +15275,25 @@
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
+      <c r="M42" s="9">
+        <v>1.791784</v>
+      </c>
+      <c r="N42" s="9">
+        <f>F42</f>
+        <v>1.8984700000000001</v>
+      </c>
+      <c r="O42" s="9">
+        <v>2.058271</v>
+      </c>
+      <c r="P42" s="171">
+        <v>2.1996370000000001</v>
+      </c>
+      <c r="Q42" s="14"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9">
-        <v>1.791784</v>
-      </c>
-      <c r="V42" s="9">
-        <f t="shared" ref="V42:V46" si="82">F42</f>
-        <v>1.8984700000000001</v>
-      </c>
-      <c r="W42" s="9">
-        <v>2.058271</v>
-      </c>
-      <c r="X42" s="14">
-        <v>2.1996370000000001</v>
-      </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C43" s="9">
         <f>0.375186+0.145576</f>
@@ -16196,33 +15311,25 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
+      <c r="M43" s="9">
+        <v>0.166264</v>
+      </c>
+      <c r="N43" s="9">
+        <f>F43</f>
+        <v>0.99447600000000003</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0.86786099999999999</v>
+      </c>
+      <c r="P43" s="171">
+        <v>0.86539299999999997</v>
+      </c>
+      <c r="Q43" s="14"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9">
-        <v>0.166264</v>
-      </c>
-      <c r="V43" s="9">
-        <f t="shared" si="82"/>
-        <v>0.99447600000000003</v>
-      </c>
-      <c r="W43" s="9">
-        <v>0.86786099999999999</v>
-      </c>
-      <c r="X43" s="14">
-        <v>0.86539299999999997</v>
-      </c>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C44" s="9">
         <v>0.02</v>
@@ -16238,33 +15345,25 @@
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="M44" s="9">
+        <v>1.028165</v>
+      </c>
+      <c r="N44" s="9">
+        <f>F44</f>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P44" s="171">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q44" s="14"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9">
-        <v>1.028165</v>
-      </c>
-      <c r="V44" s="9">
-        <f t="shared" si="82"/>
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="W44" s="9">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="X44" s="14">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -16272,28 +15371,20 @@
       <c r="F45" s="14"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="M45" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
+      <c r="P45" s="171">
+        <v>17.557068000000001</v>
+      </c>
+      <c r="Q45" s="14"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="14">
-        <v>17.557068000000001</v>
-      </c>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C46" s="9">
         <v>3.2537000000000003E-2</v>
@@ -16309,33 +15400,25 @@
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="M46" s="9">
+        <v>0.632158</v>
+      </c>
+      <c r="N46" s="9">
+        <f>F46</f>
+        <v>0.625471</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0.51632999999999996</v>
+      </c>
+      <c r="P46" s="171">
+        <v>0.402366</v>
+      </c>
+      <c r="Q46" s="14"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9">
-        <v>0.632158</v>
-      </c>
-      <c r="V46" s="9">
-        <f t="shared" si="82"/>
-        <v>0.625471</v>
-      </c>
-      <c r="W46" s="9">
-        <v>0.51632999999999996</v>
-      </c>
-      <c r="X46" s="14">
-        <v>0.402366</v>
-      </c>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C47" s="10">
         <f>SUM(C41:C46)</f>
@@ -16354,67 +15437,35 @@
         <v>212.64528300000001</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" ref="K47:X47" si="83">SUM(K41:K46)</f>
+        <f t="shared" ref="K47:P47" si="44">SUM(K41:K46)</f>
         <v>0</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>179.90335899999999</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>212.64528300000001</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="10">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="10">
-        <f t="shared" si="83"/>
-        <v>179.90335899999999</v>
-      </c>
-      <c r="V47" s="10">
-        <f t="shared" si="83"/>
-        <v>212.64528300000001</v>
-      </c>
-      <c r="W47" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="44"/>
         <v>195.70842099999999</v>
       </c>
-      <c r="X47" s="13">
-        <f t="shared" si="83"/>
+      <c r="P47" s="170">
+        <f t="shared" si="44"/>
         <v>212.07665299999999</v>
       </c>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q47" s="13"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C48" s="9">
         <v>60.933272000000002</v>
@@ -16430,33 +15481,25 @@
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
+      <c r="M48" s="9">
+        <v>68.182563000000002</v>
+      </c>
+      <c r="N48" s="9">
+        <f>F48</f>
+        <v>74.135491000000002</v>
+      </c>
+      <c r="O48" s="9">
+        <v>73.732664999999997</v>
+      </c>
+      <c r="P48" s="171">
+        <v>71.251579000000007</v>
+      </c>
+      <c r="Q48" s="14"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9">
-        <v>68.182563000000002</v>
-      </c>
-      <c r="V48" s="9">
-        <f t="shared" ref="V48:V53" si="84">F48</f>
-        <v>74.135491000000002</v>
-      </c>
-      <c r="W48" s="9">
-        <v>73.732664999999997</v>
-      </c>
-      <c r="X48" s="14">
-        <v>71.251579000000007</v>
-      </c>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C49" s="9">
         <v>0.14274300000000001</v>
@@ -16472,33 +15515,25 @@
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
+      <c r="M49" s="9">
+        <v>5.2116999999999997E-2</v>
+      </c>
+      <c r="N49" s="9">
+        <f>F49</f>
+        <v>5.7315999999999999E-2</v>
+      </c>
+      <c r="O49" s="9">
+        <v>5.0430999999999997E-2</v>
+      </c>
+      <c r="P49" s="171">
+        <v>6.9705000000000003E-2</v>
+      </c>
+      <c r="Q49" s="14"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9">
-        <v>5.2116999999999997E-2</v>
-      </c>
-      <c r="V49" s="9">
-        <f t="shared" si="84"/>
-        <v>5.7315999999999999E-2</v>
-      </c>
-      <c r="W49" s="9">
-        <v>5.0430999999999997E-2</v>
-      </c>
-      <c r="X49" s="14">
-        <v>6.9705000000000003E-2</v>
-      </c>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C50" s="9">
         <v>6.6808699999999996</v>
@@ -16514,33 +15549,25 @@
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
+      <c r="M50" s="9">
+        <v>7.8326510000000003</v>
+      </c>
+      <c r="N50" s="9">
+        <f>F50</f>
+        <v>10.790308</v>
+      </c>
+      <c r="O50" s="9">
+        <v>10.488273</v>
+      </c>
+      <c r="P50" s="171">
+        <v>8.4402989999999996</v>
+      </c>
+      <c r="Q50" s="14"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9">
-        <v>7.8326510000000003</v>
-      </c>
-      <c r="V50" s="9">
-        <f t="shared" si="84"/>
-        <v>10.790308</v>
-      </c>
-      <c r="W50" s="9">
-        <v>10.488273</v>
-      </c>
-      <c r="X50" s="14">
-        <v>8.4402989999999996</v>
-      </c>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C51" s="9">
         <v>0.61583900000000003</v>
@@ -16556,33 +15583,25 @@
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+      <c r="M51" s="9">
+        <v>5.300675</v>
+      </c>
+      <c r="N51" s="9">
+        <f>F51</f>
+        <v>5.2614359999999998</v>
+      </c>
+      <c r="O51" s="9">
+        <v>5.5360370000000003</v>
+      </c>
+      <c r="P51" s="171">
+        <v>8.2429919999999992</v>
+      </c>
+      <c r="Q51" s="14"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9">
-        <v>5.300675</v>
-      </c>
-      <c r="V51" s="9">
-        <f t="shared" si="84"/>
-        <v>5.2614359999999998</v>
-      </c>
-      <c r="W51" s="9">
-        <v>5.5360370000000003</v>
-      </c>
-      <c r="X51" s="14">
-        <v>8.2429919999999992</v>
-      </c>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -16594,33 +15613,25 @@
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
+      <c r="M52" s="9">
+        <v>2.0702310000000002</v>
+      </c>
+      <c r="N52" s="9">
+        <f>F52</f>
+        <v>2.64323</v>
+      </c>
+      <c r="O52" s="9">
+        <v>3.1341350000000001</v>
+      </c>
+      <c r="P52" s="171">
+        <v>3.9421200000000001</v>
+      </c>
+      <c r="Q52" s="14"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9">
-        <v>2.0702310000000002</v>
-      </c>
-      <c r="V52" s="9">
-        <f t="shared" si="84"/>
-        <v>2.64323</v>
-      </c>
-      <c r="W52" s="9">
-        <v>3.1341350000000001</v>
-      </c>
-      <c r="X52" s="14">
-        <v>3.9421200000000001</v>
-      </c>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-    </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -16631,26 +15642,18 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
+      <c r="N53" s="9">
+        <f>F53</f>
+        <v>94.380905999999996</v>
+      </c>
       <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="14"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9">
-        <f t="shared" si="84"/>
-        <v>94.380905999999996</v>
-      </c>
-      <c r="W53" s="9"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-    </row>
-    <row r="54" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C54" s="10">
         <f>SUM(C48:C53)</f>
@@ -16669,67 +15672,35 @@
         <v>187.268687</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" ref="K54:X54" si="85">SUM(K48:K53)</f>
+        <f t="shared" ref="K54:P54" si="45">SUM(K48:K53)</f>
         <v>0</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>83.438237000000001</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>187.268687</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="10">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="10">
-        <f t="shared" si="85"/>
-        <v>83.438237000000001</v>
-      </c>
-      <c r="V54" s="10">
-        <f t="shared" si="85"/>
-        <v>187.268687</v>
-      </c>
-      <c r="W54" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="45"/>
         <v>92.941540999999987</v>
       </c>
-      <c r="X54" s="13">
-        <f t="shared" si="85"/>
+      <c r="P54" s="170">
+        <f t="shared" si="45"/>
         <v>91.946695000000005</v>
       </c>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q54" s="13"/>
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C55" s="9">
         <v>1.470332</v>
@@ -16745,33 +15716,25 @@
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
+      <c r="M55" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="N55" s="9">
+        <f>F55</f>
+        <v>0.25</v>
+      </c>
+      <c r="O55" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="P55" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="14"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="V55" s="9">
-        <f t="shared" ref="V55:V59" si="86">F55</f>
-        <v>0.25</v>
-      </c>
-      <c r="W55" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="X55" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9">
@@ -16783,33 +15746,25 @@
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="M56" s="9">
+        <v>0.99831599999999998</v>
+      </c>
+      <c r="N56" s="9">
+        <f>F56</f>
+        <v>0.98169200000000001</v>
+      </c>
+      <c r="O56" s="9">
+        <v>0.88422699999999999</v>
+      </c>
+      <c r="P56" s="171">
+        <v>0.88412400000000002</v>
+      </c>
+      <c r="Q56" s="14"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9">
-        <v>0.99831599999999998</v>
-      </c>
-      <c r="V56" s="9">
-        <f t="shared" si="86"/>
-        <v>0.98169200000000001</v>
-      </c>
-      <c r="W56" s="9">
-        <v>0.88422699999999999</v>
-      </c>
-      <c r="X56" s="14">
-        <v>0.88412400000000002</v>
-      </c>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C57" s="9">
         <v>39.826227000000003</v>
@@ -16825,33 +15780,25 @@
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
+      <c r="M57" s="9">
+        <v>75.136638000000005</v>
+      </c>
+      <c r="N57" s="9">
+        <f>F57</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="9">
+        <v>71.438806</v>
+      </c>
+      <c r="P57" s="171">
+        <v>68.882047999999998</v>
+      </c>
+      <c r="Q57" s="14"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9">
-        <v>75.136638000000005</v>
-      </c>
-      <c r="V57" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="9">
-        <v>71.438806</v>
-      </c>
-      <c r="X57" s="14">
-        <v>68.882047999999998</v>
-      </c>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -16863,29 +15810,21 @@
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
+      <c r="M58" s="9">
+        <v>0.59056299999999995</v>
+      </c>
+      <c r="N58" s="9">
+        <f>F58</f>
+        <v>0.96725700000000003</v>
+      </c>
       <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="14"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9">
-        <v>0.59056299999999995</v>
-      </c>
-      <c r="V58" s="9">
-        <f t="shared" si="86"/>
-        <v>0.96725700000000003</v>
-      </c>
-      <c r="W58" s="9"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C59" s="9">
         <v>4.4830730000000001</v>
@@ -16897,33 +15836,25 @@
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
+      <c r="M59" s="9">
+        <v>1.51555</v>
+      </c>
+      <c r="N59" s="9">
+        <f>F59</f>
+        <v>1.083323</v>
+      </c>
+      <c r="O59" s="9">
+        <v>0.58045599999999997</v>
+      </c>
+      <c r="P59" s="171">
+        <v>7.4070999999999998E-2</v>
+      </c>
+      <c r="Q59" s="14"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9">
-        <v>1.51555</v>
-      </c>
-      <c r="V59" s="9">
-        <f t="shared" si="86"/>
-        <v>1.083323</v>
-      </c>
-      <c r="W59" s="9">
-        <v>0.58045599999999997</v>
-      </c>
-      <c r="X59" s="14">
-        <v>7.4070999999999998E-2</v>
-      </c>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C60" s="10">
         <f>SUM(C54:C59)</f>
@@ -16942,74 +15873,42 @@
         <v>190.55095900000001</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" ref="K60:V60" si="87">SUM(K54:K59)</f>
+        <f t="shared" ref="K60:N60" si="46">SUM(K54:K59)</f>
         <v>0</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>161.929304</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>190.55095900000001</v>
       </c>
       <c r="O60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="10">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="10">
-        <f t="shared" si="87"/>
-        <v>161.929304</v>
-      </c>
-      <c r="V60" s="10">
-        <f t="shared" si="87"/>
-        <v>190.55095900000001</v>
-      </c>
-      <c r="W60" s="10">
-        <f t="shared" ref="W60:X60" si="88">SUM(W54:W59)</f>
+        <f t="shared" ref="O60:P60" si="47">SUM(O54:O59)</f>
         <v>166.09502999999998</v>
       </c>
-      <c r="X60" s="13">
-        <f t="shared" si="88"/>
+      <c r="P60" s="170">
+        <f t="shared" si="47"/>
         <v>161.78693800000002</v>
       </c>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q60" s="13"/>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" ref="C61:D61" si="89">C47-C60</f>
+        <f t="shared" ref="C61:D61" si="48">C47-C60</f>
         <v>59.958416999999955</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="48"/>
         <v>37.792038000000019</v>
       </c>
       <c r="E61" s="9">
@@ -17027,89 +15926,60 @@
         <v>60</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" ref="K61:V61" si="90">K47-K60</f>
+        <f t="shared" ref="K61:N61" si="49">K47-K60</f>
         <v>0</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>17.974054999999993</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>22.094324</v>
       </c>
       <c r="O61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="9">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="9">
-        <f t="shared" si="90"/>
-        <v>17.974054999999993</v>
-      </c>
-      <c r="V61" s="9">
-        <f t="shared" si="90"/>
-        <v>22.094324</v>
-      </c>
-      <c r="W61" s="9">
-        <f t="shared" ref="W61:X61" si="91">W47-W60</f>
+        <f t="shared" ref="O61:P61" si="50">O47-O60</f>
         <v>29.613391000000007</v>
       </c>
-      <c r="X61" s="14">
-        <f t="shared" si="91"/>
+      <c r="P61" s="171">
+        <f t="shared" si="50"/>
         <v>50.289714999999973</v>
       </c>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-    </row>
-    <row r="63" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="14"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="63" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="165">
+        <v>70</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="144">
         <f>G19/G61</f>
         <v>0.76432973419999994</v>
       </c>
-      <c r="H63" s="165">
+      <c r="H63" s="144">
         <f>H19/H61</f>
         <v>0.86408252516666673</v>
       </c>
-      <c r="X63" s="15"/>
-    </row>
-    <row r="81" spans="6:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="172"/>
+      <c r="Q63" s="15"/>
+    </row>
+    <row r="81" spans="6:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F81" s="40"/>
-      <c r="X81" s="40"/>
-    </row>
-    <row r="82" spans="6:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P81" s="173"/>
+      <c r="Q81" s="40"/>
+    </row>
+    <row r="82" spans="6:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F82" s="15"/>
-      <c r="X82" s="15"/>
+      <c r="P82" s="172"/>
+      <c r="Q82" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17133,7 +16003,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -17147,14 +16017,231 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="9">
+        <v>88000</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9">
+        <v>210000</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
+        <v>529000</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3131000</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
+        <v>2572000</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
+        <v>2667000</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="9">
+        <v>27000</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>139000</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <v>274000</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="177">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="K5" s="177"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17">
+        <v>5.4</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3672000</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>4586000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>6244000</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176">
+        <f>F2/B2-1</f>
+        <v>1.3863636363636362</v>
+      </c>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176">
+        <f t="shared" ref="G9:J9" si="0">J2/F2-1</f>
+        <v>1.519047619047619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176">
+        <f>F7/B7-1</f>
+        <v>0.24891067538126355</v>
+      </c>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176">
+        <f t="shared" ref="G10:J10" si="1">J7/F7-1</f>
+        <v>0.36153510684692547</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17181,26 +16268,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="17"/>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -17210,7 +16297,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M3" s="11"/>
     </row>
@@ -17221,7 +16308,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -25516,19 +24603,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H1" s="154" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I1" s="155"/>
       <c r="J1" s="155"/>
@@ -25541,35 +24628,35 @@
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>96</v>
+      <c r="H3" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -25577,27 +24664,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="74" t="e">
+      <c r="H4" s="73" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="75" t="e">
+      <c r="I4" s="74" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="75">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="76" t="e">
+      <c r="K4" s="75" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="77" t="e">
+      <c r="L4" s="76" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="78" t="e">
+      <c r="M4" s="77" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -25607,27 +24694,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="79" t="e">
+      <c r="H5" s="78" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="80" t="e">
+      <c r="I5" s="79" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="80">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="82" t="e">
+      <c r="K5" s="81" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="83" t="e">
+      <c r="L5" s="82" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="84" t="e">
+      <c r="M5" s="83" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -25637,27 +24724,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="79" t="e">
+      <c r="H6" s="78" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="80" t="e">
+      <c r="I6" s="79" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="80">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="82" t="e">
+      <c r="K6" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="83" t="e">
+      <c r="L6" s="82" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="84" t="e">
+      <c r="M6" s="83" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -25667,27 +24754,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="79" t="e">
+      <c r="H7" s="78" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="80" t="e">
+      <c r="I7" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="82" t="e">
+      <c r="K7" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="83" t="e">
+      <c r="L7" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="84" t="e">
+      <c r="M7" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25697,27 +24784,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="79" t="e">
+      <c r="H8" s="78" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="80" t="e">
+      <c r="I8" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="82" t="e">
+      <c r="K8" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="83" t="e">
+      <c r="L8" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="84" t="e">
+      <c r="M8" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25727,27 +24814,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="79" t="e">
+      <c r="H9" s="78" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="80" t="e">
+      <c r="I9" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="82" t="e">
+      <c r="K9" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="83" t="e">
+      <c r="L9" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="84" t="e">
+      <c r="M9" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25757,27 +24844,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="79" t="e">
+      <c r="H10" s="78" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="80" t="e">
+      <c r="I10" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="82" t="e">
+      <c r="K10" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="83" t="e">
+      <c r="L10" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="84" t="e">
+      <c r="M10" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25787,27 +24874,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="79" t="e">
+      <c r="H11" s="78" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="80" t="e">
+      <c r="I11" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="82" t="e">
+      <c r="K11" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="83" t="e">
+      <c r="L11" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="84" t="e">
+      <c r="M11" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25817,27 +24904,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="79" t="e">
+      <c r="H12" s="78" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="80" t="e">
+      <c r="I12" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="82" t="e">
+      <c r="K12" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="83" t="e">
+      <c r="L12" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="84" t="e">
+      <c r="M12" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25847,27 +24934,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="79" t="e">
+      <c r="H13" s="78" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="80" t="e">
+      <c r="I13" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="82" t="e">
+      <c r="K13" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="83" t="e">
+      <c r="L13" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="84" t="e">
+      <c r="M13" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25877,27 +24964,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="79" t="e">
+      <c r="H14" s="78" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="80" t="e">
+      <c r="I14" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="80">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="82" t="e">
+      <c r="K14" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="83" t="e">
+      <c r="L14" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="84" t="e">
+      <c r="M14" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25907,23 +24994,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="86">
+      <c r="H15" s="84"/>
+      <c r="I15" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="85">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="86" t="e">
+      <c r="K15" s="85" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="87" t="e">
+      <c r="L15" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="87" t="e">
+      <c r="M15" s="86" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25933,8 +25020,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="H16" s="87"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
@@ -25942,10 +25029,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="157" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I17" s="158"/>
-      <c r="M17" s="89"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
@@ -25954,329 +25041,329 @@
       </c>
       <c r="H18" s="159"/>
       <c r="I18" s="160"/>
-      <c r="M18" s="89"/>
+      <c r="M18" s="88"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="127" t="e">
+      <c r="H19" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="126" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="89"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="127" t="e">
+      <c r="H20" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="126" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="89"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="127" t="e">
+      <c r="H21" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="126" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="89"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="127" t="e">
+      <c r="H22" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="126" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="89"/>
+      <c r="M22" s="88"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="127" t="e">
+      <c r="H23" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="126" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="89"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="127" t="e">
+      <c r="H24" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="126" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="89"/>
+      <c r="M24" s="88"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="128" t="e">
+      <c r="H25" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="127" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="89"/>
+      <c r="M25" s="88"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="128" t="e">
+      <c r="H26" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="127" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="89"/>
+      <c r="M26" s="88"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="127" t="e">
+      <c r="H27" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="126" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="89"/>
+      <c r="M27" s="88"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="127" t="e">
+      <c r="H28" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="126" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="89"/>
+      <c r="M28" s="88"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="127" t="e">
+      <c r="H29" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="126" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="89"/>
+      <c r="M29" s="88"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="128" t="e">
+      <c r="H30" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="127" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="89"/>
+      <c r="M30" s="88"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="68">
+      <c r="H31" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="67">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="89"/>
+      <c r="M31" s="88"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="93"/>
-      <c r="M32" s="89"/>
+      <c r="H32" s="92"/>
+      <c r="M32" s="88"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="M33" s="89"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="88"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="83" t="e">
+      <c r="H34" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="82" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J34" s="80">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="83" t="e">
+      <c r="K34" s="82" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="84" t="e">
+      <c r="L34" s="83" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="89"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="83" t="e">
+      <c r="H35" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="82" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="80">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="83" t="e">
+      <c r="K35" s="82" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="84" t="e">
+      <c r="L35" s="83" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="89"/>
+      <c r="M35" s="88"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="86">
+      <c r="H36" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="85">
         <v>0</v>
       </c>
-      <c r="J36" s="86">
+      <c r="J36" s="85">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="99" t="e">
+      <c r="K36" s="98" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="87" t="e">
+      <c r="L36" s="86" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="89"/>
+      <c r="M36" s="88"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="89"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="88"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="K38" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="L38" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="M38" s="96" t="s">
-        <v>121</v>
+      <c r="H38" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="95" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -26284,26 +25371,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="101">
+      <c r="H39" s="100">
         <v>1</v>
       </c>
-      <c r="I39" s="83" t="e">
+      <c r="I39" s="82" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="83" t="e">
+      <c r="J39" s="82" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="81">
+      <c r="K39" s="80">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="83" t="e">
+      <c r="L39" s="82" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="84">
+      <c r="M39" s="83">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -26312,26 +25399,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="100">
         <v>2</v>
       </c>
-      <c r="I40" s="83" t="e">
+      <c r="I40" s="82" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="83" t="e">
+      <c r="J40" s="82" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="81">
+      <c r="K40" s="80">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="83" t="e">
+      <c r="L40" s="82" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="84">
+      <c r="M40" s="83">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -26340,26 +25427,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="101">
+      <c r="H41" s="100">
         <v>3</v>
       </c>
-      <c r="I41" s="83" t="e">
+      <c r="I41" s="82" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="83" t="e">
+      <c r="J41" s="82" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="81">
+      <c r="K41" s="80">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="83" t="e">
+      <c r="L41" s="82" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="102">
+      <c r="M41" s="101">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -26368,8 +25455,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="79"/>
-      <c r="M42" s="102"/>
+      <c r="H42" s="78"/>
+      <c r="M42" s="101"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
@@ -26377,7 +25464,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="161" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I43" s="162"/>
       <c r="J43" s="162"/>
@@ -26390,24 +25477,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="103">
+      <c r="H44" s="102">
         <v>0.01</v>
       </c>
-      <c r="I44" s="104" t="e">
+      <c r="I44" s="103" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="105">
+      <c r="J44" s="104">
         <v>0.2</v>
       </c>
-      <c r="K44" s="104" t="e">
+      <c r="K44" s="103" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="105">
+      <c r="L44" s="104">
         <v>0.85</v>
       </c>
-      <c r="M44" s="106" t="e">
+      <c r="M44" s="105" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -26417,24 +25504,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="107">
+      <c r="H45" s="106">
         <v>0.02</v>
       </c>
-      <c r="I45" s="108" t="e">
+      <c r="I45" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="109">
+      <c r="J45" s="108">
         <v>0.25</v>
       </c>
-      <c r="K45" s="108" t="e">
+      <c r="K45" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="109">
+      <c r="L45" s="108">
         <v>0.86</v>
       </c>
-      <c r="M45" s="110" t="e">
+      <c r="M45" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26444,24 +25531,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="107">
+      <c r="H46" s="106">
         <v>0.03</v>
       </c>
-      <c r="I46" s="108" t="e">
+      <c r="I46" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="109">
+      <c r="J46" s="108">
         <v>0.3</v>
       </c>
-      <c r="K46" s="108" t="e">
+      <c r="K46" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="109">
+      <c r="L46" s="108">
         <v>0.87</v>
       </c>
-      <c r="M46" s="110" t="e">
+      <c r="M46" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26471,24 +25558,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="107">
+      <c r="H47" s="106">
         <v>0.04</v>
       </c>
-      <c r="I47" s="108" t="e">
+      <c r="I47" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="109">
+      <c r="J47" s="108">
         <v>0.35</v>
       </c>
-      <c r="K47" s="108" t="e">
+      <c r="K47" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="109">
+      <c r="L47" s="108">
         <v>0.88</v>
       </c>
-      <c r="M47" s="110" t="e">
+      <c r="M47" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26498,24 +25585,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="107">
+      <c r="H48" s="106">
         <v>0.05</v>
       </c>
-      <c r="I48" s="108" t="e">
+      <c r="I48" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="109">
+      <c r="J48" s="108">
         <v>0.4</v>
       </c>
-      <c r="K48" s="108" t="e">
+      <c r="K48" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="109">
+      <c r="L48" s="108">
         <v>0.89</v>
       </c>
-      <c r="M48" s="110" t="e">
+      <c r="M48" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26525,24 +25612,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="107">
+      <c r="H49" s="106">
         <v>0.06</v>
       </c>
-      <c r="I49" s="108" t="e">
+      <c r="I49" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="109">
+      <c r="J49" s="108">
         <v>0.45</v>
       </c>
-      <c r="K49" s="108" t="e">
+      <c r="K49" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="109">
+      <c r="L49" s="108">
         <v>0.9</v>
       </c>
-      <c r="M49" s="110" t="e">
+      <c r="M49" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26552,24 +25639,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="107">
+      <c r="H50" s="106">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="108" t="e">
+      <c r="I50" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="109">
+      <c r="J50" s="108">
         <v>0.5</v>
       </c>
-      <c r="K50" s="108" t="e">
+      <c r="K50" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="109">
+      <c r="L50" s="108">
         <v>0.91</v>
       </c>
-      <c r="M50" s="110" t="e">
+      <c r="M50" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26579,24 +25666,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="107">
+      <c r="H51" s="106">
         <v>0.08</v>
       </c>
-      <c r="I51" s="108" t="e">
+      <c r="I51" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="109">
+      <c r="J51" s="108">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="108" t="e">
+      <c r="K51" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="109">
+      <c r="L51" s="108">
         <v>0.92</v>
       </c>
-      <c r="M51" s="110" t="e">
+      <c r="M51" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26606,24 +25693,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="107">
+      <c r="H52" s="106">
         <v>0.09</v>
       </c>
-      <c r="I52" s="108" t="e">
+      <c r="I52" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="109">
+      <c r="J52" s="108">
         <v>0.6</v>
       </c>
-      <c r="K52" s="108" t="e">
+      <c r="K52" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="109">
+      <c r="L52" s="108">
         <v>0.93</v>
       </c>
-      <c r="M52" s="110" t="e">
+      <c r="M52" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26633,24 +25720,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="107">
+      <c r="H53" s="106">
         <v>0.1</v>
       </c>
-      <c r="I53" s="108" t="e">
+      <c r="I53" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="109">
+      <c r="J53" s="108">
         <v>0.65</v>
       </c>
-      <c r="K53" s="108" t="e">
+      <c r="K53" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="109">
+      <c r="L53" s="108">
         <v>0.94</v>
       </c>
-      <c r="M53" s="110" t="e">
+      <c r="M53" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26660,24 +25747,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="107">
+      <c r="H54" s="106">
         <v>0.11</v>
       </c>
-      <c r="I54" s="108" t="e">
+      <c r="I54" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="109">
+      <c r="J54" s="108">
         <v>0.7</v>
       </c>
-      <c r="K54" s="108" t="e">
+      <c r="K54" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="109">
+      <c r="L54" s="108">
         <v>0.95</v>
       </c>
-      <c r="M54" s="110" t="e">
+      <c r="M54" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26687,24 +25774,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="107">
+      <c r="H55" s="106">
         <v>0.12</v>
       </c>
-      <c r="I55" s="108" t="e">
+      <c r="I55" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="109">
+      <c r="J55" s="108">
         <v>0.75</v>
       </c>
-      <c r="K55" s="108" t="e">
+      <c r="K55" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="109">
+      <c r="L55" s="108">
         <v>0.96</v>
       </c>
-      <c r="M55" s="110" t="e">
+      <c r="M55" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26714,24 +25801,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="107">
+      <c r="H56" s="106">
         <v>0.13</v>
       </c>
-      <c r="I56" s="108" t="e">
+      <c r="I56" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="109">
+      <c r="J56" s="108">
         <v>0.8</v>
       </c>
-      <c r="K56" s="108" t="e">
+      <c r="K56" s="107" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="109">
+      <c r="L56" s="108">
         <v>0.97</v>
       </c>
-      <c r="M56" s="110" t="e">
+      <c r="M56" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26741,19 +25828,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="107">
+      <c r="H57" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="108" t="e">
+      <c r="I57" s="107" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="109"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="109">
+      <c r="J57" s="108"/>
+      <c r="K57" s="107"/>
+      <c r="L57" s="108">
         <v>0.98</v>
       </c>
-      <c r="M57" s="110" t="e">
+      <c r="M57" s="109" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26763,19 +25850,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="111">
+      <c r="H58" s="110">
         <v>0.15</v>
       </c>
-      <c r="I58" s="112" t="e">
+      <c r="I58" s="111" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="114">
+      <c r="J58" s="112"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="113">
         <v>0.99</v>
       </c>
-      <c r="M58" s="115" t="e">
+      <c r="M58" s="114" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26791,47 +25878,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="I60" s="117"/>
+      <c r="H60" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="116"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" s="119"/>
+      <c r="H61" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="118"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="120"/>
+      <c r="H62" s="119"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="116" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="121"/>
+      <c r="H63" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" s="120"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="I64" s="123">
+      <c r="H64" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="I64" s="122">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -26841,10 +25928,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" s="124">
+      <c r="H65" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" s="123">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED0313C-BE6C-4055-A537-AEFA3D381B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8639E808-6E78-402F-AC4A-F44D684F691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="570" windowWidth="13560" windowHeight="14715" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="240" windowWidth="14190" windowHeight="14715" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$P$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$P$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$P$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="210">
   <si>
     <t>Price</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>GMV Gross Merchandise Volume</t>
+  </si>
+  <si>
+    <t>10.03.2025 Stock Split &amp; 50m Stock Repurchase Program</t>
   </si>
 </sst>
 </file>
@@ -7995,18 +7998,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8050,7 +8053,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8070,7 +8073,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8101,18 +8104,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8156,7 +8159,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8176,7 +8179,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15661,8 +15664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15804,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="12">
-        <v>91.01</v>
+        <v>105.31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="27"/>
@@ -15855,7 +15858,7 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>3291.9227100000003</v>
+        <v>3809.1680099999999</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="27"/>
@@ -15949,7 +15952,7 @@
       </c>
       <c r="C12" s="14">
         <f>C8-C9+C10</f>
-        <v>3272.9197100000001</v>
+        <v>3790.1650099999997</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="27"/>
@@ -15963,7 +15966,7 @@
       </c>
       <c r="C13" s="35">
         <f>C6/Model!G32</f>
-        <v>81.771702584958234</v>
+        <v>94.620129647532693</v>
       </c>
       <c r="E13" s="4"/>
       <c r="J13" s="12"/>
@@ -15976,7 +15979,7 @@
       </c>
       <c r="C14" s="35">
         <f>C6/Model!H22</f>
-        <v>28.089506172839506</v>
+        <v>32.503086419753082</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="28"/>
@@ -15994,7 +15997,7 @@
       </c>
       <c r="C15" s="35">
         <f>C6/Model!I22</f>
-        <v>21.617577197149647</v>
+        <v>25.014251781472684</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -16029,7 +16032,7 @@
       </c>
       <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>0.55013574890691763</v>
+        <v>0.63657615336103168</v>
       </c>
       <c r="L18" s="143"/>
       <c r="M18" s="144"/>
@@ -16041,7 +16044,7 @@
       </c>
       <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>0.72207165070891599</v>
+        <v>0.83552758527805659</v>
       </c>
       <c r="L19" s="143"/>
       <c r="M19" s="144"/>
@@ -16125,7 +16128,7 @@
       </c>
       <c r="C26" s="35">
         <f>C12/C23</f>
-        <v>65.596146106824335</v>
+        <v>75.962822126465582</v>
       </c>
       <c r="L26" s="143"/>
       <c r="M26" s="144"/>
@@ -16179,6 +16182,9 @@
       <c r="C30" s="35">
         <f>(Model!T35+Model!T37)/Model!T55</f>
         <v>2.5201330721759074</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -16267,11 +16273,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8639E808-6E78-402F-AC4A-F44D684F691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D388A9E-2856-49B3-8B16-3790974C0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="240" windowWidth="14190" windowHeight="14715" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15045" yWindow="45" windowWidth="13755" windowHeight="15435" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$P$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$P$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$P$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="214">
   <si>
     <t>Price</t>
   </si>
@@ -949,6 +949,18 @@
   </si>
   <si>
     <t>10.03.2025 Stock Split &amp; 50m Stock Repurchase Program</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>GMV y/y</t>
+  </si>
+  <si>
+    <t>Rev % of GMV</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1873,9 +1885,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1934,6 +1943,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2890,6 +2919,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2897,7 +2927,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3234,6 +3263,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3241,7 +3271,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3787,6 +3816,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3794,7 +3824,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4397,6 +4426,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4404,7 +4434,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5032,6 +5061,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5039,7 +5069,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5658,6 +5687,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5665,7 +5695,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5902,7 +5931,7 @@
                   <c:v>77.581516999999963</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>117.19404</c:v>
+                  <c:v>118.27916999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6026,7 +6055,7 @@
                   <c:v>9.3714636586471496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51059227161026066</c:v>
+                  <c:v>0.52457923708813348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6246,6 +6275,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6253,7 +6283,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6928,6 +6957,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6935,7 +6965,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7649,6 +7678,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7656,7 +7686,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7951,6 +7980,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7958,7 +7988,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7998,18 +8027,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8053,7 +8082,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8073,7 +8102,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8104,18 +8133,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8159,7 +8188,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8179,7 +8208,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15664,8 +15693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15718,7 +15747,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="19">
-        <v>45792</v>
+        <v>45967</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>48</v>
@@ -15734,7 +15763,7 @@
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" si="0">I3/($C$7*1000)</f>
-        <v>1.0329545768709739E-3</v>
+        <v>1.0473160476524176E-3</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>126</v>
@@ -15749,7 +15778,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="20">
-        <v>0.55138888888888893</v>
+        <v>5.9722222222222225E-2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>140</v>
@@ -15765,7 +15794,7 @@
       </c>
       <c r="J4" s="5">
         <f t="shared" si="0"/>
-        <v>4.5707887534212493E-4</v>
+        <v>4.6343377715487037E-4</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>128</v>
@@ -15790,7 +15819,7 @@
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
-        <v>1.4094163832904813E-4</v>
+        <v>1.4290119131044149E-4</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>130</v>
@@ -15807,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="12">
-        <v>105.31</v>
+        <v>72.28</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="27"/>
@@ -15819,7 +15848,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>4.7859334826242019E-3</v>
+        <v>4.852473721093202E-3</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>132</v>
@@ -15834,8 +15863,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="14">
-        <f>Model!H20</f>
-        <v>36.170999999999999</v>
+        <f>Model!V20</f>
+        <v>35.674999999999997</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="27"/>
@@ -15858,7 +15887,7 @@
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>3809.1680099999999</v>
+        <v>2578.5889999999999</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="27"/>
@@ -15870,7 +15899,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>1.4721185480080726E-3</v>
+        <v>1.4925858444288717E-3</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>136</v>
@@ -15885,8 +15914,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="14">
-        <f>Model!T35</f>
-        <v>88.893000000000001</v>
+        <f>Model!V35</f>
+        <v>104.14700000000001</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="27"/>
@@ -15898,7 +15927,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="0"/>
-        <v>3.1793425672500068E-5</v>
+        <v>3.2235459004905393E-5</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>138</v>
@@ -15913,8 +15942,8 @@
         <v>4</v>
       </c>
       <c r="C10" s="14">
-        <f>Model!T58</f>
-        <v>69.89</v>
+        <f>Model!V58</f>
+        <v>117.312</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="27"/>
@@ -15926,7 +15955,7 @@
       </c>
       <c r="J10" s="5">
         <f>I10/($C$7*1000)</f>
-        <v>6.1557048464239303E-2</v>
+        <v>6.2412894183601964E-2</v>
       </c>
       <c r="L10" s="4"/>
       <c r="N10" s="12"/>
@@ -15937,7 +15966,7 @@
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>19.003</v>
+        <v>-13.164999999999992</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="27"/>
@@ -15952,7 +15981,7 @@
       </c>
       <c r="C12" s="14">
         <f>C8-C9+C10</f>
-        <v>3790.1650099999997</v>
+        <v>2591.7539999999999</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="27"/>
@@ -15966,7 +15995,7 @@
       </c>
       <c r="C13" s="35">
         <f>C6/Model!G32</f>
-        <v>94.620129647532693</v>
+        <v>64.942958607194598</v>
       </c>
       <c r="E13" s="4"/>
       <c r="J13" s="12"/>
@@ -15979,7 +16008,7 @@
       </c>
       <c r="C14" s="35">
         <f>C6/Model!H22</f>
-        <v>32.503086419753082</v>
+        <v>22.103975535168196</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="28"/>
@@ -15997,7 +16026,7 @@
       </c>
       <c r="C15" s="35">
         <f>C6/Model!I22</f>
-        <v>25.014251781472684</v>
+        <v>16.927400468384079</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -16006,7 +16035,7 @@
       </c>
       <c r="C16" s="5">
         <f>Model!H29</f>
-        <v>0.51059227161026066</v>
+        <v>0.52457923708813348</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -16015,16 +16044,16 @@
       </c>
       <c r="C17" s="5">
         <f>Model!I22/Model!H22-1</f>
-        <v>0.29938271604938271</v>
+        <v>0.30581039755351669</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="140" t="s">
+      <c r="L17" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="141"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -16032,11 +16061,11 @@
       </c>
       <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>0.63657615336103168</v>
-      </c>
-      <c r="L18" s="143"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="145"/>
+        <v>0.42136581039433235</v>
+      </c>
+      <c r="L18" s="142"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="144"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -16044,11 +16073,11 @@
       </c>
       <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>0.83552758527805659</v>
-      </c>
-      <c r="L19" s="143"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="145"/>
+        <v>0.55352599531615965</v>
+      </c>
+      <c r="L19" s="142"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="144"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -16056,11 +16085,11 @@
       </c>
       <c r="C20" s="5">
         <f>Model!H4/Model!G4-1</f>
-        <v>0.98564246569138114</v>
-      </c>
-      <c r="L20" s="143"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="145"/>
+        <v>0.99578785271072046</v>
+      </c>
+      <c r="L20" s="142"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="144"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -16068,59 +16097,59 @@
       </c>
       <c r="C21" s="5">
         <f>Model!I4/Model!H4-1</f>
-        <v>0.20834378777856344</v>
-      </c>
-      <c r="L21" s="143"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="145"/>
+        <v>0.27293770566209008</v>
+      </c>
+      <c r="L21" s="142"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="144"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="14">
-        <f>Model!T12</f>
-        <v>49.894999999999996</v>
-      </c>
-      <c r="L22" s="143"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="145"/>
+        <f>Model!G12</f>
+        <v>82.245565999999968</v>
+      </c>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="14">
-        <f>Model!T12</f>
-        <v>49.894999999999996</v>
-      </c>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="145"/>
+        <f>Model!G12</f>
+        <v>82.245565999999968</v>
+      </c>
+      <c r="L23" s="142"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="6">
-        <f>Model!T23</f>
-        <v>0.85400144883330786</v>
-      </c>
-      <c r="L24" s="143"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="145"/>
+        <f>Model!V23</f>
+        <v>0.8507226274872427</v>
+      </c>
+      <c r="L24" s="142"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="144"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="6">
-        <f>Model!T24</f>
-        <v>0.34559440292816829</v>
-      </c>
-      <c r="L25" s="143"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="145"/>
+        <f>Model!V24</f>
+        <v>0.25149952244508123</v>
+      </c>
+      <c r="L25" s="142"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="144"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -16128,11 +16157,11 @@
       </c>
       <c r="C26" s="35">
         <f>C12/C23</f>
-        <v>75.962822126465582</v>
-      </c>
-      <c r="L26" s="143"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="145"/>
+        <v>31.51238572545055</v>
+      </c>
+      <c r="L26" s="142"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="144"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -16144,9 +16173,9 @@
       <c r="E27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="143"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="145"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="144"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
@@ -16154,22 +16183,22 @@
       </c>
       <c r="C28" s="35">
         <f>C22/-Model!G13</f>
-        <v>3.6256566711319755</v>
+        <v>5.9764342126250147</v>
       </c>
       <c r="E28" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="148"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="147"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="35">
-        <f>Model!T41/Model!T55</f>
-        <v>2.6175946613647776</v>
+        <f>Model!V41/Model!V55</f>
+        <v>3.5174777391044394</v>
       </c>
       <c r="E29" t="s">
         <v>182</v>
@@ -16180,8 +16209,8 @@
         <v>76</v>
       </c>
       <c r="C30" s="35">
-        <f>(Model!T35+Model!T37)/Model!T55</f>
-        <v>2.5201330721759074</v>
+        <f>(Model!V35+Model!V37)/Model!V55</f>
+        <v>3.4378509961350385</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
@@ -16192,8 +16221,8 @@
         <v>77</v>
       </c>
       <c r="C31" s="5">
-        <f>(Model!T41-Model!T55)/Model!T47</f>
-        <v>0.55135972946315359</v>
+        <f>(Model!V41-Model!V55)/Model!V47</f>
+        <v>0.64254804285979017</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -16201,8 +16230,8 @@
         <v>78</v>
       </c>
       <c r="C32" s="35">
-        <f>(Model!T47-Model!T55)/Model!T20</f>
-        <v>5.4318376600038709</v>
+        <f>(Model!V47-Model!V55)/Model!V20</f>
+        <v>7.6608829712683937</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -16271,13 +16300,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16285,15 +16314,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="12"/>
-    <col min="20" max="20" width="11.42578125" style="12"/>
+    <col min="20" max="20" width="11.42578125" style="158" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -16339,20 +16369,26 @@
       <c r="S2" t="s">
         <v>167</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="158" t="s">
         <v>193</v>
       </c>
       <c r="U2" t="s">
         <v>194</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="12" t="s">
         <v>195</v>
       </c>
       <c r="W2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -16400,13 +16436,17 @@
         <f>G3-R3-Q3-P3</f>
         <v>98.223059999999975</v>
       </c>
-      <c r="T3" s="125">
+      <c r="T3" s="159">
         <v>104.91200000000001</v>
       </c>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U3" s="124">
+        <v>98.701999999999998</v>
+      </c>
+      <c r="V3" s="125">
+        <v>116.79600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
@@ -16418,10 +16458,10 @@
         <v>220.79</v>
       </c>
       <c r="H4" s="41">
-        <v>438.41</v>
+        <v>440.65</v>
       </c>
       <c r="I4">
-        <v>529.75</v>
+        <v>560.91999999999996</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="124"/>
@@ -16435,15 +16475,18 @@
       <c r="S4" s="124">
         <v>65.180000000000007</v>
       </c>
-      <c r="T4" s="125"/>
+      <c r="T4" s="159"/>
       <c r="U4" s="124">
         <v>93.33</v>
       </c>
-      <c r="V4" s="124">
-        <v>105.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V4" s="125">
+        <v>104.7</v>
+      </c>
+      <c r="W4" s="168">
+        <v>132.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>160</v>
       </c>
@@ -16489,13 +16532,17 @@
         <f t="shared" ref="S5:S10" si="1">G5-R5-Q5-P5</f>
         <v>14.579677999999998</v>
       </c>
-      <c r="T5" s="125">
+      <c r="T5" s="159">
         <v>15.048</v>
       </c>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="124">
+        <v>11.680999999999999</v>
+      </c>
+      <c r="V5" s="125">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>159</v>
       </c>
@@ -16541,13 +16588,17 @@
         <f t="shared" si="1"/>
         <v>16.074145000000001</v>
       </c>
-      <c r="T6" s="125">
+      <c r="T6" s="159">
         <v>15.317</v>
       </c>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="124">
+        <v>14.243</v>
+      </c>
+      <c r="V6" s="125">
+        <v>17.434999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>158</v>
       </c>
@@ -16593,13 +16644,17 @@
         <f t="shared" si="1"/>
         <v>2.8712109999999997</v>
       </c>
-      <c r="T7" s="125">
+      <c r="T7" s="159">
         <v>3.3740000000000001</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="124">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="V7" s="125">
+        <v>3.7050000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>157</v>
       </c>
@@ -16645,13 +16700,17 @@
         <f t="shared" si="1"/>
         <v>5.3641840000000007</v>
       </c>
-      <c r="T8" s="125">
+      <c r="T8" s="159">
         <v>5.3460000000000001</v>
       </c>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="124">
+        <v>8.7720000000000002</v>
+      </c>
+      <c r="V8" s="125">
+        <v>8.7750000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>124</v>
       </c>
@@ -16697,13 +16756,17 @@
         <f t="shared" si="1"/>
         <v>4.0849569999999993</v>
       </c>
-      <c r="T9" s="125">
+      <c r="T9" s="159">
         <v>3.1309999999999998</v>
       </c>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="124">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="V9" s="125">
+        <v>4.8230000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>156</v>
       </c>
@@ -16749,13 +16812,17 @@
         <f t="shared" si="1"/>
         <v>24.378527000000005</v>
       </c>
-      <c r="T10" s="125">
+      <c r="T10" s="159">
         <v>12.801</v>
       </c>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="124">
+        <v>20.646000000000001</v>
+      </c>
+      <c r="V10" s="125">
+        <v>32.177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>155</v>
       </c>
@@ -16775,11 +16842,11 @@
       <c r="Q11" s="124"/>
       <c r="R11" s="124"/>
       <c r="S11" s="124"/>
-      <c r="T11" s="125"/>
+      <c r="T11" s="159"/>
       <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="125"/>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -16842,20 +16909,32 @@
         <f>S3-SUM(S5:S11)</f>
         <v>30.870357999999968</v>
       </c>
-      <c r="T12" s="122">
+      <c r="T12" s="160">
         <f>T3-SUM(T5:T11)</f>
         <v>49.894999999999996</v>
       </c>
-      <c r="U12" s="122">
-        <f t="shared" ref="U12:V12" si="8">U4-SUM(U5:U11)</f>
-        <v>93.33</v>
-      </c>
-      <c r="V12" s="122">
+      <c r="U12" s="160">
+        <f t="shared" ref="U12:Y12" si="8">U3-SUM(U5:U11)</f>
+        <v>36.085999999999999</v>
+      </c>
+      <c r="V12" s="126">
         <f t="shared" si="8"/>
-        <v>105.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>35.561000000000007</v>
+      </c>
+      <c r="W12" s="160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -16901,13 +16980,17 @@
         <f t="shared" ref="S13:S15" si="9">G13-R13-Q13-P13</f>
         <v>-3.441072000000001</v>
       </c>
-      <c r="T13" s="125">
+      <c r="T13" s="159">
         <v>-2.9140000000000001</v>
       </c>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="124">
+        <v>-3.5009999999999999</v>
+      </c>
+      <c r="V13" s="125">
+        <v>-3.923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>161</v>
       </c>
@@ -16953,13 +17036,17 @@
         <f t="shared" si="9"/>
         <v>0.29986299999999999</v>
       </c>
-      <c r="T14" s="125">
+      <c r="T14" s="159">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="124">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="V14" s="125">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>162</v>
       </c>
@@ -17007,11 +17094,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T15" s="125"/>
+      <c r="T15" s="159"/>
       <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="125"/>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>125</v>
       </c>
@@ -17068,23 +17155,35 @@
         <v>17.609230000000004</v>
       </c>
       <c r="S16" s="122">
-        <f t="shared" ref="S16:V16" si="16">S12+SUM(S13:S15)</f>
+        <f t="shared" ref="S16:Y16" si="16">S12+SUM(S13:S15)</f>
         <v>27.729148999999968</v>
       </c>
-      <c r="T16" s="126">
+      <c r="T16" s="160">
         <f t="shared" si="16"/>
         <v>47.005999999999993</v>
       </c>
       <c r="U16" s="122">
+        <f>U12+SUM(U13:U15)</f>
+        <v>32.671999999999997</v>
+      </c>
+      <c r="V16" s="126">
         <f t="shared" si="16"/>
-        <v>93.33</v>
-      </c>
-      <c r="V16" s="122">
+        <v>31.632000000000009</v>
+      </c>
+      <c r="W16" s="126">
         <f t="shared" si="16"/>
-        <v>105.95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -17130,13 +17229,17 @@
         <f t="shared" ref="S17:S18" si="17">G17-R17-Q17-P17</f>
         <v>2.361965000000001</v>
       </c>
-      <c r="T17" s="125">
+      <c r="T17" s="159">
         <v>10.842000000000001</v>
       </c>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U17" s="124">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="V17" s="125">
+        <v>4.9610000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>163</v>
       </c>
@@ -17182,13 +17285,17 @@
         <f t="shared" si="17"/>
         <v>1.089245</v>
       </c>
-      <c r="T18" s="125">
+      <c r="T18" s="159">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-    </row>
-    <row r="19" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="124">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="V18" s="125">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -17214,7 +17321,7 @@
       </c>
       <c r="H19" s="53">
         <f>H22*H20</f>
-        <v>117.19404</v>
+        <v>118.27916999999999</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ref="L19:M19" si="19">L16-SUM(L17:L18)</f>
@@ -17245,20 +17352,35 @@
         <v>15.517839000000004</v>
       </c>
       <c r="S19" s="122">
-        <f t="shared" ref="S19:U19" si="24">S16-SUM(S17:S18)</f>
+        <f t="shared" ref="S19:Y19" si="24">S16-SUM(S17:S18)</f>
         <v>24.277938999999968</v>
       </c>
-      <c r="T19" s="126">
+      <c r="T19" s="160">
         <f t="shared" si="24"/>
         <v>36.256999999999991</v>
       </c>
       <c r="U19" s="122">
         <f t="shared" si="24"/>
-        <v>93.33</v>
-      </c>
-      <c r="V19" s="122"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+        <v>26.874999999999996</v>
+      </c>
+      <c r="V19" s="126">
+        <f t="shared" si="24"/>
+        <v>26.332000000000008</v>
+      </c>
+      <c r="W19" s="122">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="122">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="122">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>164</v>
       </c>
@@ -17307,13 +17429,17 @@
         <f>G20</f>
         <v>5.981795</v>
       </c>
-      <c r="T20" s="125">
+      <c r="T20" s="159">
         <v>36.170999999999999</v>
       </c>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-    </row>
-    <row r="21" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="124">
+        <v>35.506999999999998</v>
+      </c>
+      <c r="V20" s="125">
+        <v>35.674999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -17370,20 +17496,32 @@
         <f t="shared" si="26"/>
         <v>4.2407310849000952</v>
       </c>
-      <c r="T21" s="34">
-        <f t="shared" ref="T21:V21" si="27">(T19+T18)/T20</f>
+      <c r="T21" s="161">
+        <f t="shared" ref="T21:Y21" si="27">(T19+T18)/T20</f>
         <v>0.99980647480025397</v>
       </c>
-      <c r="U21" s="2" t="e">
+      <c r="U21" s="2">
+        <f t="shared" si="27"/>
+        <v>0.77742416988199503</v>
+      </c>
+      <c r="V21" s="34">
+        <f t="shared" si="27"/>
+        <v>0.74761037140854969</v>
+      </c>
+      <c r="W21" s="2" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V21" s="2" t="e">
+      <c r="X21" s="2" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
@@ -17395,10 +17533,10 @@
         <v>6.73</v>
       </c>
       <c r="H22" s="43">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="I22" s="1">
-        <v>4.21</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
@@ -17410,15 +17548,18 @@
         <v>0.89</v>
       </c>
       <c r="S22" s="44"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="44">
+      <c r="T22" s="162"/>
+      <c r="U22" s="169">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V22" s="44">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="170">
+        <v>0.65</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -17482,20 +17623,32 @@
         <f t="shared" si="30"/>
         <v>0.83635059832181968</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="38">
         <f t="shared" ref="T23:V23" si="31">1-(T6)/T3</f>
         <v>0.85400144883330786</v>
       </c>
-      <c r="U23" s="38" t="e">
+      <c r="U23" s="38">
         <f t="shared" si="31"/>
+        <v>0.85569694636380211</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" ref="V23:Y23" si="32">1-(V6)/V3</f>
+        <v>0.8507226274872427</v>
+      </c>
+      <c r="W23" s="38" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V23" s="38" t="e">
-        <f t="shared" si="31"/>
+      <c r="X23" s="38" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y23" s="38" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -17516,39 +17669,39 @@
         <v>4.4560685503845419E-2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:I24" si="32">G19/G3</f>
+        <f t="shared" ref="G24:I24" si="33">G19/G3</f>
         <v>0.28614362395546977</v>
       </c>
       <c r="H24" s="3" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="3" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ref="L24:Q24" si="33">L19/L3</f>
+        <f t="shared" ref="L24:Q24" si="34">L19/L3</f>
         <v>4.5531634870515168E-2</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.1344062346467696E-2</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.2914758450042857E-2</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.4249779786806169E-2</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.17047017586760826</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.53203641941123847</v>
       </c>
       <c r="R24" s="3">
@@ -17559,20 +17712,32 @@
         <f>S19/S4</f>
         <v>0.37247528382939499</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="163">
         <f>T19/T3</f>
         <v>0.34559440292816829</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" ref="U24:V24" si="34">U19/U4</f>
-        <v>1</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="U24:V24" si="35">U19/U4</f>
+        <v>0.28795671273974066</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" ref="V24:Y24" si="36">V19/V4</f>
+        <v>0.25149952244508123</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="127" t="s">
         <v>25</v>
       </c>
@@ -17590,15 +17755,15 @@
         <v>0.26906277250392074</v>
       </c>
       <c r="G25" s="130">
-        <f t="shared" ref="G25:I25" si="35">G3/F3-1</f>
+        <f t="shared" ref="G25:I25" si="37">G3/F3-1</f>
         <v>0.70138919480622985</v>
       </c>
       <c r="H25" s="129">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1</v>
       </c>
       <c r="I25" s="129" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="129"/>
@@ -17606,7 +17771,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
       <c r="P25" s="129">
-        <f t="shared" ref="P25" si="36">P3/L3-1</f>
+        <f t="shared" ref="P25" si="38">P3/L3-1</f>
         <v>0.3548885312214991</v>
       </c>
       <c r="Q25" s="129">
@@ -17621,20 +17786,32 @@
         <f>S3/O3-1</f>
         <v>1.0085909474100725</v>
       </c>
-      <c r="T25" s="130">
-        <f t="shared" ref="T25" si="37">T3/P3-1</f>
+      <c r="T25" s="129">
+        <f>T3/P3-1</f>
         <v>1.2331854093501313</v>
       </c>
       <c r="U25" s="129">
-        <f>U4/Q3-1</f>
-        <v>0.66754498802496154</v>
-      </c>
-      <c r="V25" s="129">
-        <f>V4/R3-1</f>
-        <v>0.51448680603252051</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+        <f>U3/Q3-1</f>
+        <v>0.76352754106974974</v>
+      </c>
+      <c r="V25" s="130">
+        <f>V3/R3-1</f>
+        <v>0.66952336948913893</v>
+      </c>
+      <c r="W25" s="129">
+        <f>W4/S3-1</f>
+        <v>0.34744325823284306</v>
+      </c>
+      <c r="X25" s="129">
+        <f t="shared" ref="V25:Y25" si="39">X4/T3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="129">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>56</v>
       </c>
@@ -17655,63 +17832,75 @@
         <v>7.5202445742312093E-2</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" ref="G26:I26" si="38">G8/G3</f>
+        <f t="shared" ref="G26:I26" si="40">G8/G3</f>
         <v>3.5923132068781269E-2</v>
       </c>
       <c r="H26" s="3" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="3" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" ref="L26:S26" si="39">L8/L3</f>
-        <v>9.2265862008291025E-2</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="39"/>
-        <v>9.4844976045193624E-2</v>
-      </c>
-      <c r="N26" s="3">
-        <f t="shared" si="39"/>
-        <v>8.8515356194628469E-2</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="39"/>
-        <v>3.795067531194099E-2</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" si="39"/>
-        <v>1.3939847633713658E-2</v>
-      </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="39"/>
-        <v>1.7779445779371808E-2</v>
-      </c>
-      <c r="R26" s="3">
-        <f t="shared" si="39"/>
-        <v>3.8960905670828959E-2</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="39"/>
-        <v>5.4612267221159694E-2</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" ref="T26:V26" si="40">T8/T3</f>
-        <v>5.0956992527070304E-2</v>
-      </c>
-      <c r="U26" s="3" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V26" s="3" t="e">
+      <c r="I26" s="3" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L26" s="3">
+        <f t="shared" ref="L26:S26" si="41">L8/L3</f>
+        <v>9.2265862008291025E-2</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="41"/>
+        <v>9.4844976045193624E-2</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="41"/>
+        <v>8.8515356194628469E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="41"/>
+        <v>3.795067531194099E-2</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="41"/>
+        <v>1.3939847633713658E-2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="41"/>
+        <v>1.7779445779371808E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="41"/>
+        <v>3.8960905670828959E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="41"/>
+        <v>5.4612267221159694E-2</v>
+      </c>
+      <c r="T26" s="163">
+        <f t="shared" ref="T26:V26" si="42">T8/T3</f>
+        <v>5.0956992527070304E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="42"/>
+        <v>8.8873579056148816E-2</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" ref="V26:Y26" si="43">V8/V3</f>
+        <v>7.5130997636905367E-2</v>
+      </c>
+      <c r="W26" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>165</v>
       </c>
@@ -17732,63 +17921,75 @@
         <v>0.29100686728267811</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:I27" si="41">G5/G3</f>
+        <f t="shared" ref="G27:I27" si="44">G5/G3</f>
         <v>0.19092452642920654</v>
       </c>
       <c r="H27" s="3" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="3" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" ref="L27:S27" si="42">L5/L3</f>
+        <f t="shared" ref="L27:S27" si="45">L5/L3</f>
         <v>0.33379996343598073</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.34395747397543591</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.27125451664484757</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.23933184019500423</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.23468200458957578</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.22756589621252166</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.19188344852605271</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.14843436968874724</v>
       </c>
-      <c r="T27" s="6">
-        <f t="shared" ref="T27:V27" si="43">T5/T3</f>
+      <c r="T27" s="163">
+        <f t="shared" ref="T27:V27" si="46">T5/T3</f>
         <v>0.14343449748360529</v>
       </c>
-      <c r="U27" s="3" t="e">
-        <f t="shared" si="43"/>
+      <c r="U27" s="3">
+        <f t="shared" si="46"/>
+        <v>0.11834613280379323</v>
+      </c>
+      <c r="V27" s="6">
+        <f t="shared" ref="V27:Y27" si="47">V5/V3</f>
+        <v>0.12260693859378745</v>
+      </c>
+      <c r="W27" s="3" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="3" t="e">
-        <f t="shared" si="43"/>
+      <c r="X27" s="3" t="e">
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y27" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>123</v>
       </c>
@@ -17809,63 +18010,75 @@
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ref="G28:I28" si="44">G11/G3</f>
+        <f t="shared" ref="G28:I28" si="48">G11/G3</f>
         <v>0</v>
       </c>
       <c r="H28" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" ref="L28:S28" si="45">L11/L3</f>
+        <f t="shared" ref="L28:S28" si="49">L11/L3</f>
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" ref="T28:V28" si="46">T11/T3</f>
+      <c r="T28" s="163">
+        <f t="shared" ref="T28:V28" si="50">T11/T3</f>
         <v>0</v>
       </c>
-      <c r="U28" s="3" t="e">
-        <f t="shared" si="46"/>
+      <c r="U28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <f t="shared" ref="V28:Y28" si="51">V11/V3</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="3" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V28" s="3" t="e">
-        <f t="shared" si="46"/>
+      <c r="X28" s="3" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="3" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="127" t="s">
         <v>168</v>
       </c>
@@ -17883,23 +18096,23 @@
         <v>-1.1845496616419049</v>
       </c>
       <c r="G29" s="130">
-        <f t="shared" ref="G29" si="47">G21/F21-1</f>
+        <f t="shared" ref="G29" si="52">G21/F21-1</f>
         <v>9.3714636586471496</v>
       </c>
       <c r="H29" s="129">
         <f>H22/(G21*G20/H20)-1</f>
-        <v>0.51059227161026066</v>
+        <v>0.52457923708813348</v>
       </c>
       <c r="I29" s="129">
         <f>I22/(H22)-1</f>
-        <v>0.29938271604938271</v>
+        <v>0.30581039755351669</v>
       </c>
       <c r="L29" s="129"/>
       <c r="M29" s="129"/>
       <c r="N29" s="129"/>
       <c r="O29" s="129"/>
       <c r="P29" s="129">
-        <f t="shared" ref="P29" si="48">P21/L21-1</f>
+        <f t="shared" ref="P29" si="53">P21/L21-1</f>
         <v>3.3283284406211981</v>
       </c>
       <c r="Q29" s="129">
@@ -17914,24 +18127,32 @@
         <f>S21/O21-1</f>
         <v>7.1928086112209204</v>
       </c>
-      <c r="T29" s="130">
+      <c r="T29" s="129">
         <f>T21/(P21*P20/T20)-1</f>
         <v>3.5165452001091522</v>
       </c>
       <c r="U29" s="129">
-        <f>U22/(Q21*Q20/T20)-1</f>
-        <v>-0.31803107015343568</v>
-      </c>
-      <c r="V29" s="129">
-        <f>V22/(R21*R20/T20)-1</f>
-        <v>0.63921435642497038</v>
-      </c>
-      <c r="W29" s="129" t="e">
-        <f t="shared" ref="W29" si="49">W21/(S21*S20/W20)-1</f>
+        <f>U21/(Q21*Q20/U20)-1</f>
+        <v>-7.0631250593186423E-2</v>
+      </c>
+      <c r="V29" s="130">
+        <f t="shared" ref="V29:Y29" si="54">V22/(R21*R20/U20)-1</f>
+        <v>0.49418554326583353</v>
+      </c>
+      <c r="W29" s="129">
+        <f t="shared" si="54"/>
+        <v>0.26571006068312664</v>
+      </c>
+      <c r="X29" s="129" t="e">
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y29" s="129" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -17952,35 +18173,35 @@
         <v>-0.10020521751030448</v>
       </c>
       <c r="G30" s="48">
-        <f t="shared" ref="G30:I30" si="50">G13/G3</f>
+        <f t="shared" ref="G30:I30" si="55">G13/G3</f>
         <v>-5.075702466463336E-2</v>
       </c>
       <c r="H30" s="47" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="47" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="47">
-        <f t="shared" ref="L30:S30" si="51">L13/L3</f>
+        <f t="shared" ref="L30:S30" si="56">L13/L3</f>
         <v>-9.7395812949690505E-2</v>
       </c>
       <c r="M30" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-0.11258468475211493</v>
       </c>
       <c r="N30" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-0.1014405447666855</v>
       </c>
       <c r="O30" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-9.232091670036538E-2</v>
       </c>
       <c r="P30" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-8.6878686170398234E-2</v>
       </c>
       <c r="Q30" s="47">
@@ -17992,72 +18213,84 @@
         <v>-4.7571581514890195E-2</v>
       </c>
       <c r="S30" s="47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-3.5033239648612068E-2</v>
       </c>
-      <c r="T30" s="48">
-        <f t="shared" ref="T30:V30" si="52">T13/T3</f>
+      <c r="T30" s="47">
+        <f t="shared" ref="T30:V30" si="57">T13/T3</f>
         <v>-2.7775659600427025E-2</v>
       </c>
-      <c r="U30" s="47" t="e">
-        <f t="shared" si="52"/>
+      <c r="U30" s="47">
+        <f t="shared" si="57"/>
+        <v>-3.5470405868168832E-2</v>
+      </c>
+      <c r="V30" s="48">
+        <f t="shared" ref="V30:Y30" si="58">V13/V3</f>
+        <v>-3.3588479057501966E-2</v>
+      </c>
+      <c r="W30" s="47" t="e">
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="47" t="e">
-        <f t="shared" si="52"/>
+      <c r="X30" s="47" t="e">
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y30" s="47" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="49">
-        <f t="shared" ref="C31:F31" si="53">-C13/C12</f>
+        <f t="shared" ref="C31:F31" si="59">-C13/C12</f>
         <v>-0.1541124283771651</v>
       </c>
       <c r="D31" s="49">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>-7.671907679879103E-2</v>
       </c>
       <c r="E31" s="49">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>-0.30247355291202405</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.71928340393491097</v>
       </c>
       <c r="G31" s="48">
-        <f t="shared" ref="G31:I31" si="54">-G13/G12</f>
+        <f t="shared" ref="G31:I31" si="60">-G13/G12</f>
         <v>0.16732385305731867</v>
       </c>
       <c r="H31" s="47" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="47" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="49">
-        <f t="shared" ref="L31:S31" si="55">-L13/L12</f>
+        <f t="shared" ref="L31:S31" si="61">-L13/L12</f>
         <v>0.62307933440481045</v>
       </c>
       <c r="M31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>1.0452144147237079</v>
       </c>
       <c r="N31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.77447766201940493</v>
       </c>
       <c r="O31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.58880572040137491</v>
       </c>
       <c r="P31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.2950157709005724</v>
       </c>
       <c r="Q31" s="47">
@@ -18065,46 +18298,58 @@
         <v>0.1743258132936672</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.15968382966580907</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0.11146848377981249</v>
       </c>
-      <c r="T31" s="48">
-        <f t="shared" ref="T31:V31" si="56">-T13/T12</f>
+      <c r="T31" s="47">
+        <f t="shared" ref="T31:V31" si="62">-T13/T12</f>
         <v>5.8402645555666911E-2</v>
       </c>
       <c r="U31" s="47">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="47">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v>9.7018234218256394E-2</v>
+      </c>
+      <c r="V31" s="48">
+        <f t="shared" ref="V31:Y31" si="63">-V13/V12</f>
+        <v>0.11031748263547142</v>
+      </c>
+      <c r="W31" s="47" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" s="47" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="47" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G32" s="12">
         <f>G22*G20/H20</f>
         <v>1.1129767037129192</v>
       </c>
     </row>
-    <row r="34" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" ref="C34:E34" si="57">C35-C56-C58</f>
+        <f t="shared" ref="C34:E34" si="64">C35-C56-C58</f>
         <v>42.988823999999994</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-0.97740299999999536</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>4.2520639999999972</v>
       </c>
       <c r="F34" s="10">
@@ -18116,51 +18361,67 @@
         <v>-30.80630699999999</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" ref="L34" si="58">L35-L56-L58</f>
+        <f t="shared" ref="L34" si="65">L35-L56-L58</f>
         <v>0</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" ref="M34" si="59">M35-M56-M58</f>
+        <f t="shared" ref="M34" si="66">M35-M56-M58</f>
         <v>0</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" ref="N34" si="60">N35-N56-N58</f>
+        <f t="shared" ref="N34" si="67">N35-N56-N58</f>
         <v>-10.23635800000001</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" ref="O34" si="61">O35-O56-O58</f>
+        <f t="shared" ref="O34" si="68">O35-O56-O58</f>
         <v>67.374212</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" ref="P34" si="62">P35-P56-P58</f>
+        <f t="shared" ref="P34" si="69">P35-P56-P58</f>
         <v>6.0957769999999982</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" ref="Q34" si="63">Q35-Q56-Q58</f>
+        <f t="shared" ref="Q34" si="70">Q35-Q56-Q58</f>
         <v>-10.855995</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" ref="R34:V34" si="64">R35-R56-R58</f>
+        <f t="shared" ref="R34:Z34" si="71">R35-R56-R58</f>
         <v>-13.875219000000001</v>
       </c>
       <c r="S34" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>-30.80630699999999</v>
       </c>
-      <c r="T34" s="13">
-        <f t="shared" si="64"/>
+      <c r="T34" s="164">
+        <f>T35-T56-T58</f>
         <v>19.003</v>
       </c>
       <c r="U34" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
+        <v>-41.558000000000007</v>
+      </c>
+      <c r="V34" s="13">
+        <f t="shared" si="71"/>
+        <v>-13.164999999999992</v>
+      </c>
+      <c r="W34" s="164">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="V34" s="10">
-        <f t="shared" si="64"/>
+      <c r="X34" s="164">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Y34" s="164">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="164">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -18185,7 +18446,7 @@
         <v>65.150279999999995</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" ref="O35:O40" si="65">F35</f>
+        <f t="shared" ref="O35:O40" si="72">F35</f>
         <v>67.624212</v>
       </c>
       <c r="P35" s="9">
@@ -18201,13 +18462,20 @@
         <f>G35</f>
         <v>73.185252000000006</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="165">
         <v>88.893000000000001</v>
       </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U35" s="9">
+        <v>88.942999999999998</v>
+      </c>
+      <c r="V35" s="14">
+        <v>104.14700000000001</v>
+      </c>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="158"/>
+      <c r="Z35" s="158"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -18232,7 +18500,7 @@
         <v>1.5804180000000001</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>2.9930110000000001</v>
       </c>
       <c r="P36" s="9">
@@ -18245,16 +18513,23 @@
         <v>7.1733260000000003</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" ref="S36:S40" si="66">G36</f>
+        <f t="shared" ref="S36:S40" si="73">G36</f>
         <v>4.8495819999999998</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="165">
         <v>14.942</v>
       </c>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U36" s="9">
+        <v>10.558999999999999</v>
+      </c>
+      <c r="V36" s="14">
+        <v>10.914999999999999</v>
+      </c>
+      <c r="X36" s="158"/>
+      <c r="Y36" s="158"/>
+      <c r="Z36" s="158"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>141</v>
       </c>
@@ -18279,7 +18554,7 @@
         <v>111.146024</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>142.885682</v>
       </c>
       <c r="P37" s="9">
@@ -18292,16 +18567,23 @@
         <v>151.41349</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>190.665266</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="165">
         <v>167.15</v>
       </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U37" s="165">
+        <v>208.55500000000001</v>
+      </c>
+      <c r="V37" s="14">
+        <v>217.84899999999999</v>
+      </c>
+      <c r="X37" s="158"/>
+      <c r="Y37" s="158"/>
+      <c r="Z37" s="158"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -18322,7 +18604,7 @@
         <v>-8.5979419999999998</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-12.253041</v>
       </c>
       <c r="P38" s="9">
@@ -18335,16 +18617,23 @@
         <v>-18.626221999999999</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>-26.103421000000001</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="165">
         <v>-20.521999999999998</v>
       </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U38" s="9">
+        <v>-23.614999999999998</v>
+      </c>
+      <c r="V38" s="14">
+        <v>-33.718000000000004</v>
+      </c>
+      <c r="X38" s="158"/>
+      <c r="Y38" s="158"/>
+      <c r="Z38" s="158"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>143</v>
       </c>
@@ -18369,7 +18658,7 @@
         <v>2.0556489999999998</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>1.571728</v>
       </c>
       <c r="P39" s="9">
@@ -18382,16 +18671,23 @@
         <v>3.82328</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>3.6291820000000001</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="165">
         <v>3.2629999999999999</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U39" s="9">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="V39" s="14">
+        <v>7.423</v>
+      </c>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="158"/>
+      <c r="Z39" s="158"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>144</v>
       </c>
@@ -18416,7 +18712,7 @@
         <v>4.8685590000000003</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>6.223274</v>
       </c>
       <c r="P40" s="9">
@@ -18429,21 +18725,28 @@
         <v>8.5809859999999993</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>11.392782</v>
       </c>
-      <c r="T40" s="14">
+      <c r="T40" s="165">
         <v>12.218999999999999</v>
       </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-    </row>
-    <row r="41" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="9">
+        <v>23.065999999999999</v>
+      </c>
+      <c r="V40" s="14">
+        <v>22.838000000000001</v>
+      </c>
+      <c r="X40" s="158"/>
+      <c r="Y40" s="158"/>
+      <c r="Z40" s="158"/>
+    </row>
+    <row r="41" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" ref="C41" si="67">SUM(C35:C40)</f>
+        <f t="shared" ref="C41" si="74">SUM(C35:C40)</f>
         <v>173.00042799999997</v>
       </c>
       <c r="D41" s="10">
@@ -18451,63 +18754,79 @@
         <v>221.29090299999999</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" ref="E41:G41" si="68">SUM(E35:E40)</f>
+        <f t="shared" ref="E41:G41" si="75">SUM(E35:E40)</f>
         <v>170.13146</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>209.04486600000001</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>257.61864300000002</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" ref="L41:V41" si="69">SUM(L35:L40)</f>
+        <f t="shared" ref="L41:V41" si="76">SUM(L35:L40)</f>
         <v>0</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>176.20298799999998</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>209.04486600000001</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>191.68395899999999</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>190.470189</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>232.42736500000001</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>257.61864300000002</v>
       </c>
-      <c r="T41" s="13">
-        <f t="shared" si="69"/>
+      <c r="T41" s="164">
+        <f t="shared" si="76"/>
         <v>265.94500000000005</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
+        <v>311.53299999999996</v>
+      </c>
+      <c r="V41" s="13">
+        <f t="shared" si="76"/>
+        <v>329.45400000000001</v>
+      </c>
+      <c r="W41" s="164">
+        <f t="shared" ref="W41:Z41" si="77">SUM(W35:W40)</f>
         <v>0</v>
       </c>
-      <c r="V41" s="10">
-        <f t="shared" si="69"/>
+      <c r="X41" s="164">
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Y41" s="164">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="164">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>145</v>
       </c>
@@ -18545,16 +18864,24 @@
         <v>2.2892269999999999</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" ref="S42:S46" si="70">G42</f>
+        <f t="shared" ref="S42:S46" si="78">G42</f>
         <v>2.441611</v>
       </c>
-      <c r="T42" s="14">
+      <c r="T42" s="165">
         <v>2.4039999999999999</v>
       </c>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U42" s="9">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="V42" s="14">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="W42" s="165"/>
+      <c r="X42" s="165"/>
+      <c r="Y42" s="165"/>
+      <c r="Z42" s="165"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>146</v>
       </c>
@@ -18594,16 +18921,24 @@
         <v>0.834117</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0.80042400000000002</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="165">
         <v>0.76800000000000002</v>
       </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U43" s="9">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="V43" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="W43" s="165"/>
+      <c r="X43" s="165"/>
+      <c r="Y43" s="165"/>
+      <c r="Z43" s="165"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>147</v>
       </c>
@@ -18641,16 +18976,24 @@
         <v>1.1072979999999999</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>20.275310000000001</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="165">
         <v>17.033999999999999</v>
       </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U44" s="9">
+        <v>20.466999999999999</v>
+      </c>
+      <c r="V44" s="14">
+        <v>19.594000000000001</v>
+      </c>
+      <c r="W44" s="165"/>
+      <c r="X44" s="165"/>
+      <c r="Y44" s="165"/>
+      <c r="Z44" s="165"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>169</v>
       </c>
@@ -18675,16 +19018,24 @@
         <v>15.86379</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="T45" s="14">
+      <c r="T45" s="165">
         <v>11.616</v>
       </c>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U45" s="9">
+        <v>14.42</v>
+      </c>
+      <c r="V45" s="14">
+        <v>13.443</v>
+      </c>
+      <c r="W45" s="165"/>
+      <c r="X45" s="165"/>
+      <c r="Y45" s="165"/>
+      <c r="Z45" s="165"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>20</v>
       </c>
@@ -18722,16 +19073,24 @@
         <v>0.34747499999999998</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0.625471</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="165">
         <v>0.307</v>
       </c>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U46" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="V46" s="14">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="W46" s="165"/>
+      <c r="X46" s="165"/>
+      <c r="Y46" s="165"/>
+      <c r="Z46" s="165"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
@@ -18756,51 +19115,67 @@
         <v>281.76145900000006</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" ref="L47:V47" si="71">SUM(L41:L46)</f>
+        <f t="shared" ref="L47:V47" si="79">SUM(L41:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>179.90335899999999</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>212.64528300000001</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>195.70842099999999</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>212.07665299999999</v>
       </c>
       <c r="R47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>252.869272</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>281.76145900000006</v>
       </c>
-      <c r="T47" s="13">
-        <f t="shared" si="71"/>
+      <c r="T47" s="164">
+        <f t="shared" si="79"/>
         <v>298.07400000000001</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
+        <v>350.55199999999996</v>
+      </c>
+      <c r="V47" s="13">
+        <f t="shared" si="79"/>
+        <v>366.96399999999994</v>
+      </c>
+      <c r="W47" s="164">
+        <f t="shared" ref="W47:Z47" si="80">SUM(W41:W46)</f>
         <v>0</v>
       </c>
-      <c r="V47" s="10">
-        <f t="shared" si="71"/>
+      <c r="X47" s="164">
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Y47" s="164">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="164">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>148</v>
       </c>
@@ -18825,7 +19200,7 @@
         <v>68.182563000000002</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O52" si="72">F48</f>
+        <f t="shared" ref="O48:O52" si="81">F48</f>
         <v>74.135491000000002</v>
       </c>
       <c r="P48" s="9">
@@ -18838,16 +19213,24 @@
         <v>70.449314000000001</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" ref="S48:S54" si="73">G48</f>
+        <f t="shared" ref="S48:S54" si="82">G48</f>
         <v>68.966677000000004</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="165">
         <v>65.38</v>
       </c>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U48" s="9">
+        <v>60.478000000000002</v>
+      </c>
+      <c r="V48" s="14">
+        <v>57.829000000000001</v>
+      </c>
+      <c r="W48" s="165"/>
+      <c r="X48" s="165"/>
+      <c r="Y48" s="165"/>
+      <c r="Z48" s="165"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>149</v>
       </c>
@@ -18870,7 +19253,7 @@
         <v>5.2116999999999997E-2</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>5.7315999999999999E-2</v>
       </c>
       <c r="P49" s="9">
@@ -18883,14 +19266,18 @@
         <v>8.3222000000000004E-2</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="T49" s="14"/>
+      <c r="T49" s="165"/>
       <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V49" s="14"/>
+      <c r="W49" s="165"/>
+      <c r="X49" s="165"/>
+      <c r="Y49" s="165"/>
+      <c r="Z49" s="165"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>150</v>
       </c>
@@ -18913,7 +19300,7 @@
         <v>7.8326510000000003</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>10.790308</v>
       </c>
       <c r="P50" s="9">
@@ -18926,14 +19313,18 @@
         <v>11.475161999999999</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="T50" s="14"/>
+      <c r="T50" s="165"/>
       <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V50" s="14"/>
+      <c r="W50" s="165"/>
+      <c r="X50" s="165"/>
+      <c r="Y50" s="165"/>
+      <c r="Z50" s="165"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>151</v>
       </c>
@@ -18958,7 +19349,7 @@
         <v>5.300675</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>5.2614359999999998</v>
       </c>
       <c r="P51" s="9">
@@ -18971,16 +19362,24 @@
         <v>10.498376</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>7.4554159999999996</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="165">
         <v>10.239000000000001</v>
       </c>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U51" s="9">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="V51" s="14">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="W51" s="165"/>
+      <c r="X51" s="165"/>
+      <c r="Y51" s="165"/>
+      <c r="Z51" s="165"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>152</v>
       </c>
@@ -19001,7 +19400,7 @@
         <v>2.0702310000000002</v>
       </c>
       <c r="O52" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>2.64323</v>
       </c>
       <c r="P52" s="9">
@@ -19014,16 +19413,24 @@
         <v>4.3732699999999998</v>
       </c>
       <c r="S52" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>4.2342240000000002</v>
       </c>
-      <c r="T52" s="14">
+      <c r="T52" s="165">
         <v>4.1260000000000003</v>
       </c>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U52" s="9">
+        <v>4.2610000000000001</v>
+      </c>
+      <c r="V52" s="14">
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="W52" s="165"/>
+      <c r="X52" s="165"/>
+      <c r="Y52" s="165"/>
+      <c r="Z52" s="165"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>153</v>
       </c>
@@ -19038,7 +19445,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9">
-        <f t="shared" ref="O53" si="74">F53</f>
+        <f t="shared" ref="O53" si="83">F53</f>
         <v>94.380905999999996</v>
       </c>
       <c r="P53" s="9"/>
@@ -19047,14 +19454,18 @@
         <v>0</v>
       </c>
       <c r="S53" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="T53" s="14"/>
+      <c r="T53" s="165"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V53" s="14"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>192</v>
       </c>
@@ -19074,16 +19485,24 @@
         <v>0</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>25.020935999999999</v>
       </c>
-      <c r="T54" s="14">
+      <c r="T54" s="165">
         <v>21.853999999999999</v>
       </c>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-    </row>
-    <row r="55" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U54" s="9">
+        <v>21.306999999999999</v>
+      </c>
+      <c r="V54" s="14">
+        <v>24.565999999999999</v>
+      </c>
+      <c r="W54" s="165"/>
+      <c r="X54" s="165"/>
+      <c r="Y54" s="165"/>
+      <c r="Z54" s="165"/>
+    </row>
+    <row r="55" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
@@ -19108,51 +19527,67 @@
         <v>105.67725300000001</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" ref="L55:V55" si="75">SUM(L48:L54)</f>
+        <f t="shared" ref="L55:V55" si="84">SUM(L48:L54)</f>
         <v>0</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>83.438237000000001</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>187.268687</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>92.941540999999987</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>91.946695000000005</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>96.879344000000017</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>105.67725300000001</v>
       </c>
-      <c r="T55" s="13">
-        <f t="shared" si="75"/>
+      <c r="T55" s="164">
+        <f t="shared" si="84"/>
         <v>101.599</v>
       </c>
       <c r="U55" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
+        <v>88.874000000000009</v>
+      </c>
+      <c r="V55" s="13">
+        <f t="shared" si="84"/>
+        <v>93.662000000000006</v>
+      </c>
+      <c r="W55" s="164">
+        <f t="shared" ref="W55:Z55" si="85">SUM(W48:W54)</f>
         <v>0</v>
       </c>
-      <c r="V55" s="10">
-        <f t="shared" si="75"/>
+      <c r="X55" s="164">
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Y55" s="164">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="164">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>66</v>
       </c>
@@ -19190,14 +19625,18 @@
         <v>0</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" ref="S56:S60" si="76">G56</f>
+        <f t="shared" ref="S56:S60" si="86">G56</f>
         <v>0</v>
       </c>
-      <c r="T56" s="14"/>
+      <c r="T56" s="165"/>
       <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V56" s="14"/>
+      <c r="W56" s="165"/>
+      <c r="X56" s="165"/>
+      <c r="Y56" s="165"/>
+      <c r="Z56" s="165"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>149</v>
       </c>
@@ -19231,16 +19670,24 @@
         <v>0.85450899999999996</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0.823071</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T57" s="165">
         <v>0.79100000000000004</v>
       </c>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U57" s="9">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="V57" s="14">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="W57" s="165"/>
+      <c r="X57" s="165"/>
+      <c r="Y57" s="165"/>
+      <c r="Z57" s="165"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>153</v>
       </c>
@@ -19278,16 +19725,24 @@
         <v>93.937724000000003</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>103.991559</v>
       </c>
-      <c r="T58" s="14">
+      <c r="T58" s="165">
         <v>69.89</v>
       </c>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U58" s="9">
+        <v>130.501</v>
+      </c>
+      <c r="V58" s="14">
+        <v>117.312</v>
+      </c>
+      <c r="W58" s="165"/>
+      <c r="X58" s="165"/>
+      <c r="Y58" s="165"/>
+      <c r="Z58" s="165"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>154</v>
       </c>
@@ -19317,14 +19772,18 @@
         <v>0</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="T59" s="14"/>
+      <c r="T59" s="165"/>
       <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V59" s="14"/>
+      <c r="W59" s="165"/>
+      <c r="X59" s="165"/>
+      <c r="Y59" s="165"/>
+      <c r="Z59" s="165"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>20</v>
       </c>
@@ -19358,16 +19817,24 @@
         <v>5.9680999999999998E-2</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>4.4742999999999998E-2</v>
       </c>
-      <c r="T60" s="14">
+      <c r="T60" s="165">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U60" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="V60" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W60" s="165"/>
+      <c r="X60" s="165"/>
+      <c r="Y60" s="165"/>
+      <c r="Z60" s="165"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>22</v>
       </c>
@@ -19392,60 +19859,76 @@
         <v>210.53662600000001</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" ref="L61:O61" si="77">SUM(L55:L60)</f>
+        <f t="shared" ref="L61:O61" si="87">SUM(L55:L60)</f>
         <v>0</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>161.929304</v>
       </c>
       <c r="O61" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>190.55095900000001</v>
       </c>
       <c r="P61" s="10">
-        <f t="shared" ref="P61:Q61" si="78">SUM(P55:P60)</f>
+        <f t="shared" ref="P61:Q61" si="88">SUM(P55:P60)</f>
         <v>166.09502999999998</v>
       </c>
       <c r="Q61" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>161.78693800000002</v>
       </c>
       <c r="R61" s="10">
-        <f t="shared" ref="R61:V61" si="79">SUM(R55:R60)</f>
+        <f t="shared" ref="R61:V61" si="89">SUM(R55:R60)</f>
         <v>191.73125800000003</v>
       </c>
       <c r="S61" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>210.53662600000001</v>
       </c>
-      <c r="T61" s="13">
-        <f t="shared" si="79"/>
+      <c r="T61" s="164">
+        <f t="shared" si="89"/>
         <v>172.31200000000001</v>
       </c>
       <c r="U61" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
+        <v>220.15400000000002</v>
+      </c>
+      <c r="V61" s="13">
+        <f t="shared" si="89"/>
+        <v>211.69399999999999</v>
+      </c>
+      <c r="W61" s="164">
+        <f t="shared" ref="W61:Z61" si="90">SUM(W55:W60)</f>
         <v>0</v>
       </c>
-      <c r="V61" s="10">
-        <f t="shared" si="79"/>
+      <c r="X61" s="164">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Y61" s="164">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="164">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="9">
-        <f t="shared" ref="C62:D62" si="80">C47-C61</f>
+        <f t="shared" ref="C62:D62" si="91">C47-C61</f>
         <v>59.958416999999955</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>37.792038000000019</v>
       </c>
       <c r="E62" s="9">
@@ -19465,51 +19948,67 @@
         <v>0</v>
       </c>
       <c r="L62" s="9">
-        <f t="shared" ref="L62:O62" si="81">L47-L61</f>
+        <f t="shared" ref="L62:O62" si="92">L47-L61</f>
         <v>0</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>17.974054999999993</v>
       </c>
       <c r="O62" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>22.094324</v>
       </c>
       <c r="P62" s="9">
-        <f t="shared" ref="P62:Q62" si="82">P47-P61</f>
+        <f t="shared" ref="P62:Q62" si="93">P47-P61</f>
         <v>29.613391000000007</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="93"/>
         <v>50.289714999999973</v>
       </c>
       <c r="R62" s="9">
-        <f t="shared" ref="R62:V62" si="83">R47-R61</f>
+        <f t="shared" ref="R62:V62" si="94">R47-R61</f>
         <v>61.13801399999997</v>
       </c>
       <c r="S62" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>71.224833000000046</v>
       </c>
-      <c r="T62" s="14">
-        <f t="shared" si="83"/>
+      <c r="T62" s="165">
+        <f t="shared" si="94"/>
         <v>125.762</v>
       </c>
       <c r="U62" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
+        <v>130.39799999999994</v>
+      </c>
+      <c r="V62" s="14">
+        <f t="shared" si="94"/>
+        <v>155.26999999999995</v>
+      </c>
+      <c r="W62" s="165">
+        <f t="shared" ref="W62:Z62" si="95">W47-W61</f>
         <v>0</v>
       </c>
-      <c r="V62" s="9">
-        <f t="shared" si="83"/>
+      <c r="X62" s="165">
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="165">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="165">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
@@ -19525,18 +20024,33 @@
         <f>H19/H62</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T64" s="15"/>
-    </row>
-    <row r="82" spans="7:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T64" s="166"/>
+      <c r="V64" s="15"/>
+    </row>
+    <row r="82" spans="7:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G82" s="40"/>
-      <c r="T82" s="40"/>
-    </row>
-    <row r="83" spans="7:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T82" s="167"/>
+      <c r="V82" s="40"/>
+    </row>
+    <row r="83" spans="7:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G83" s="15"/>
-      <c r="T83" s="15"/>
+      <c r="T83" s="166"/>
+      <c r="V83" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="P37:V37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A5C06EBA-D952-421E-93A2-3BF49E6344BF}"/>
   </hyperlinks>
@@ -19559,46 +20073,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="139">
+      <c r="B1" s="138">
         <v>45413</v>
       </c>
-      <c r="C1" s="139">
+      <c r="C1" s="138">
         <v>45444</v>
       </c>
-      <c r="D1" s="139">
+      <c r="D1" s="138">
         <v>45474</v>
       </c>
-      <c r="E1" s="139">
+      <c r="E1" s="138">
         <v>45505</v>
       </c>
-      <c r="F1" s="139">
+      <c r="F1" s="138">
         <v>45536</v>
       </c>
-      <c r="G1" s="139">
+      <c r="G1" s="138">
         <v>45566</v>
       </c>
-      <c r="H1" s="139">
+      <c r="H1" s="138">
         <v>45597</v>
       </c>
-      <c r="I1" s="139">
+      <c r="I1" s="138">
         <v>45627</v>
       </c>
-      <c r="J1" s="139">
+      <c r="J1" s="138">
         <v>45658</v>
       </c>
-      <c r="K1" s="139">
+      <c r="K1" s="138">
         <v>45689</v>
       </c>
-      <c r="L1" s="139">
+      <c r="L1" s="138">
         <v>45717</v>
       </c>
-      <c r="M1" s="139">
+      <c r="M1" s="138">
         <v>45748</v>
       </c>
-      <c r="N1" s="139">
+      <c r="N1" s="138">
         <v>45778</v>
       </c>
-      <c r="O1" s="139">
+      <c r="O1" s="138">
         <v>45809</v>
       </c>
     </row>
@@ -19691,13 +20205,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19740,6 +20254,12 @@
       <c r="L1" t="s">
         <v>193</v>
       </c>
+      <c r="M1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19776,8 +20296,12 @@
       <c r="L2" s="9">
         <v>658000</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="M2" s="9">
+        <v>748000</v>
+      </c>
+      <c r="N2" s="9">
+        <v>784000</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19814,8 +20338,12 @@
       <c r="L3" s="9">
         <v>2734000</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="9">
+        <v>2860000</v>
+      </c>
+      <c r="N3" s="9">
+        <v>2971000</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -19852,8 +20380,12 @@
       <c r="L4" s="9">
         <v>346000</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="9">
+        <v>412000</v>
+      </c>
+      <c r="N4" s="9">
+        <v>474000</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -19890,8 +20422,12 @@
       <c r="L5" s="133">
         <v>0.96199999999999997</v>
       </c>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
+      <c r="M5" s="133">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N5" s="133">
+        <v>0.96599999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -19924,8 +20460,12 @@
       <c r="L6" s="17">
         <v>6.1</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="M6" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="N6" s="17">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -19964,8 +20504,12 @@
       <c r="L7" s="9">
         <v>7312000</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="9">
+        <v>8234000</v>
+      </c>
+      <c r="N7" s="9">
+        <v>9533000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
@@ -20014,11 +20558,17 @@
         <v>1.3029315960912053</v>
       </c>
       <c r="L9" s="132">
-        <f t="shared" ref="L9" si="3">L2/H2-1</f>
+        <f t="shared" ref="L9:N9" si="3">L2/H2-1</f>
         <v>0.77358490566037741</v>
       </c>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
+      <c r="M9" s="132">
+        <f t="shared" si="3"/>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="N9" s="132">
+        <f t="shared" si="3"/>
+        <v>0.48204158790170126</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -20053,11 +20603,17 @@
         <v>0.33761342235918512</v>
       </c>
       <c r="L10" s="132">
-        <f t="shared" ref="L10" si="7">L7/H7-1</f>
+        <f t="shared" ref="L10:N10" si="7">L7/H7-1</f>
         <v>0.52269887546855487</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
+      <c r="M10" s="132">
+        <f t="shared" si="7"/>
+        <v>0.62630851273948251</v>
+      </c>
+      <c r="N10" s="132">
+        <f t="shared" si="7"/>
+        <v>0.52674567584881493</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -20077,6 +20633,64 @@
       </c>
       <c r="L13">
         <v>808.7</v>
+      </c>
+      <c r="M13">
+        <v>927</v>
+      </c>
+      <c r="N13">
+        <v>1047.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171">
+        <f>L13/H13-1</f>
+        <v>0.64136391313172325</v>
+      </c>
+      <c r="M14" s="171">
+        <f>M13/I13-1</f>
+        <v>0.74182638105975185</v>
+      </c>
+      <c r="N14" s="171">
+        <f>N13/J13-1</f>
+        <v>0.58705864524928009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="171">
+        <f>Model!P3/KPIs!H13</f>
+        <v>9.5349368784250058E-2</v>
+      </c>
+      <c r="I16" s="171">
+        <f>Model!Q3/KPIs!I13</f>
+        <v>0.10516442127019916</v>
+      </c>
+      <c r="J16" s="171">
+        <f>Model!R3/KPIs!J13</f>
+        <v>0.10601256402485225</v>
+      </c>
+      <c r="K16" s="171">
+        <f>Model!S3/KPIs!K13</f>
+        <v>0.1148270516717325</v>
+      </c>
+      <c r="L16" s="171">
+        <f>Model!T3/KPIs!L13</f>
+        <v>0.12972919500432795</v>
+      </c>
+      <c r="M16" s="171">
+        <f>Model!U3/KPIs!M13</f>
+        <v>0.10647464940668824</v>
+      </c>
+      <c r="N16" s="171">
+        <f>Model!V3/KPIs!N13</f>
+        <v>0.11152105413921513</v>
       </c>
     </row>
   </sheetData>
@@ -28453,14 +29067,14 @@
       <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="151"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="150"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -28867,10 +29481,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="152" t="s">
+      <c r="H17" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="153"/>
+      <c r="I17" s="152"/>
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -28878,8 +29492,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="154"/>
-      <c r="I18" s="155"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
       <c r="M18" s="82"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -29302,14 +29916,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="156" t="s">
+      <c r="H43" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="158"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="157"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D388A9E-2856-49B3-8B16-3790974C0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B9C44-A353-4D5C-92F2-CC7FB94A92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15045" yWindow="45" windowWidth="13755" windowHeight="15435" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$P$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$P$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$P$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1712,7 +1712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1886,6 +1886,13 @@
     <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,26 +1950,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8027,18 +8014,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8082,7 +8069,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8102,7 +8089,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8133,18 +8120,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8188,7 +8175,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8208,7 +8195,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15694,7 +15681,7 @@
   <dimension ref="B2:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16049,11 +16036,11 @@
       <c r="E17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="139" t="s">
+      <c r="L17" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="144"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -16063,9 +16050,9 @@
         <f>C14/(C16*100)</f>
         <v>0.42136581039433235</v>
       </c>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="144"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -16075,9 +16062,9 @@
         <f>C15/(C17*100)</f>
         <v>0.55352599531615965</v>
       </c>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="144"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="147"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -16087,9 +16074,9 @@
         <f>Model!H4/Model!G4-1</f>
         <v>0.99578785271072046</v>
       </c>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="144"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="147"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -16099,9 +16086,9 @@
         <f>Model!I4/Model!H4-1</f>
         <v>0.27293770566209008</v>
       </c>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="144"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="147"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -16111,9 +16098,9 @@
         <f>Model!G12</f>
         <v>82.245565999999968</v>
       </c>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="144"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="147"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -16123,9 +16110,9 @@
         <f>Model!G12</f>
         <v>82.245565999999968</v>
       </c>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="147"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -16135,9 +16122,9 @@
         <f>Model!V23</f>
         <v>0.8507226274872427</v>
       </c>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="144"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="147"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -16147,9 +16134,9 @@
         <f>Model!V24</f>
         <v>0.25149952244508123</v>
       </c>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="144"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="147"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -16159,9 +16146,9 @@
         <f>C12/C23</f>
         <v>31.51238572545055</v>
       </c>
-      <c r="L26" s="142"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="144"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="147"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -16173,9 +16160,9 @@
       <c r="E27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="144"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="147"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
@@ -16188,9 +16175,9 @@
       <c r="E28" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="145"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="150"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
@@ -16314,7 +16301,7 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="12"/>
-    <col min="20" max="20" width="11.42578125" style="158" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
@@ -16369,7 +16356,7 @@
       <c r="S2" t="s">
         <v>167</v>
       </c>
-      <c r="T2" s="158" t="s">
+      <c r="T2" t="s">
         <v>193</v>
       </c>
       <c r="U2" t="s">
@@ -16436,7 +16423,7 @@
         <f>G3-R3-Q3-P3</f>
         <v>98.223059999999975</v>
       </c>
-      <c r="T3" s="159">
+      <c r="T3" s="124">
         <v>104.91200000000001</v>
       </c>
       <c r="U3" s="124">
@@ -16475,14 +16462,14 @@
       <c r="S4" s="124">
         <v>65.180000000000007</v>
       </c>
-      <c r="T4" s="159"/>
+      <c r="T4" s="124"/>
       <c r="U4" s="124">
         <v>93.33</v>
       </c>
       <c r="V4" s="125">
         <v>104.7</v>
       </c>
-      <c r="W4" s="168">
+      <c r="W4" s="124">
         <v>132.35</v>
       </c>
     </row>
@@ -16532,7 +16519,7 @@
         <f t="shared" ref="S5:S10" si="1">G5-R5-Q5-P5</f>
         <v>14.579677999999998</v>
       </c>
-      <c r="T5" s="159">
+      <c r="T5" s="124">
         <v>15.048</v>
       </c>
       <c r="U5" s="124">
@@ -16588,7 +16575,7 @@
         <f t="shared" si="1"/>
         <v>16.074145000000001</v>
       </c>
-      <c r="T6" s="159">
+      <c r="T6" s="124">
         <v>15.317</v>
       </c>
       <c r="U6" s="124">
@@ -16644,7 +16631,7 @@
         <f t="shared" si="1"/>
         <v>2.8712109999999997</v>
       </c>
-      <c r="T7" s="159">
+      <c r="T7" s="124">
         <v>3.3740000000000001</v>
       </c>
       <c r="U7" s="124">
@@ -16700,7 +16687,7 @@
         <f t="shared" si="1"/>
         <v>5.3641840000000007</v>
       </c>
-      <c r="T8" s="159">
+      <c r="T8" s="124">
         <v>5.3460000000000001</v>
       </c>
       <c r="U8" s="124">
@@ -16756,7 +16743,7 @@
         <f t="shared" si="1"/>
         <v>4.0849569999999993</v>
       </c>
-      <c r="T9" s="159">
+      <c r="T9" s="124">
         <v>3.1309999999999998</v>
       </c>
       <c r="U9" s="124">
@@ -16812,7 +16799,7 @@
         <f t="shared" si="1"/>
         <v>24.378527000000005</v>
       </c>
-      <c r="T10" s="159">
+      <c r="T10" s="124">
         <v>12.801</v>
       </c>
       <c r="U10" s="124">
@@ -16842,7 +16829,7 @@
       <c r="Q11" s="124"/>
       <c r="R11" s="124"/>
       <c r="S11" s="124"/>
-      <c r="T11" s="159"/>
+      <c r="T11" s="124"/>
       <c r="U11" s="124"/>
       <c r="V11" s="125"/>
     </row>
@@ -16909,11 +16896,11 @@
         <f>S3-SUM(S5:S11)</f>
         <v>30.870357999999968</v>
       </c>
-      <c r="T12" s="160">
+      <c r="T12" s="122">
         <f>T3-SUM(T5:T11)</f>
         <v>49.894999999999996</v>
       </c>
-      <c r="U12" s="160">
+      <c r="U12" s="122">
         <f t="shared" ref="U12:Y12" si="8">U3-SUM(U5:U11)</f>
         <v>36.085999999999999</v>
       </c>
@@ -16921,15 +16908,15 @@
         <f t="shared" si="8"/>
         <v>35.561000000000007</v>
       </c>
-      <c r="W12" s="160">
+      <c r="W12" s="122">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="160">
+      <c r="X12" s="122">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="160">
+      <c r="Y12" s="122">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -16980,7 +16967,7 @@
         <f t="shared" ref="S13:S15" si="9">G13-R13-Q13-P13</f>
         <v>-3.441072000000001</v>
       </c>
-      <c r="T13" s="159">
+      <c r="T13" s="124">
         <v>-2.9140000000000001</v>
       </c>
       <c r="U13" s="124">
@@ -17036,7 +17023,7 @@
         <f t="shared" si="9"/>
         <v>0.29986299999999999</v>
       </c>
-      <c r="T14" s="159">
+      <c r="T14" s="124">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U14" s="124">
@@ -17094,7 +17081,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T15" s="159"/>
+      <c r="T15" s="124"/>
       <c r="U15" s="124"/>
       <c r="V15" s="125"/>
     </row>
@@ -17158,7 +17145,7 @@
         <f t="shared" ref="S16:Y16" si="16">S12+SUM(S13:S15)</f>
         <v>27.729148999999968</v>
       </c>
-      <c r="T16" s="160">
+      <c r="T16" s="122">
         <f t="shared" si="16"/>
         <v>47.005999999999993</v>
       </c>
@@ -17229,7 +17216,7 @@
         <f t="shared" ref="S17:S18" si="17">G17-R17-Q17-P17</f>
         <v>2.361965000000001</v>
       </c>
-      <c r="T17" s="159">
+      <c r="T17" s="124">
         <v>10.842000000000001</v>
       </c>
       <c r="U17" s="124">
@@ -17285,7 +17272,7 @@
         <f t="shared" si="17"/>
         <v>1.089245</v>
       </c>
-      <c r="T18" s="159">
+      <c r="T18" s="124">
         <v>-9.2999999999999999E-2</v>
       </c>
       <c r="U18" s="124">
@@ -17355,7 +17342,7 @@
         <f t="shared" ref="S19:Y19" si="24">S16-SUM(S17:S18)</f>
         <v>24.277938999999968</v>
       </c>
-      <c r="T19" s="160">
+      <c r="T19" s="122">
         <f t="shared" si="24"/>
         <v>36.256999999999991</v>
       </c>
@@ -17429,7 +17416,7 @@
         <f>G20</f>
         <v>5.981795</v>
       </c>
-      <c r="T20" s="159">
+      <c r="T20" s="124">
         <v>36.170999999999999</v>
       </c>
       <c r="U20" s="124">
@@ -17496,7 +17483,7 @@
         <f t="shared" si="26"/>
         <v>4.2407310849000952</v>
       </c>
-      <c r="T21" s="161">
+      <c r="T21" s="2">
         <f t="shared" ref="T21:Y21" si="27">(T19+T18)/T20</f>
         <v>0.99980647480025397</v>
       </c>
@@ -17548,11 +17535,11 @@
         <v>0.89</v>
       </c>
       <c r="S22" s="44"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="169">
+      <c r="T22" s="44"/>
+      <c r="U22" s="139">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V22" s="170">
+      <c r="V22" s="140">
         <v>0.65</v>
       </c>
       <c r="W22" s="1">
@@ -17624,7 +17611,7 @@
         <v>0.83635059832181968</v>
       </c>
       <c r="T23" s="38">
-        <f t="shared" ref="T23:V23" si="31">1-(T6)/T3</f>
+        <f t="shared" ref="T23:U23" si="31">1-(T6)/T3</f>
         <v>0.85400144883330786</v>
       </c>
       <c r="U23" s="38">
@@ -17712,12 +17699,12 @@
         <f>S19/S4</f>
         <v>0.37247528382939499</v>
       </c>
-      <c r="T24" s="163">
+      <c r="T24" s="3">
         <f>T19/T3</f>
         <v>0.34559440292816829</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" ref="U24:V24" si="35">U19/U4</f>
+        <f t="shared" ref="U24" si="35">U19/U4</f>
         <v>0.28795671273974066</v>
       </c>
       <c r="V24" s="6">
@@ -17775,27 +17762,27 @@
         <v>0.3548885312214991</v>
       </c>
       <c r="Q25" s="129">
-        <f>Q3/M3-1</f>
+        <f t="shared" ref="Q25:V25" si="39">Q3/M3-1</f>
         <v>0.60195322154471387</v>
       </c>
       <c r="R25" s="129">
-        <f>R3/N3-1</f>
+        <f t="shared" si="39"/>
         <v>0.71279372070468461</v>
       </c>
       <c r="S25" s="129">
-        <f>S3/O3-1</f>
+        <f t="shared" si="39"/>
         <v>1.0085909474100725</v>
       </c>
       <c r="T25" s="129">
-        <f>T3/P3-1</f>
+        <f t="shared" si="39"/>
         <v>1.2331854093501313</v>
       </c>
       <c r="U25" s="129">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="39"/>
         <v>0.76352754106974974</v>
       </c>
       <c r="V25" s="130">
-        <f>V3/R3-1</f>
+        <f t="shared" si="39"/>
         <v>0.66952336948913893</v>
       </c>
       <c r="W25" s="129">
@@ -17803,11 +17790,11 @@
         <v>0.34744325823284306</v>
       </c>
       <c r="X25" s="129">
-        <f t="shared" ref="V25:Y25" si="39">X4/T3-1</f>
+        <f t="shared" ref="X25:Y25" si="40">X4/T3-1</f>
         <v>-1</v>
       </c>
       <c r="Y25" s="129">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
     </row>
@@ -17832,71 +17819,71 @@
         <v>7.5202445742312093E-2</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" ref="G26:I26" si="40">G8/G3</f>
+        <f t="shared" ref="G26:I26" si="41">G8/G3</f>
         <v>3.5923132068781269E-2</v>
       </c>
       <c r="H26" s="3" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="3" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" ref="L26:S26" si="41">L8/L3</f>
+        <f t="shared" ref="L26:S26" si="42">L8/L3</f>
         <v>9.2265862008291025E-2</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9.4844976045193624E-2</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8.8515356194628469E-2</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3.795067531194099E-2</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.3939847633713658E-2</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.7779445779371808E-2</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3.8960905670828959E-2</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5.4612267221159694E-2</v>
       </c>
-      <c r="T26" s="163">
-        <f t="shared" ref="T26:V26" si="42">T8/T3</f>
+      <c r="T26" s="3">
+        <f t="shared" ref="T26:U26" si="43">T8/T3</f>
         <v>5.0956992527070304E-2</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8.8873579056148816E-2</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" ref="V26:Y26" si="43">V8/V3</f>
+        <f t="shared" ref="V26:Y26" si="44">V8/V3</f>
         <v>7.5130997636905367E-2</v>
       </c>
       <c r="W26" s="3" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="3" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y26" s="3" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -17921,71 +17908,71 @@
         <v>0.29100686728267811</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" ref="G27:I27" si="44">G5/G3</f>
+        <f t="shared" ref="G27:I27" si="45">G5/G3</f>
         <v>0.19092452642920654</v>
       </c>
       <c r="H27" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" ref="L27:S27" si="45">L5/L3</f>
+        <f t="shared" ref="L27:S27" si="46">L5/L3</f>
         <v>0.33379996343598073</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.34395747397543591</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.27125451664484757</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23933184019500423</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.23468200458957578</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.22756589621252166</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.19188344852605271</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.14843436968874724</v>
       </c>
-      <c r="T27" s="163">
-        <f t="shared" ref="T27:V27" si="46">T5/T3</f>
+      <c r="T27" s="3">
+        <f t="shared" ref="T27:U27" si="47">T5/T3</f>
         <v>0.14343449748360529</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.11834613280379323</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ref="V27:Y27" si="47">V5/V3</f>
+        <f t="shared" ref="V27:Y27" si="48">V5/V3</f>
         <v>0.12260693859378745</v>
       </c>
       <c r="W27" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18010,71 +17997,71 @@
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ref="G28:I28" si="48">G11/G3</f>
+        <f t="shared" ref="G28:I28" si="49">G11/G3</f>
         <v>0</v>
       </c>
       <c r="H28" s="3" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="3" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" ref="L28:S28" si="49">L11/L3</f>
+        <f t="shared" ref="L28:S28" si="50">L11/L3</f>
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="163">
-        <f t="shared" ref="T28:V28" si="50">T11/T3</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="N28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" ref="T28:U28" si="51">T11/T3</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
       <c r="V28" s="6">
-        <f t="shared" ref="V28:Y28" si="51">V11/V3</f>
+        <f t="shared" ref="V28:Y28" si="52">V11/V3</f>
         <v>0</v>
       </c>
       <c r="W28" s="3" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="3" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="3" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18096,7 +18083,7 @@
         <v>-1.1845496616419049</v>
       </c>
       <c r="G29" s="130">
-        <f t="shared" ref="G29" si="52">G21/F21-1</f>
+        <f t="shared" ref="G29" si="53">G21/F21-1</f>
         <v>9.3714636586471496</v>
       </c>
       <c r="H29" s="129">
@@ -18112,7 +18099,7 @@
       <c r="N29" s="129"/>
       <c r="O29" s="129"/>
       <c r="P29" s="129">
-        <f t="shared" ref="P29" si="53">P21/L21-1</f>
+        <f t="shared" ref="P29" si="54">P21/L21-1</f>
         <v>3.3283284406211981</v>
       </c>
       <c r="Q29" s="129">
@@ -18136,19 +18123,19 @@
         <v>-7.0631250593186423E-2</v>
       </c>
       <c r="V29" s="130">
-        <f t="shared" ref="V29:Y29" si="54">V22/(R21*R20/U20)-1</f>
+        <f t="shared" ref="V29:Y29" si="55">V22/(R21*R20/U20)-1</f>
         <v>0.49418554326583353</v>
       </c>
       <c r="W29" s="129">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.26571006068312664</v>
       </c>
       <c r="X29" s="129" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="129" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18173,35 +18160,35 @@
         <v>-0.10020521751030448</v>
       </c>
       <c r="G30" s="48">
-        <f t="shared" ref="G30:I30" si="55">G13/G3</f>
+        <f t="shared" ref="G30:I30" si="56">G13/G3</f>
         <v>-5.075702466463336E-2</v>
       </c>
       <c r="H30" s="47" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="47" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="47">
-        <f t="shared" ref="L30:S30" si="56">L13/L3</f>
+        <f t="shared" ref="L30:S30" si="57">L13/L3</f>
         <v>-9.7395812949690505E-2</v>
       </c>
       <c r="M30" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-0.11258468475211493</v>
       </c>
       <c r="N30" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-0.1014405447666855</v>
       </c>
       <c r="O30" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-9.232091670036538E-2</v>
       </c>
       <c r="P30" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-8.6878686170398234E-2</v>
       </c>
       <c r="Q30" s="47">
@@ -18213,31 +18200,31 @@
         <v>-4.7571581514890195E-2</v>
       </c>
       <c r="S30" s="47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3.5033239648612068E-2</v>
       </c>
       <c r="T30" s="47">
-        <f t="shared" ref="T30:V30" si="57">T13/T3</f>
+        <f t="shared" ref="T30:U30" si="58">T13/T3</f>
         <v>-2.7775659600427025E-2</v>
       </c>
       <c r="U30" s="47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-3.5470405868168832E-2</v>
       </c>
       <c r="V30" s="48">
-        <f t="shared" ref="V30:Y30" si="58">V13/V3</f>
+        <f t="shared" ref="V30:Y30" si="59">V13/V3</f>
         <v>-3.3588479057501966E-2</v>
       </c>
       <c r="W30" s="47" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="47" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="47" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18246,51 +18233,51 @@
         <v>69</v>
       </c>
       <c r="C31" s="49">
-        <f t="shared" ref="C31:F31" si="59">-C13/C12</f>
+        <f t="shared" ref="C31:F31" si="60">-C13/C12</f>
         <v>-0.1541124283771651</v>
       </c>
       <c r="D31" s="49">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-7.671907679879103E-2</v>
       </c>
       <c r="E31" s="49">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.30247355291202405</v>
       </c>
       <c r="F31" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.71928340393491097</v>
       </c>
       <c r="G31" s="48">
-        <f t="shared" ref="G31:I31" si="60">-G13/G12</f>
+        <f t="shared" ref="G31:I31" si="61">-G13/G12</f>
         <v>0.16732385305731867</v>
       </c>
       <c r="H31" s="47" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="47" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="49">
-        <f t="shared" ref="L31:S31" si="61">-L13/L12</f>
+        <f t="shared" ref="L31:S31" si="62">-L13/L12</f>
         <v>0.62307933440481045</v>
       </c>
       <c r="M31" s="49">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.0452144147237079</v>
       </c>
       <c r="N31" s="49">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.77447766201940493</v>
       </c>
       <c r="O31" s="49">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.58880572040137491</v>
       </c>
       <c r="P31" s="49">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.2950157709005724</v>
       </c>
       <c r="Q31" s="47">
@@ -18298,35 +18285,35 @@
         <v>0.1743258132936672</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.15968382966580907</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.11146848377981249</v>
       </c>
       <c r="T31" s="47">
-        <f t="shared" ref="T31:V31" si="62">-T13/T12</f>
+        <f t="shared" ref="T31:U31" si="63">-T13/T12</f>
         <v>5.8402645555666911E-2</v>
       </c>
       <c r="U31" s="47">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.7018234218256394E-2</v>
       </c>
       <c r="V31" s="48">
-        <f t="shared" ref="V31:Y31" si="63">-V13/V12</f>
+        <f t="shared" ref="V31:Y31" si="64">-V13/V12</f>
         <v>0.11031748263547142</v>
       </c>
       <c r="W31" s="47" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="47" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="47" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18341,15 +18328,15 @@
         <v>30</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" ref="C34:E34" si="64">C35-C56-C58</f>
+        <f t="shared" ref="C34:E34" si="65">C35-C56-C58</f>
         <v>42.988823999999994</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.97740299999999536</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.2520639999999972</v>
       </c>
       <c r="F34" s="10">
@@ -18361,63 +18348,63 @@
         <v>-30.80630699999999</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" ref="L34" si="65">L35-L56-L58</f>
+        <f t="shared" ref="L34" si="66">L35-L56-L58</f>
         <v>0</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" ref="M34" si="66">M35-M56-M58</f>
+        <f t="shared" ref="M34" si="67">M35-M56-M58</f>
         <v>0</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" ref="N34" si="67">N35-N56-N58</f>
+        <f t="shared" ref="N34" si="68">N35-N56-N58</f>
         <v>-10.23635800000001</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" ref="O34" si="68">O35-O56-O58</f>
+        <f t="shared" ref="O34" si="69">O35-O56-O58</f>
         <v>67.374212</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" ref="P34" si="69">P35-P56-P58</f>
+        <f t="shared" ref="P34" si="70">P35-P56-P58</f>
         <v>6.0957769999999982</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" ref="Q34" si="70">Q35-Q56-Q58</f>
+        <f t="shared" ref="Q34" si="71">Q35-Q56-Q58</f>
         <v>-10.855995</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" ref="R34:Z34" si="71">R35-R56-R58</f>
+        <f t="shared" ref="R34:Z34" si="72">R35-R56-R58</f>
         <v>-13.875219000000001</v>
       </c>
       <c r="S34" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-30.80630699999999</v>
       </c>
-      <c r="T34" s="164">
+      <c r="T34" s="10">
         <f>T35-T56-T58</f>
         <v>19.003</v>
       </c>
       <c r="U34" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-41.558000000000007</v>
       </c>
       <c r="V34" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-13.164999999999992</v>
       </c>
-      <c r="W34" s="164">
-        <f t="shared" si="71"/>
+      <c r="W34" s="10">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="X34" s="164">
-        <f t="shared" si="71"/>
+      <c r="X34" s="10">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="164">
-        <f t="shared" si="71"/>
+      <c r="Y34" s="10">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="164">
-        <f t="shared" si="71"/>
+      <c r="Z34" s="10">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -18446,7 +18433,7 @@
         <v>65.150279999999995</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" ref="O35:O40" si="72">F35</f>
+        <f t="shared" ref="O35:O40" si="73">F35</f>
         <v>67.624212</v>
       </c>
       <c r="P35" s="9">
@@ -18462,7 +18449,7 @@
         <f>G35</f>
         <v>73.185252000000006</v>
       </c>
-      <c r="T35" s="165">
+      <c r="T35" s="9">
         <v>88.893000000000001</v>
       </c>
       <c r="U35" s="9">
@@ -18471,9 +18458,6 @@
       <c r="V35" s="14">
         <v>104.14700000000001</v>
       </c>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="158"/>
-      <c r="Z35" s="158"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -18500,7 +18484,7 @@
         <v>1.5804180000000001</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2.9930110000000001</v>
       </c>
       <c r="P36" s="9">
@@ -18513,10 +18497,10 @@
         <v>7.1733260000000003</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" ref="S36:S40" si="73">G36</f>
+        <f t="shared" ref="S36:S40" si="74">G36</f>
         <v>4.8495819999999998</v>
       </c>
-      <c r="T36" s="165">
+      <c r="T36" s="9">
         <v>14.942</v>
       </c>
       <c r="U36" s="9">
@@ -18525,9 +18509,6 @@
       <c r="V36" s="14">
         <v>10.914999999999999</v>
       </c>
-      <c r="X36" s="158"/>
-      <c r="Y36" s="158"/>
-      <c r="Z36" s="158"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -18554,7 +18535,7 @@
         <v>111.146024</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>142.885682</v>
       </c>
       <c r="P37" s="9">
@@ -18567,21 +18548,18 @@
         <v>151.41349</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>190.665266</v>
       </c>
-      <c r="T37" s="165">
+      <c r="T37" s="9">
         <v>167.15</v>
       </c>
-      <c r="U37" s="165">
+      <c r="U37" s="9">
         <v>208.55500000000001</v>
       </c>
       <c r="V37" s="14">
         <v>217.84899999999999</v>
       </c>
-      <c r="X37" s="158"/>
-      <c r="Y37" s="158"/>
-      <c r="Z37" s="158"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -18604,7 +18582,7 @@
         <v>-8.5979419999999998</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-12.253041</v>
       </c>
       <c r="P38" s="9">
@@ -18617,10 +18595,10 @@
         <v>-18.626221999999999</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-26.103421000000001</v>
       </c>
-      <c r="T38" s="165">
+      <c r="T38" s="9">
         <v>-20.521999999999998</v>
       </c>
       <c r="U38" s="9">
@@ -18629,9 +18607,6 @@
       <c r="V38" s="14">
         <v>-33.718000000000004</v>
       </c>
-      <c r="X38" s="158"/>
-      <c r="Y38" s="158"/>
-      <c r="Z38" s="158"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -18658,7 +18633,7 @@
         <v>2.0556489999999998</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.571728</v>
       </c>
       <c r="P39" s="9">
@@ -18671,10 +18646,10 @@
         <v>3.82328</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.6291820000000001</v>
       </c>
-      <c r="T39" s="165">
+      <c r="T39" s="9">
         <v>3.2629999999999999</v>
       </c>
       <c r="U39" s="9">
@@ -18683,9 +18658,6 @@
       <c r="V39" s="14">
         <v>7.423</v>
       </c>
-      <c r="X39" s="158"/>
-      <c r="Y39" s="158"/>
-      <c r="Z39" s="158"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -18712,7 +18684,7 @@
         <v>4.8685590000000003</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6.223274</v>
       </c>
       <c r="P40" s="9">
@@ -18725,10 +18697,10 @@
         <v>8.5809859999999993</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11.392782</v>
       </c>
-      <c r="T40" s="165">
+      <c r="T40" s="9">
         <v>12.218999999999999</v>
       </c>
       <c r="U40" s="9">
@@ -18737,16 +18709,13 @@
       <c r="V40" s="14">
         <v>22.838000000000001</v>
       </c>
-      <c r="X40" s="158"/>
-      <c r="Y40" s="158"/>
-      <c r="Z40" s="158"/>
     </row>
     <row r="41" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" ref="C41" si="74">SUM(C35:C40)</f>
+        <f t="shared" ref="C41" si="75">SUM(C35:C40)</f>
         <v>173.00042799999997</v>
       </c>
       <c r="D41" s="10">
@@ -18754,75 +18723,75 @@
         <v>221.29090299999999</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" ref="E41:G41" si="75">SUM(E35:E40)</f>
+        <f t="shared" ref="E41:G41" si="76">SUM(E35:E40)</f>
         <v>170.13146</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="75"/>
-        <v>209.04486600000001</v>
-      </c>
-      <c r="G41" s="13">
-        <f t="shared" si="75"/>
-        <v>257.61864300000002</v>
-      </c>
-      <c r="L41" s="10">
-        <f t="shared" ref="L41:V41" si="76">SUM(L35:L40)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="10">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="76"/>
-        <v>176.20298799999998</v>
-      </c>
-      <c r="O41" s="10">
         <f t="shared" si="76"/>
         <v>209.04486600000001</v>
       </c>
-      <c r="P41" s="10">
-        <f t="shared" si="76"/>
-        <v>191.68395899999999</v>
-      </c>
-      <c r="Q41" s="10">
-        <f t="shared" si="76"/>
-        <v>190.470189</v>
-      </c>
-      <c r="R41" s="10">
-        <f t="shared" si="76"/>
-        <v>232.42736500000001</v>
-      </c>
-      <c r="S41" s="10">
+      <c r="G41" s="13">
         <f t="shared" si="76"/>
         <v>257.61864300000002</v>
       </c>
-      <c r="T41" s="164">
-        <f t="shared" si="76"/>
-        <v>265.94500000000005</v>
-      </c>
-      <c r="U41" s="10">
-        <f t="shared" si="76"/>
-        <v>311.53299999999996</v>
-      </c>
-      <c r="V41" s="13">
-        <f t="shared" si="76"/>
-        <v>329.45400000000001</v>
-      </c>
-      <c r="W41" s="164">
-        <f t="shared" ref="W41:Z41" si="77">SUM(W35:W40)</f>
+      <c r="L41" s="10">
+        <f t="shared" ref="L41:V41" si="77">SUM(L35:L40)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="164">
+      <c r="M41" s="10">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="164">
+      <c r="N41" s="10">
         <f t="shared" si="77"/>
+        <v>176.20298799999998</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="77"/>
+        <v>209.04486600000001</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="77"/>
+        <v>191.68395899999999</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="77"/>
+        <v>190.470189</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="77"/>
+        <v>232.42736500000001</v>
+      </c>
+      <c r="S41" s="10">
+        <f t="shared" si="77"/>
+        <v>257.61864300000002</v>
+      </c>
+      <c r="T41" s="10">
+        <f t="shared" si="77"/>
+        <v>265.94500000000005</v>
+      </c>
+      <c r="U41" s="10">
+        <f t="shared" si="77"/>
+        <v>311.53299999999996</v>
+      </c>
+      <c r="V41" s="13">
+        <f t="shared" si="77"/>
+        <v>329.45400000000001</v>
+      </c>
+      <c r="W41" s="10">
+        <f t="shared" ref="W41:Z41" si="78">SUM(W35:W40)</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="164">
-        <f t="shared" si="77"/>
+      <c r="X41" s="10">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="10">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="10">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
@@ -18864,10 +18833,10 @@
         <v>2.2892269999999999</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" ref="S42:S46" si="78">G42</f>
+        <f t="shared" ref="S42:S46" si="79">G42</f>
         <v>2.441611</v>
       </c>
-      <c r="T42" s="165">
+      <c r="T42" s="9">
         <v>2.4039999999999999</v>
       </c>
       <c r="U42" s="9">
@@ -18876,10 +18845,10 @@
       <c r="V42" s="14">
         <v>3.0939999999999999</v>
       </c>
-      <c r="W42" s="165"/>
-      <c r="X42" s="165"/>
-      <c r="Y42" s="165"/>
-      <c r="Z42" s="165"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -18921,10 +18890,10 @@
         <v>0.834117</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.80042400000000002</v>
       </c>
-      <c r="T43" s="165">
+      <c r="T43" s="9">
         <v>0.76800000000000002</v>
       </c>
       <c r="U43" s="9">
@@ -18933,10 +18902,10 @@
       <c r="V43" s="14">
         <v>0.7</v>
       </c>
-      <c r="W43" s="165"/>
-      <c r="X43" s="165"/>
-      <c r="Y43" s="165"/>
-      <c r="Z43" s="165"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -18976,10 +18945,10 @@
         <v>1.1072979999999999</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20.275310000000001</v>
       </c>
-      <c r="T44" s="165">
+      <c r="T44" s="9">
         <v>17.033999999999999</v>
       </c>
       <c r="U44" s="9">
@@ -18988,10 +18957,10 @@
       <c r="V44" s="14">
         <v>19.594000000000001</v>
       </c>
-      <c r="W44" s="165"/>
-      <c r="X44" s="165"/>
-      <c r="Y44" s="165"/>
-      <c r="Z44" s="165"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -19018,10 +18987,10 @@
         <v>15.86379</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="T45" s="165">
+      <c r="T45" s="9">
         <v>11.616</v>
       </c>
       <c r="U45" s="9">
@@ -19030,10 +18999,10 @@
       <c r="V45" s="14">
         <v>13.443</v>
       </c>
-      <c r="W45" s="165"/>
-      <c r="X45" s="165"/>
-      <c r="Y45" s="165"/>
-      <c r="Z45" s="165"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -19073,10 +19042,10 @@
         <v>0.34747499999999998</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.625471</v>
       </c>
-      <c r="T46" s="165">
+      <c r="T46" s="9">
         <v>0.307</v>
       </c>
       <c r="U46" s="9">
@@ -19085,10 +19054,10 @@
       <c r="V46" s="14">
         <v>0.67900000000000005</v>
       </c>
-      <c r="W46" s="165"/>
-      <c r="X46" s="165"/>
-      <c r="Y46" s="165"/>
-      <c r="Z46" s="165"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -19115,63 +19084,63 @@
         <v>281.76145900000006</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" ref="L47:V47" si="79">SUM(L41:L46)</f>
+        <f t="shared" ref="L47:V47" si="80">SUM(L41:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="79"/>
-        <v>179.90335899999999</v>
-      </c>
-      <c r="O47" s="10">
-        <f t="shared" si="79"/>
-        <v>212.64528300000001</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="79"/>
-        <v>195.70842099999999</v>
-      </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="79"/>
-        <v>212.07665299999999</v>
-      </c>
-      <c r="R47" s="10">
-        <f t="shared" si="79"/>
-        <v>252.869272</v>
-      </c>
-      <c r="S47" s="10">
-        <f t="shared" si="79"/>
-        <v>281.76145900000006</v>
-      </c>
-      <c r="T47" s="164">
-        <f t="shared" si="79"/>
-        <v>298.07400000000001</v>
-      </c>
-      <c r="U47" s="10">
-        <f t="shared" si="79"/>
-        <v>350.55199999999996</v>
-      </c>
-      <c r="V47" s="13">
-        <f t="shared" si="79"/>
-        <v>366.96399999999994</v>
-      </c>
-      <c r="W47" s="164">
-        <f t="shared" ref="W47:Z47" si="80">SUM(W41:W46)</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="164">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="164">
+      <c r="N47" s="10">
         <f t="shared" si="80"/>
+        <v>179.90335899999999</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" si="80"/>
+        <v>212.64528300000001</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="80"/>
+        <v>195.70842099999999</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" si="80"/>
+        <v>212.07665299999999</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" si="80"/>
+        <v>252.869272</v>
+      </c>
+      <c r="S47" s="10">
+        <f t="shared" si="80"/>
+        <v>281.76145900000006</v>
+      </c>
+      <c r="T47" s="10">
+        <f t="shared" si="80"/>
+        <v>298.07400000000001</v>
+      </c>
+      <c r="U47" s="10">
+        <f t="shared" si="80"/>
+        <v>350.55199999999996</v>
+      </c>
+      <c r="V47" s="13">
+        <f t="shared" si="80"/>
+        <v>366.96399999999994</v>
+      </c>
+      <c r="W47" s="10">
+        <f t="shared" ref="W47:Z47" si="81">SUM(W41:W46)</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="164">
-        <f t="shared" si="80"/>
+      <c r="X47" s="10">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="10">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="10">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -19200,7 +19169,7 @@
         <v>68.182563000000002</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O52" si="81">F48</f>
+        <f t="shared" ref="O48:O52" si="82">F48</f>
         <v>74.135491000000002</v>
       </c>
       <c r="P48" s="9">
@@ -19213,10 +19182,10 @@
         <v>70.449314000000001</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" ref="S48:S54" si="82">G48</f>
+        <f t="shared" ref="S48:S54" si="83">G48</f>
         <v>68.966677000000004</v>
       </c>
-      <c r="T48" s="165">
+      <c r="T48" s="9">
         <v>65.38</v>
       </c>
       <c r="U48" s="9">
@@ -19225,10 +19194,10 @@
       <c r="V48" s="14">
         <v>57.829000000000001</v>
       </c>
-      <c r="W48" s="165"/>
-      <c r="X48" s="165"/>
-      <c r="Y48" s="165"/>
-      <c r="Z48" s="165"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -19253,7 +19222,7 @@
         <v>5.2116999999999997E-2</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.7315999999999999E-2</v>
       </c>
       <c r="P49" s="9">
@@ -19266,16 +19235,16 @@
         <v>8.3222000000000004E-2</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="T49" s="165"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="14"/>
-      <c r="W49" s="165"/>
-      <c r="X49" s="165"/>
-      <c r="Y49" s="165"/>
-      <c r="Z49" s="165"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -19300,7 +19269,7 @@
         <v>7.8326510000000003</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>10.790308</v>
       </c>
       <c r="P50" s="9">
@@ -19313,16 +19282,16 @@
         <v>11.475161999999999</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="T50" s="165"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="14"/>
-      <c r="W50" s="165"/>
-      <c r="X50" s="165"/>
-      <c r="Y50" s="165"/>
-      <c r="Z50" s="165"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -19349,7 +19318,7 @@
         <v>5.300675</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.2614359999999998</v>
       </c>
       <c r="P51" s="9">
@@ -19362,10 +19331,10 @@
         <v>10.498376</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>7.4554159999999996</v>
       </c>
-      <c r="T51" s="165">
+      <c r="T51" s="9">
         <v>10.239000000000001</v>
       </c>
       <c r="U51" s="9">
@@ -19374,10 +19343,10 @@
       <c r="V51" s="14">
         <v>6.4219999999999997</v>
       </c>
-      <c r="W51" s="165"/>
-      <c r="X51" s="165"/>
-      <c r="Y51" s="165"/>
-      <c r="Z51" s="165"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -19400,7 +19369,7 @@
         <v>2.0702310000000002</v>
       </c>
       <c r="O52" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2.64323</v>
       </c>
       <c r="P52" s="9">
@@ -19413,10 +19382,10 @@
         <v>4.3732699999999998</v>
       </c>
       <c r="S52" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4.2342240000000002</v>
       </c>
-      <c r="T52" s="165">
+      <c r="T52" s="9">
         <v>4.1260000000000003</v>
       </c>
       <c r="U52" s="9">
@@ -19425,10 +19394,10 @@
       <c r="V52" s="14">
         <v>4.8449999999999998</v>
       </c>
-      <c r="W52" s="165"/>
-      <c r="X52" s="165"/>
-      <c r="Y52" s="165"/>
-      <c r="Z52" s="165"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -19445,7 +19414,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9">
-        <f t="shared" ref="O53" si="83">F53</f>
+        <f t="shared" ref="O53" si="84">F53</f>
         <v>94.380905999999996</v>
       </c>
       <c r="P53" s="9"/>
@@ -19454,16 +19423,16 @@
         <v>0</v>
       </c>
       <c r="S53" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="T53" s="165"/>
+      <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="14"/>
-      <c r="W53" s="165"/>
-      <c r="X53" s="165"/>
-      <c r="Y53" s="165"/>
-      <c r="Z53" s="165"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -19485,10 +19454,10 @@
         <v>0</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>25.020935999999999</v>
       </c>
-      <c r="T54" s="165">
+      <c r="T54" s="9">
         <v>21.853999999999999</v>
       </c>
       <c r="U54" s="9">
@@ -19497,10 +19466,10 @@
       <c r="V54" s="14">
         <v>24.565999999999999</v>
       </c>
-      <c r="W54" s="165"/>
-      <c r="X54" s="165"/>
-      <c r="Y54" s="165"/>
-      <c r="Z54" s="165"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
     </row>
     <row r="55" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -19527,63 +19496,63 @@
         <v>105.67725300000001</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" ref="L55:V55" si="84">SUM(L48:L54)</f>
+        <f t="shared" ref="L55:V55" si="85">SUM(L48:L54)</f>
         <v>0</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="10">
-        <f t="shared" si="84"/>
-        <v>83.438237000000001</v>
-      </c>
-      <c r="O55" s="10">
-        <f t="shared" si="84"/>
-        <v>187.268687</v>
-      </c>
-      <c r="P55" s="10">
-        <f t="shared" si="84"/>
-        <v>92.941540999999987</v>
-      </c>
-      <c r="Q55" s="10">
-        <f t="shared" si="84"/>
-        <v>91.946695000000005</v>
-      </c>
-      <c r="R55" s="10">
-        <f t="shared" si="84"/>
-        <v>96.879344000000017</v>
-      </c>
-      <c r="S55" s="10">
-        <f t="shared" si="84"/>
-        <v>105.67725300000001</v>
-      </c>
-      <c r="T55" s="164">
-        <f t="shared" si="84"/>
-        <v>101.599</v>
-      </c>
-      <c r="U55" s="10">
-        <f t="shared" si="84"/>
-        <v>88.874000000000009</v>
-      </c>
-      <c r="V55" s="13">
-        <f t="shared" si="84"/>
-        <v>93.662000000000006</v>
-      </c>
-      <c r="W55" s="164">
-        <f t="shared" ref="W55:Z55" si="85">SUM(W48:W54)</f>
-        <v>0</v>
-      </c>
-      <c r="X55" s="164">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="164">
+      <c r="N55" s="10">
         <f t="shared" si="85"/>
+        <v>83.438237000000001</v>
+      </c>
+      <c r="O55" s="10">
+        <f t="shared" si="85"/>
+        <v>187.268687</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" si="85"/>
+        <v>92.941540999999987</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" si="85"/>
+        <v>91.946695000000005</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="85"/>
+        <v>96.879344000000017</v>
+      </c>
+      <c r="S55" s="10">
+        <f t="shared" si="85"/>
+        <v>105.67725300000001</v>
+      </c>
+      <c r="T55" s="10">
+        <f t="shared" si="85"/>
+        <v>101.599</v>
+      </c>
+      <c r="U55" s="10">
+        <f t="shared" si="85"/>
+        <v>88.874000000000009</v>
+      </c>
+      <c r="V55" s="13">
+        <f t="shared" si="85"/>
+        <v>93.662000000000006</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" ref="W55:Z55" si="86">SUM(W48:W54)</f>
         <v>0</v>
       </c>
-      <c r="Z55" s="164">
-        <f t="shared" si="85"/>
+      <c r="X55" s="10">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="10">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="10">
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -19625,16 +19594,16 @@
         <v>0</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" ref="S56:S60" si="86">G56</f>
+        <f t="shared" ref="S56:S60" si="87">G56</f>
         <v>0</v>
       </c>
-      <c r="T56" s="165"/>
+      <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="14"/>
-      <c r="W56" s="165"/>
-      <c r="X56" s="165"/>
-      <c r="Y56" s="165"/>
-      <c r="Z56" s="165"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -19670,10 +19639,10 @@
         <v>0.85450899999999996</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.823071</v>
       </c>
-      <c r="T57" s="165">
+      <c r="T57" s="9">
         <v>0.79100000000000004</v>
       </c>
       <c r="U57" s="9">
@@ -19682,10 +19651,10 @@
       <c r="V57" s="14">
         <v>0.71099999999999997</v>
       </c>
-      <c r="W57" s="165"/>
-      <c r="X57" s="165"/>
-      <c r="Y57" s="165"/>
-      <c r="Z57" s="165"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -19725,10 +19694,10 @@
         <v>93.937724000000003</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>103.991559</v>
       </c>
-      <c r="T58" s="165">
+      <c r="T58" s="9">
         <v>69.89</v>
       </c>
       <c r="U58" s="9">
@@ -19737,10 +19706,10 @@
       <c r="V58" s="14">
         <v>117.312</v>
       </c>
-      <c r="W58" s="165"/>
-      <c r="X58" s="165"/>
-      <c r="Y58" s="165"/>
-      <c r="Z58" s="165"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -19772,16 +19741,16 @@
         <v>0</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="T59" s="165"/>
+      <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="14"/>
-      <c r="W59" s="165"/>
-      <c r="X59" s="165"/>
-      <c r="Y59" s="165"/>
-      <c r="Z59" s="165"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -19817,10 +19786,10 @@
         <v>5.9680999999999998E-2</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4.4742999999999998E-2</v>
       </c>
-      <c r="T60" s="165">
+      <c r="T60" s="9">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="U60" s="9">
@@ -19829,10 +19798,10 @@
       <c r="V60" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="W60" s="165"/>
-      <c r="X60" s="165"/>
-      <c r="Y60" s="165"/>
-      <c r="Z60" s="165"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -19859,63 +19828,63 @@
         <v>210.53662600000001</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" ref="L61:O61" si="87">SUM(L55:L60)</f>
+        <f t="shared" ref="L61:O61" si="88">SUM(L55:L60)</f>
         <v>0</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>161.929304</v>
       </c>
       <c r="O61" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>190.55095900000001</v>
       </c>
       <c r="P61" s="10">
-        <f t="shared" ref="P61:Q61" si="88">SUM(P55:P60)</f>
+        <f t="shared" ref="P61:Q61" si="89">SUM(P55:P60)</f>
         <v>166.09502999999998</v>
       </c>
       <c r="Q61" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>161.78693800000002</v>
       </c>
       <c r="R61" s="10">
-        <f t="shared" ref="R61:V61" si="89">SUM(R55:R60)</f>
+        <f t="shared" ref="R61:V61" si="90">SUM(R55:R60)</f>
         <v>191.73125800000003</v>
       </c>
       <c r="S61" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>210.53662600000001</v>
       </c>
-      <c r="T61" s="164">
-        <f t="shared" si="89"/>
+      <c r="T61" s="10">
+        <f t="shared" si="90"/>
         <v>172.31200000000001</v>
       </c>
       <c r="U61" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>220.15400000000002</v>
       </c>
       <c r="V61" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>211.69399999999999</v>
       </c>
-      <c r="W61" s="164">
-        <f t="shared" ref="W61:Z61" si="90">SUM(W55:W60)</f>
+      <c r="W61" s="10">
+        <f t="shared" ref="W61:Z61" si="91">SUM(W55:W60)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="164">
-        <f t="shared" si="90"/>
+      <c r="X61" s="10">
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="Y61" s="164">
-        <f t="shared" si="90"/>
+      <c r="Y61" s="10">
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="Z61" s="164">
-        <f t="shared" si="90"/>
+      <c r="Z61" s="10">
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -19924,11 +19893,11 @@
         <v>67</v>
       </c>
       <c r="C62" s="9">
-        <f t="shared" ref="C62:D62" si="91">C47-C61</f>
+        <f t="shared" ref="C62:D62" si="92">C47-C61</f>
         <v>59.958416999999955</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>37.792038000000019</v>
       </c>
       <c r="E62" s="9">
@@ -19948,63 +19917,63 @@
         <v>0</v>
       </c>
       <c r="L62" s="9">
-        <f t="shared" ref="L62:O62" si="92">L47-L61</f>
+        <f t="shared" ref="L62:O62" si="93">L47-L61</f>
         <v>0</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>17.974054999999993</v>
       </c>
       <c r="O62" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>22.094324</v>
       </c>
       <c r="P62" s="9">
-        <f t="shared" ref="P62:Q62" si="93">P47-P61</f>
+        <f t="shared" ref="P62:Q62" si="94">P47-P61</f>
         <v>29.613391000000007</v>
       </c>
       <c r="Q62" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>50.289714999999973</v>
       </c>
       <c r="R62" s="9">
-        <f t="shared" ref="R62:V62" si="94">R47-R61</f>
+        <f t="shared" ref="R62:V62" si="95">R47-R61</f>
         <v>61.13801399999997</v>
       </c>
       <c r="S62" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>71.224833000000046</v>
       </c>
-      <c r="T62" s="165">
-        <f t="shared" si="94"/>
+      <c r="T62" s="9">
+        <f t="shared" si="95"/>
         <v>125.762</v>
       </c>
       <c r="U62" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>130.39799999999994</v>
       </c>
       <c r="V62" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>155.26999999999995</v>
       </c>
-      <c r="W62" s="165">
-        <f t="shared" ref="W62:Z62" si="95">W47-W61</f>
+      <c r="W62" s="9">
+        <f t="shared" ref="W62:Z62" si="96">W47-W61</f>
         <v>0</v>
       </c>
-      <c r="X62" s="165">
-        <f t="shared" si="95"/>
+      <c r="X62" s="9">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="Y62" s="165">
-        <f t="shared" si="95"/>
+      <c r="Y62" s="9">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="Z62" s="165">
-        <f t="shared" si="95"/>
+      <c r="Z62" s="9">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -20024,17 +19993,14 @@
         <f>H19/H62</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T64" s="166"/>
       <c r="V64" s="15"/>
     </row>
     <row r="82" spans="7:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G82" s="40"/>
-      <c r="T82" s="167"/>
       <c r="V82" s="40"/>
     </row>
     <row r="83" spans="7:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G83" s="15"/>
-      <c r="T83" s="166"/>
       <c r="V83" s="15"/>
     </row>
   </sheetData>
@@ -20208,10 +20174,10 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20645,17 +20611,17 @@
       <c r="A14" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171">
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141">
         <f>L13/H13-1</f>
         <v>0.64136391313172325</v>
       </c>
-      <c r="M14" s="171">
+      <c r="M14" s="141">
         <f>M13/I13-1</f>
         <v>0.74182638105975185</v>
       </c>
-      <c r="N14" s="171">
+      <c r="N14" s="141">
         <f>N13/J13-1</f>
         <v>0.58705864524928009</v>
       </c>
@@ -20664,31 +20630,31 @@
       <c r="A16" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="171">
+      <c r="H16" s="141">
         <f>Model!P3/KPIs!H13</f>
         <v>9.5349368784250058E-2</v>
       </c>
-      <c r="I16" s="171">
+      <c r="I16" s="141">
         <f>Model!Q3/KPIs!I13</f>
         <v>0.10516442127019916</v>
       </c>
-      <c r="J16" s="171">
+      <c r="J16" s="141">
         <f>Model!R3/KPIs!J13</f>
         <v>0.10601256402485225</v>
       </c>
-      <c r="K16" s="171">
+      <c r="K16" s="141">
         <f>Model!S3/KPIs!K13</f>
         <v>0.1148270516717325</v>
       </c>
-      <c r="L16" s="171">
+      <c r="L16" s="141">
         <f>Model!T3/KPIs!L13</f>
         <v>0.12972919500432795</v>
       </c>
-      <c r="M16" s="171">
+      <c r="M16" s="141">
         <f>Model!U3/KPIs!M13</f>
         <v>0.10647464940668824</v>
       </c>
-      <c r="N16" s="171">
+      <c r="N16" s="141">
         <f>Model!V3/KPIs!N13</f>
         <v>0.11152105413921513</v>
       </c>
@@ -29067,14 +29033,14 @@
       <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="150"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -29481,10 +29447,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="151" t="s">
+      <c r="H17" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="152"/>
+      <c r="I17" s="155"/>
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -29492,8 +29458,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="154"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
       <c r="M18" s="82"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -29916,14 +29882,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="155" t="s">
+      <c r="H43" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="157"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="160"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B9C44-A353-4D5C-92F2-CC7FB94A92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC4FE4-C851-4D39-ADBB-7242DEC22BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="45" windowWidth="15480" windowHeight="15345" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,21 @@
     <sheet name="Analysts" sheetId="7" r:id="rId3"/>
     <sheet name="Model-graph" sheetId="3" r:id="rId4"/>
     <sheet name="KPIs" sheetId="6" r:id="rId5"/>
-    <sheet name="Catalysts" sheetId="4" r:id="rId6"/>
-    <sheet name="DoR" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="Catalysts" sheetId="4" r:id="rId7"/>
+    <sheet name="DoR" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$P$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$P$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$P$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,8 +319,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={81809F38-25B0-4636-BB76-B6FAC1A8ECE0}</author>
+  </authors>
+  <commentList>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{81809F38-25B0-4636-BB76-B6FAC1A8ECE0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="229">
   <si>
     <t>Price</t>
   </si>
@@ -962,6 +981,51 @@
   <si>
     <t>Rev % of GMV</t>
   </si>
+  <si>
+    <t>Competition: AFRM, Klarna, Block Inc</t>
+  </si>
+  <si>
+    <t>Klarna</t>
+  </si>
+  <si>
+    <t>Loss as % of GMV</t>
+  </si>
+  <si>
+    <t>30d Delinquincy Rate</t>
+  </si>
+  <si>
+    <t>6-12m Delinquincy Rate</t>
+  </si>
+  <si>
+    <t>sezl</t>
+  </si>
+  <si>
+    <t>PS0</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Affirm</t>
+  </si>
+  <si>
+    <t>pypl</t>
+  </si>
+  <si>
+    <t>EPS0</t>
+  </si>
+  <si>
+    <t>EPS1</t>
+  </si>
+  <si>
+    <t>EPS2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R0 in M</t>
+  </si>
 </sst>
 </file>
 
@@ -975,7 +1039,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="[$-407]mmm/\ yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1145,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1712,7 +1782,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1950,6 +2020,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8014,18 +8086,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8069,7 +8141,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8089,7 +8161,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8120,18 +8192,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8175,7 +8247,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8195,7 +8267,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15331,6 +15403,55 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>553803</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>77061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8526C26C-4BBE-E07D-9996-7801A9084EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="9697803" cy="6173061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -15372,7 +15493,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15413,6 +15534,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Simon Burghardt" id="{ADDCBA16-0883-44BB-8132-6D9F32DCBBEC}" userId="89957cfae585bdc7" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15676,12 +15803,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B21" dT="2025-12-09T11:49:13.29" personId="{ADDCBA16-0883-44BB-8132-6D9F32DCBBEC}" id="{81809F38-25B0-4636-BB76-B6FAC1A8ECE0}">
+    <text>Q125</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16220,6 +16355,9 @@
         <f>(Model!V47-Model!V55)/Model!V20</f>
         <v>7.6608829712683937</v>
       </c>
+      <c r="E32" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
@@ -16289,11 +16427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20170,14 +20308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20659,13 +20797,276 @@
         <v>0.11152105413921513</v>
       </c>
     </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
+        <v>220</v>
+      </c>
+      <c r="S20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="161">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="C21" s="161">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D21" s="161">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E21" s="17">
+        <v>30.66</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-0.69</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="9">
+        <v>3510</v>
+      </c>
+      <c r="J21" s="9">
+        <v>4520</v>
+      </c>
+      <c r="K21">
+        <f>E21/F21</f>
+        <v>-44.434782608695656</v>
+      </c>
+      <c r="L21">
+        <f>E21/G21</f>
+        <v>46.454545454545453</v>
+      </c>
+      <c r="N21" s="132">
+        <v>1</v>
+      </c>
+      <c r="P21" s="132">
+        <f>J21/I21-1</f>
+        <v>0.28774928774928776</v>
+      </c>
+      <c r="R21" s="162">
+        <f>11567/I21</f>
+        <v>3.2954415954415954</v>
+      </c>
+      <c r="S21" s="162">
+        <f>11567/J21</f>
+        <v>2.5590707964601771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="161">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E22">
+        <v>68.11</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3.11</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3.83</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="9">
+        <v>4080</v>
+      </c>
+      <c r="J22" s="9">
+        <v>5060</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K24" si="8">E22/F22</f>
+        <v>21.90032154340836</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L24" si="9">E22/G22</f>
+        <v>17.783289817232376</v>
+      </c>
+      <c r="N22" s="132">
+        <f t="shared" ref="N22:N24" si="10">G22/F22-1</f>
+        <v>0.23151125401929273</v>
+      </c>
+      <c r="P22" s="132">
+        <f t="shared" ref="P22:P24" si="11">J22/I22-1</f>
+        <v>0.24019607843137258</v>
+      </c>
+      <c r="R22" s="162">
+        <f>22481/I22</f>
+        <v>5.5100490196078429</v>
+      </c>
+      <c r="S22" s="162">
+        <f>22481/J22</f>
+        <v>4.4428853754940709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="17">
+        <v>67.7</v>
+      </c>
+      <c r="F23" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="G23" s="17">
+        <v>4.38</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="9">
+        <v>449.16</v>
+      </c>
+      <c r="J23" s="9">
+        <v>566.01</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>20.029585798816569</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>15.456621004566211</v>
+      </c>
+      <c r="N23" s="132">
+        <f t="shared" si="10"/>
+        <v>0.29585798816568043</v>
+      </c>
+      <c r="P23" s="132">
+        <f t="shared" si="11"/>
+        <v>0.2601522842639592</v>
+      </c>
+      <c r="R23" s="162">
+        <f>2312/I23</f>
+        <v>5.1473862320776558</v>
+      </c>
+      <c r="S23" s="162">
+        <f>2312/J23</f>
+        <v>4.0847334852741115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24">
+        <v>61.08</v>
+      </c>
+      <c r="F24" s="17">
+        <v>5.35</v>
+      </c>
+      <c r="G24" s="17">
+        <v>5.82</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="9">
+        <v>33320</v>
+      </c>
+      <c r="J24" s="9">
+        <v>35310</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>11.416822429906542</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>10.494845360824742</v>
+      </c>
+      <c r="N24" s="132">
+        <f t="shared" si="10"/>
+        <v>8.7850467289719791E-2</v>
+      </c>
+      <c r="P24" s="132">
+        <f t="shared" si="11"/>
+        <v>5.9723889555822307E-2</v>
+      </c>
+      <c r="R24" s="162">
+        <f>58393/I24</f>
+        <v>1.7524909963985593</v>
+      </c>
+      <c r="S24" s="162">
+        <f>58393/J24</f>
+        <v>1.6537241574624753</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75675FFF-68E8-499C-AFD6-A7701C18DD2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DEC602-D7CA-409B-9962-CCABA92C723B}">
   <dimension ref="A1:M2067"/>
   <sheetViews>
@@ -29000,7 +29401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M68"/>
   <sheetViews>

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC4FE4-C851-4D39-ADBB-7242DEC22BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B122434-4033-4BCD-B339-0A5E6B6926D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="45" windowWidth="15480" windowHeight="15345" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="90" windowWidth="14010" windowHeight="15345" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$P$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$P$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$P$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1039,7 +1039,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="[$-407]mmm/\ yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,12 +1145,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1782,7 +1776,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1829,7 +1823,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1841,7 +1834,6 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1963,6 +1955,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2020,8 +2014,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4767,6 +4768,9 @@
                 <c:pt idx="4">
                   <c:v>271.12788999999998</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>449.16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4900,7 +4904,7 @@
                   <c:v>0.70138919480622985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.65663517685325568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5990,7 +5994,7 @@
                   <c:v>77.581516999999963</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>118.27916999999999</c:v>
+                  <c:v>122.25797999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6114,7 +6118,7 @@
                   <c:v>9.3714636586471496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52457923708813348</c:v>
+                  <c:v>0.57586477717366691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8086,18 +8090,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8141,7 +8145,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8161,7 +8165,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8192,18 +8196,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8247,7 +8251,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8267,7 +8271,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15841,7 +15845,7 @@
       <c r="E2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="56" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="24"/>
@@ -15874,7 +15878,7 @@
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="119">
         <v>0.62009999999999998</v>
       </c>
       <c r="H3" t="s">
@@ -15905,7 +15909,7 @@
       <c r="E4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="119">
         <v>0.14199999999999999</v>
       </c>
       <c r="H4" t="s">
@@ -16130,7 +16134,7 @@
       </c>
       <c r="C14" s="35">
         <f>C6/Model!H22</f>
-        <v>22.103975535168196</v>
+        <v>21.384615384615387</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="28"/>
@@ -16148,7 +16152,7 @@
       </c>
       <c r="C15" s="35">
         <f>C6/Model!I22</f>
-        <v>16.927400468384079</v>
+        <v>16.502283105022833</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -16157,7 +16161,7 @@
       </c>
       <c r="C16" s="5">
         <f>Model!H29</f>
-        <v>0.52457923708813348</v>
+        <v>0.57586477717366691</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -16166,7 +16170,7 @@
       </c>
       <c r="C17" s="5">
         <f>Model!I22/Model!H22-1</f>
-        <v>0.30581039755351669</v>
+        <v>0.29585798816568043</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>46</v>
@@ -16181,9 +16185,9 @@
       <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <f>C14/(C16*100)</f>
-        <v>0.42136581039433235</v>
+        <v>0.37134786207225007</v>
       </c>
       <c r="L18" s="145"/>
       <c r="M18" s="146"/>
@@ -16193,9 +16197,9 @@
       <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="45">
         <f>C15/(C17*100)</f>
-        <v>0.55352599531615965</v>
+        <v>0.55777716894977181</v>
       </c>
       <c r="L19" s="145"/>
       <c r="M19" s="146"/>
@@ -16207,7 +16211,7 @@
       </c>
       <c r="C20" s="5">
         <f>Model!H4/Model!G4-1</f>
-        <v>0.99578785271072046</v>
+        <v>1.0343312650029444</v>
       </c>
       <c r="L20" s="145"/>
       <c r="M20" s="146"/>
@@ -16219,7 +16223,7 @@
       </c>
       <c r="C21" s="5">
         <f>Model!I4/Model!H4-1</f>
-        <v>0.27293770566209008</v>
+        <v>0.2601522842639592</v>
       </c>
       <c r="L21" s="145"/>
       <c r="M21" s="146"/>
@@ -16289,7 +16293,7 @@
       <c r="B27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="116" t="s">
         <v>197</v>
       </c>
       <c r="E27" t="s">
@@ -16393,26 +16397,26 @@
       <c r="C36" s="22"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16428,10 +16432,10 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16517,57 +16521,64 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="124">
+      <c r="C3" s="122">
         <f>49.659042+9.129231</f>
         <v>58.788273000000004</v>
       </c>
-      <c r="D3" s="124">
+      <c r="D3" s="122">
         <f>98.200184+16.616451</f>
         <v>114.81663499999999</v>
       </c>
-      <c r="E3" s="124">
+      <c r="E3" s="122">
         <v>125.570441</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="122">
         <v>159.35677200000001</v>
       </c>
-      <c r="G3" s="125">
+      <c r="G3" s="123">
         <v>271.12788999999998</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="164">
+        <f>H4</f>
+        <v>449.16</v>
+      </c>
+      <c r="I3" s="166">
+        <f>I4</f>
+        <v>566.01</v>
+      </c>
       <c r="L3" s="17">
         <v>34.673431000000001</v>
       </c>
-      <c r="M3" s="124">
+      <c r="M3" s="122">
         <v>34.937665000000003</v>
       </c>
-      <c r="N3" s="124">
+      <c r="N3" s="122">
         <v>40.844200999999998</v>
       </c>
-      <c r="O3" s="124">
+      <c r="O3" s="122">
         <f>F3-N3-M3-L3</f>
         <v>48.901474999999998</v>
       </c>
-      <c r="P3" s="124">
+      <c r="P3" s="122">
         <v>46.978634</v>
       </c>
-      <c r="Q3" s="124">
+      <c r="Q3" s="122">
         <v>55.968505</v>
       </c>
-      <c r="R3" s="124">
+      <c r="R3" s="122">
         <v>69.957690999999997</v>
       </c>
-      <c r="S3" s="124">
+      <c r="S3" s="122">
         <f>G3-R3-Q3-P3</f>
         <v>98.223059999999975</v>
       </c>
-      <c r="T3" s="124">
+      <c r="T3" s="122">
         <v>104.91200000000001</v>
       </c>
-      <c r="U3" s="124">
+      <c r="U3" s="122">
         <v>98.701999999999998</v>
       </c>
-      <c r="V3" s="125">
+      <c r="V3" s="123">
         <v>116.79600000000001</v>
       </c>
     </row>
@@ -16575,95 +16586,98 @@
       <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123">
         <v>220.79</v>
       </c>
       <c r="H4" s="41">
-        <v>440.65</v>
-      </c>
-      <c r="I4">
-        <v>560.91999999999996</v>
+        <v>449.16</v>
+      </c>
+      <c r="I4" s="125">
+        <v>566.01</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124">
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122">
         <v>52.63</v>
       </c>
-      <c r="S4" s="124">
+      <c r="S4" s="122">
         <v>65.180000000000007</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122">
         <v>93.33</v>
       </c>
-      <c r="V4" s="125">
+      <c r="V4" s="123">
         <v>104.7</v>
       </c>
-      <c r="W4" s="124">
-        <v>132.35</v>
+      <c r="W4" s="122">
+        <v>128.91</v>
+      </c>
+      <c r="X4" s="169">
+        <v>128.1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="122">
         <v>30.689461999999999</v>
       </c>
-      <c r="D5" s="124">
+      <c r="D5" s="122">
         <v>56.831367999999998</v>
       </c>
-      <c r="E5" s="124">
+      <c r="E5" s="122">
         <v>51.217083000000002</v>
       </c>
-      <c r="F5" s="124">
+      <c r="F5" s="122">
         <v>46.373914999999997</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5" s="123">
         <v>51.764963999999999</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="165"/>
       <c r="L5" s="17">
         <v>11.57399</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="122">
         <v>12.017071</v>
       </c>
-      <c r="N5" s="124">
+      <c r="N5" s="122">
         <v>11.079174</v>
       </c>
-      <c r="O5" s="124">
+      <c r="O5" s="122">
         <f t="shared" ref="O5:O10" si="0">F5-N5-M5-L5</f>
         <v>11.703679999999993</v>
       </c>
-      <c r="P5" s="124">
+      <c r="P5" s="122">
         <v>11.025040000000001</v>
       </c>
-      <c r="Q5" s="124">
+      <c r="Q5" s="122">
         <v>12.736523</v>
       </c>
-      <c r="R5" s="124">
+      <c r="R5" s="122">
         <v>13.423723000000001</v>
       </c>
-      <c r="S5" s="124">
+      <c r="S5" s="122">
         <f t="shared" ref="S5:S10" si="1">G5-R5-Q5-P5</f>
         <v>14.579677999999998</v>
       </c>
-      <c r="T5" s="124">
+      <c r="T5" s="122">
         <v>15.048</v>
       </c>
-      <c r="U5" s="124">
+      <c r="U5" s="122">
         <v>11.680999999999999</v>
       </c>
-      <c r="V5" s="125">
+      <c r="V5" s="123">
         <v>14.32</v>
       </c>
     </row>
@@ -16671,55 +16685,55 @@
       <c r="B6" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="122">
         <v>22.489626000000001</v>
       </c>
-      <c r="D6" s="124">
+      <c r="D6" s="122">
         <v>43.476143</v>
       </c>
-      <c r="E6" s="124">
+      <c r="E6" s="122">
         <v>40.776825000000002</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="122">
         <v>39.207768000000002</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="123">
         <v>51.364347000000002</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="165"/>
       <c r="L6" s="17">
         <v>8.2385859999999997</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="122">
         <v>7.9459479999999996</v>
       </c>
-      <c r="N6" s="124">
+      <c r="N6" s="122">
         <v>9.9368040000000004</v>
       </c>
-      <c r="O6" s="124">
+      <c r="O6" s="122">
         <f t="shared" si="0"/>
         <v>13.086429999999998</v>
       </c>
-      <c r="P6" s="124">
+      <c r="P6" s="122">
         <v>11.787146</v>
       </c>
-      <c r="Q6" s="124">
+      <c r="Q6" s="122">
         <v>10.741618000000001</v>
       </c>
-      <c r="R6" s="124">
+      <c r="R6" s="122">
         <v>12.761438</v>
       </c>
-      <c r="S6" s="124">
+      <c r="S6" s="122">
         <f t="shared" si="1"/>
         <v>16.074145000000001</v>
       </c>
-      <c r="T6" s="124">
+      <c r="T6" s="122">
         <v>15.317</v>
       </c>
-      <c r="U6" s="124">
+      <c r="U6" s="122">
         <v>14.243</v>
       </c>
-      <c r="V6" s="125">
+      <c r="V6" s="123">
         <v>17.434999999999999</v>
       </c>
     </row>
@@ -16727,55 +16741,55 @@
       <c r="B7" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="122">
         <v>2.454113</v>
       </c>
-      <c r="D7" s="124">
+      <c r="D7" s="122">
         <v>5.5498440000000002</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="122">
         <v>8.1900220000000008</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="122">
         <v>7.8159150000000004</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="123">
         <v>9.5951059999999995</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="165"/>
       <c r="L7" s="17">
         <v>1.7491760000000001</v>
       </c>
-      <c r="M7" s="124">
+      <c r="M7" s="122">
         <v>1.9036299999999999</v>
       </c>
-      <c r="N7" s="124">
+      <c r="N7" s="122">
         <v>2.0025149999999998</v>
       </c>
-      <c r="O7" s="124">
+      <c r="O7" s="122">
         <f t="shared" si="0"/>
         <v>2.1605940000000006</v>
       </c>
-      <c r="P7" s="124">
+      <c r="P7" s="122">
         <v>2.1571720000000001</v>
       </c>
-      <c r="Q7" s="124">
+      <c r="Q7" s="122">
         <v>2.1802329999999999</v>
       </c>
-      <c r="R7" s="124">
+      <c r="R7" s="122">
         <v>2.3864899999999998</v>
       </c>
-      <c r="S7" s="124">
+      <c r="S7" s="122">
         <f t="shared" si="1"/>
         <v>2.8712109999999997</v>
       </c>
-      <c r="T7" s="124">
+      <c r="T7" s="122">
         <v>3.3740000000000001</v>
       </c>
-      <c r="U7" s="124">
+      <c r="U7" s="122">
         <v>3.4279999999999999</v>
       </c>
-      <c r="V7" s="125">
+      <c r="V7" s="123">
         <v>3.7050000000000001</v>
       </c>
     </row>
@@ -16783,55 +16797,55 @@
       <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="122">
         <v>4.2749290000000002</v>
       </c>
-      <c r="D8" s="124">
+      <c r="D8" s="122">
         <v>9.2518539999999998</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="122">
         <v>18.972024999999999</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="122">
         <v>11.984019</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="123">
         <v>9.7397629999999999</v>
       </c>
       <c r="H8" s="39"/>
       <c r="L8" s="17">
         <v>3.1991740000000002</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="122">
         <v>3.3136619999999999</v>
       </c>
-      <c r="N8" s="124">
+      <c r="N8" s="122">
         <v>3.6153390000000001</v>
       </c>
-      <c r="O8" s="124">
+      <c r="O8" s="122">
         <f t="shared" si="0"/>
         <v>1.8558439999999994</v>
       </c>
-      <c r="P8" s="124">
+      <c r="P8" s="122">
         <v>0.65487499999999998</v>
       </c>
-      <c r="Q8" s="124">
+      <c r="Q8" s="122">
         <v>0.995089</v>
       </c>
-      <c r="R8" s="124">
+      <c r="R8" s="122">
         <v>2.7256149999999999</v>
       </c>
-      <c r="S8" s="124">
+      <c r="S8" s="122">
         <f t="shared" si="1"/>
         <v>5.3641840000000007</v>
       </c>
-      <c r="T8" s="124">
+      <c r="T8" s="122">
         <v>5.3460000000000001</v>
       </c>
-      <c r="U8" s="124">
+      <c r="U8" s="122">
         <v>8.7720000000000002</v>
       </c>
-      <c r="V8" s="125">
+      <c r="V8" s="123">
         <v>8.7750000000000004</v>
       </c>
     </row>
@@ -16839,55 +16853,55 @@
       <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C9" s="122">
         <v>7.2145349999999997</v>
       </c>
-      <c r="D9" s="124">
+      <c r="D9" s="122">
         <v>15.768583</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="122">
         <v>16.411912000000001</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="122">
         <v>8.5877809999999997</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9" s="123">
         <v>11.403468</v>
       </c>
       <c r="H9" s="39"/>
       <c r="L9" s="17">
         <v>2.7982100000000001</v>
       </c>
-      <c r="M9" s="124">
+      <c r="M9" s="122">
         <v>1.6976290000000001</v>
       </c>
-      <c r="N9" s="124">
+      <c r="N9" s="122">
         <v>2.1840760000000001</v>
       </c>
-      <c r="O9" s="124">
+      <c r="O9" s="122">
         <f t="shared" si="0"/>
         <v>1.9078659999999994</v>
       </c>
-      <c r="P9" s="124">
+      <c r="P9" s="122">
         <v>2.3797779999999999</v>
       </c>
-      <c r="Q9" s="124">
+      <c r="Q9" s="122">
         <v>2.521782</v>
       </c>
-      <c r="R9" s="124">
+      <c r="R9" s="122">
         <v>2.4169510000000001</v>
       </c>
-      <c r="S9" s="124">
+      <c r="S9" s="122">
         <f t="shared" si="1"/>
         <v>4.0849569999999993</v>
       </c>
-      <c r="T9" s="124">
+      <c r="T9" s="122">
         <v>3.1309999999999998</v>
       </c>
-      <c r="U9" s="124">
+      <c r="U9" s="122">
         <v>3.8460000000000001</v>
       </c>
-      <c r="V9" s="125">
+      <c r="V9" s="123">
         <v>4.8230000000000004</v>
       </c>
     </row>
@@ -16895,55 +16909,55 @@
       <c r="B10" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="122">
         <v>19.587917999999998</v>
       </c>
-      <c r="D10" s="124">
+      <c r="D10" s="122">
         <v>52.621682</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="122">
         <v>29.437179</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="122">
         <v>23.186972999999998</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="123">
         <v>55.014676000000001</v>
       </c>
       <c r="H10" s="9"/>
       <c r="L10" s="17">
         <v>1.694364</v>
       </c>
-      <c r="M10" s="124">
+      <c r="M10" s="122">
         <v>4.2964339999999996</v>
       </c>
-      <c r="N10" s="124">
+      <c r="N10" s="122">
         <v>6.6765480000000004</v>
       </c>
-      <c r="O10" s="124">
+      <c r="O10" s="122">
         <f t="shared" si="0"/>
         <v>10.519626999999998</v>
       </c>
-      <c r="P10" s="124">
+      <c r="P10" s="122">
         <v>5.1399660000000003</v>
       </c>
-      <c r="Q10" s="124">
+      <c r="Q10" s="122">
         <v>10.09388</v>
       </c>
-      <c r="R10" s="124">
+      <c r="R10" s="122">
         <v>15.402303</v>
       </c>
-      <c r="S10" s="124">
+      <c r="S10" s="122">
         <f t="shared" si="1"/>
         <v>24.378527000000005</v>
       </c>
-      <c r="T10" s="124">
+      <c r="T10" s="122">
         <v>12.801</v>
       </c>
-      <c r="U10" s="124">
+      <c r="U10" s="122">
         <v>20.646000000000001</v>
       </c>
-      <c r="V10" s="125">
+      <c r="V10" s="123">
         <v>32.177</v>
       </c>
     </row>
@@ -16951,110 +16965,113 @@
       <c r="B11" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124">
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122">
         <v>-11</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
       <c r="H11" s="39"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="125"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="123"/>
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="120">
         <f t="shared" ref="C12:E12" si="2">C3-SUM(C5:C11)</f>
         <v>-27.922309999999996</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="120">
         <f t="shared" si="2"/>
         <v>-68.682839000000001</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="120">
         <f t="shared" si="2"/>
         <v>-28.434604999999991</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="120">
         <f>F3-SUM(F5:F11)</f>
         <v>22.200400999999999</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="124">
         <f>G3-SUM(G5:G11)</f>
         <v>82.245565999999968</v>
       </c>
       <c r="H12" s="10">
         <f>H3-SUM(H8:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>449.16</v>
+      </c>
+      <c r="I12" s="10">
+        <f>I3-SUM(I8:I11)</f>
+        <v>566.01</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="2">
         <f t="shared" ref="L12" si="3">L3-SUM(L5:L11)</f>
         <v>5.4199310000000018</v>
       </c>
-      <c r="M12" s="122">
+      <c r="M12" s="120">
         <f>M3-SUM(M5:M11)</f>
         <v>3.7632910000000024</v>
       </c>
-      <c r="N12" s="122">
+      <c r="N12" s="120">
         <f t="shared" ref="N12" si="4">N3-SUM(N5:N11)</f>
         <v>5.3497449999999986</v>
       </c>
-      <c r="O12" s="122">
+      <c r="O12" s="120">
         <f t="shared" ref="O12" si="5">O3-SUM(O5:O11)</f>
         <v>7.6674340000000072</v>
       </c>
-      <c r="P12" s="122">
+      <c r="P12" s="120">
         <f t="shared" ref="P12" si="6">P3-SUM(P5:P11)</f>
         <v>13.834657</v>
       </c>
-      <c r="Q12" s="122">
+      <c r="Q12" s="120">
         <f t="shared" ref="Q12" si="7">Q3-SUM(Q5:Q11)</f>
         <v>16.699379999999998</v>
       </c>
-      <c r="R12" s="122">
+      <c r="R12" s="120">
         <f>R3-SUM(R5:R11)</f>
         <v>20.841171000000003</v>
       </c>
-      <c r="S12" s="122">
+      <c r="S12" s="120">
         <f>S3-SUM(S5:S11)</f>
         <v>30.870357999999968</v>
       </c>
-      <c r="T12" s="122">
+      <c r="T12" s="120">
         <f>T3-SUM(T5:T11)</f>
         <v>49.894999999999996</v>
       </c>
-      <c r="U12" s="122">
+      <c r="U12" s="120">
         <f t="shared" ref="U12:Y12" si="8">U3-SUM(U5:U11)</f>
         <v>36.085999999999999</v>
       </c>
-      <c r="V12" s="126">
+      <c r="V12" s="124">
         <f t="shared" si="8"/>
         <v>35.561000000000007</v>
       </c>
-      <c r="W12" s="122">
+      <c r="W12" s="120">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X12" s="122">
+      <c r="X12" s="120">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="122">
+      <c r="Y12" s="120">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -17063,55 +17080,55 @@
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="124">
+      <c r="C13" s="122">
         <v>-4.3031750000000004</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="122">
         <v>-5.2692839999999999</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="122">
         <v>-8.6007160000000002</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="122">
         <v>-15.96838</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="123">
         <v>-13.761645</v>
       </c>
       <c r="H13" s="39"/>
       <c r="L13" s="17">
         <v>-3.3770470000000001</v>
       </c>
-      <c r="M13" s="124">
+      <c r="M13" s="122">
         <v>-3.933446</v>
       </c>
-      <c r="N13" s="124">
+      <c r="N13" s="122">
         <v>-4.1432580000000003</v>
       </c>
-      <c r="O13" s="124">
+      <c r="O13" s="122">
         <f>F13-N13-M13-L13</f>
         <v>-4.5146290000000002</v>
       </c>
-      <c r="P13" s="124">
+      <c r="P13" s="122">
         <v>-4.081442</v>
       </c>
-      <c r="Q13" s="124">
+      <c r="Q13" s="122">
         <v>-2.911133</v>
       </c>
-      <c r="R13" s="124">
+      <c r="R13" s="122">
         <v>-3.327998</v>
       </c>
-      <c r="S13" s="124">
+      <c r="S13" s="122">
         <f t="shared" ref="S13:S15" si="9">G13-R13-Q13-P13</f>
         <v>-3.441072000000001</v>
       </c>
-      <c r="T13" s="124">
+      <c r="T13" s="122">
         <v>-2.9140000000000001</v>
       </c>
-      <c r="U13" s="124">
+      <c r="U13" s="122">
         <v>-3.5009999999999999</v>
       </c>
-      <c r="V13" s="125">
+      <c r="V13" s="123">
         <v>-3.923</v>
       </c>
     </row>
@@ -17119,55 +17136,55 @@
       <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="122">
         <v>-0.12629099999999999</v>
       </c>
-      <c r="D14" s="124">
+      <c r="D14" s="122">
         <v>-6.5144999999999995E-2</v>
       </c>
-      <c r="E14" s="124">
+      <c r="E14" s="122">
         <v>-0.225606</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="122">
         <v>1.9334499999999999</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14" s="123">
         <v>0.354487</v>
       </c>
       <c r="H14" s="39"/>
       <c r="L14" s="17">
         <v>0.113487</v>
       </c>
-      <c r="M14" s="124">
+      <c r="M14" s="122">
         <v>1.0787530000000001</v>
       </c>
-      <c r="N14" s="124">
+      <c r="N14" s="122">
         <v>1.456E-2</v>
       </c>
-      <c r="O14" s="124">
+      <c r="O14" s="122">
         <f>F14-N14-M14-L14</f>
         <v>0.72664999999999991</v>
       </c>
-      <c r="P14" s="124">
+      <c r="P14" s="122">
         <v>-9.1560000000000002E-2</v>
       </c>
-      <c r="Q14" s="124">
+      <c r="Q14" s="122">
         <v>5.0126999999999998E-2</v>
       </c>
-      <c r="R14" s="124">
+      <c r="R14" s="122">
         <v>9.6057000000000003E-2</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="122">
         <f t="shared" si="9"/>
         <v>0.29986299999999999</v>
       </c>
-      <c r="T14" s="124">
+      <c r="T14" s="122">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="122">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="V14" s="125">
+      <c r="V14" s="123">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
@@ -17175,20 +17192,20 @@
       <c r="B15" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="122">
         <v>0</v>
       </c>
-      <c r="D15" s="124">
+      <c r="D15" s="122">
         <v>-1.092679</v>
       </c>
-      <c r="E15" s="124">
+      <c r="E15" s="122">
         <f>-0.813806+0.050424</f>
         <v>-0.76338200000000001</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="122">
         <v>-0.45596199999999998</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="123">
         <f>-1.261556-0.259706</f>
         <v>-1.5212619999999999</v>
       </c>
@@ -17196,114 +17213,118 @@
       <c r="L15" s="17">
         <v>-0.42020099999999999</v>
       </c>
-      <c r="M15" s="124">
+      <c r="M15" s="122">
         <v>0.25170599999999999</v>
       </c>
-      <c r="N15" s="124">
+      <c r="N15" s="122">
         <v>8.9227000000000001E-2</v>
       </c>
-      <c r="O15" s="124">
+      <c r="O15" s="122">
         <f>F15-N15-M15-L15</f>
         <v>-0.37669399999999992</v>
       </c>
-      <c r="P15" s="124">
+      <c r="P15" s="122">
         <v>-1.2615559999999999</v>
       </c>
-      <c r="Q15" s="124">
+      <c r="Q15" s="122">
         <v>-0.25970599999999999</v>
       </c>
-      <c r="R15" s="124">
+      <c r="R15" s="122">
         <v>0</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="122">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="125"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="123"/>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="120">
         <f>C12+SUM(C13:C15)</f>
         <v>-32.351775999999994</v>
       </c>
-      <c r="D16" s="122">
-        <f t="shared" ref="D16:H16" si="10">D12+SUM(D13:D15)</f>
+      <c r="D16" s="120">
+        <f t="shared" ref="D16:I16" si="10">D12+SUM(D13:D15)</f>
         <v>-75.109947000000005</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="120">
         <f t="shared" si="10"/>
         <v>-38.024308999999988</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="120">
         <f t="shared" si="10"/>
         <v>7.7095090000000006</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="124">
         <f t="shared" si="10"/>
         <v>67.317145999999966</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>449.16</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="10"/>
+        <v>566.01</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ref="L16" si="11">L12+SUM(L13:L15)</f>
         <v>1.7361700000000018</v>
       </c>
-      <c r="M16" s="122">
+      <c r="M16" s="120">
         <f>M12+SUM(M13:M15)</f>
         <v>1.1603040000000022</v>
       </c>
-      <c r="N16" s="122">
+      <c r="N16" s="120">
         <f t="shared" ref="N16" si="12">N12+SUM(N13:N15)</f>
         <v>1.3102739999999988</v>
       </c>
-      <c r="O16" s="122">
+      <c r="O16" s="120">
         <f t="shared" ref="O16" si="13">O12+SUM(O13:O15)</f>
         <v>3.5027610000000067</v>
       </c>
-      <c r="P16" s="122">
+      <c r="P16" s="120">
         <f t="shared" ref="P16" si="14">P12+SUM(P13:P15)</f>
         <v>8.4000990000000009</v>
       </c>
-      <c r="Q16" s="122">
+      <c r="Q16" s="120">
         <f t="shared" ref="Q16:R16" si="15">Q12+SUM(Q13:Q15)</f>
         <v>13.578667999999997</v>
       </c>
-      <c r="R16" s="122">
+      <c r="R16" s="120">
         <f t="shared" si="15"/>
         <v>17.609230000000004</v>
       </c>
-      <c r="S16" s="122">
+      <c r="S16" s="120">
         <f t="shared" ref="S16:Y16" si="16">S12+SUM(S13:S15)</f>
         <v>27.729148999999968</v>
       </c>
-      <c r="T16" s="122">
+      <c r="T16" s="120">
         <f t="shared" si="16"/>
         <v>47.005999999999993</v>
       </c>
-      <c r="U16" s="122">
+      <c r="U16" s="120">
         <f>U12+SUM(U13:U15)</f>
         <v>32.671999999999997</v>
       </c>
-      <c r="V16" s="126">
+      <c r="V16" s="124">
         <f t="shared" si="16"/>
         <v>31.632000000000009</v>
       </c>
-      <c r="W16" s="126">
+      <c r="W16" s="161">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X16" s="126">
+      <c r="X16" s="161">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="126">
+      <c r="Y16" s="161">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -17312,55 +17333,55 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="122">
         <v>3.0963999999999998E-2</v>
       </c>
-      <c r="D17" s="124">
+      <c r="D17" s="122">
         <v>5.8416000000000003E-2</v>
       </c>
-      <c r="E17" s="124">
+      <c r="E17" s="122">
         <v>6.9446999999999995E-2</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="122">
         <v>0.611487</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="123">
         <v>-11.205164999999999</v>
       </c>
       <c r="H17" s="39"/>
       <c r="L17" s="17">
         <v>1.1624000000000001E-2</v>
       </c>
-      <c r="M17" s="124">
+      <c r="M17" s="122">
         <v>2.0525999999999999E-2</v>
       </c>
-      <c r="N17" s="124">
+      <c r="N17" s="122">
         <v>1.5873999999999999E-2</v>
       </c>
-      <c r="O17" s="124">
+      <c r="O17" s="122">
         <f>F17-N17-M17-L17</f>
         <v>0.56346299999999994</v>
       </c>
-      <c r="P17" s="124">
+      <c r="P17" s="122">
         <v>0.393094</v>
       </c>
-      <c r="Q17" s="124">
+      <c r="Q17" s="122">
         <v>-16.123213</v>
       </c>
-      <c r="R17" s="124">
+      <c r="R17" s="122">
         <v>2.1629890000000001</v>
       </c>
-      <c r="S17" s="124">
+      <c r="S17" s="122">
         <f t="shared" ref="S17:S18" si="17">G17-R17-Q17-P17</f>
         <v>2.361965000000001</v>
       </c>
-      <c r="T17" s="124">
+      <c r="T17" s="122">
         <v>10.842000000000001</v>
       </c>
-      <c r="U17" s="124">
+      <c r="U17" s="122">
         <v>5.0679999999999996</v>
       </c>
-      <c r="V17" s="125">
+      <c r="V17" s="123">
         <v>4.9610000000000003</v>
       </c>
     </row>
@@ -17368,55 +17389,55 @@
       <c r="B18" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="122">
         <v>0.49450499999999997</v>
       </c>
-      <c r="D18" s="124">
+      <c r="D18" s="122">
         <v>6.9405999999999995E-2</v>
       </c>
-      <c r="E18" s="124">
+      <c r="E18" s="122">
         <v>-1.2078850000000001</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="122">
         <v>-3.0249999999999999E-3</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="123">
         <v>0.94079400000000002</v>
       </c>
       <c r="H18" s="39"/>
       <c r="L18" s="17">
         <v>0.14580799999999999</v>
       </c>
-      <c r="M18" s="124">
+      <c r="M18" s="122">
         <v>-0.30468699999999999</v>
       </c>
-      <c r="N18" s="124">
+      <c r="N18" s="122">
         <v>0.35846499999999998</v>
       </c>
-      <c r="O18" s="124">
+      <c r="O18" s="122">
         <f>F18-N18-M18-L18</f>
         <v>-0.20261099999999999</v>
       </c>
-      <c r="P18" s="124">
+      <c r="P18" s="122">
         <v>-1.451E-3</v>
       </c>
-      <c r="Q18" s="124">
+      <c r="Q18" s="122">
         <v>-7.5401999999999997E-2</v>
       </c>
-      <c r="R18" s="124">
+      <c r="R18" s="122">
         <v>-7.1597999999999995E-2</v>
       </c>
-      <c r="S18" s="124">
+      <c r="S18" s="122">
         <f t="shared" si="17"/>
         <v>1.089245</v>
       </c>
-      <c r="T18" s="124">
+      <c r="T18" s="122">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="U18" s="124">
+      <c r="U18" s="122">
         <v>0.72899999999999998</v>
       </c>
-      <c r="V18" s="125">
+      <c r="V18" s="123">
         <v>0.33900000000000002</v>
       </c>
     </row>
@@ -17424,83 +17445,87 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="120">
         <f t="shared" ref="C19:F19" si="18">C16-SUM(C17:C18)</f>
         <v>-32.877244999999995</v>
       </c>
-      <c r="D19" s="122">
+      <c r="D19" s="120">
         <f t="shared" si="18"/>
         <v>-75.237769</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="120">
         <f t="shared" si="18"/>
         <v>-36.885870999999987</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="120">
         <f t="shared" si="18"/>
         <v>7.1010470000000003</v>
       </c>
-      <c r="G19" s="126">
+      <c r="G19" s="124">
         <f>G16-SUM(G17:G18)</f>
         <v>77.581516999999963</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="51">
         <f>H22*H20</f>
-        <v>118.27916999999999</v>
+        <v>122.25797999999999</v>
+      </c>
+      <c r="I19" s="51">
+        <f>I22*I20</f>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ref="L19:M19" si="19">L16-SUM(L17:L18)</f>
         <v>1.5787380000000018</v>
       </c>
-      <c r="M19" s="122">
+      <c r="M19" s="120">
         <f t="shared" si="19"/>
         <v>1.4444650000000023</v>
       </c>
-      <c r="N19" s="122">
+      <c r="N19" s="120">
         <f t="shared" ref="N19" si="20">N16-SUM(N17:N18)</f>
         <v>0.93593499999999885</v>
       </c>
-      <c r="O19" s="122">
+      <c r="O19" s="120">
         <f t="shared" ref="O19" si="21">O16-SUM(O17:O18)</f>
         <v>3.1419090000000067</v>
       </c>
-      <c r="P19" s="122">
+      <c r="P19" s="120">
         <f t="shared" ref="P19" si="22">P16-SUM(P17:P18)</f>
         <v>8.0084560000000007</v>
       </c>
-      <c r="Q19" s="122">
+      <c r="Q19" s="120">
         <f t="shared" ref="Q19:R19" si="23">Q16-SUM(Q17:Q18)</f>
         <v>29.777282999999997</v>
       </c>
-      <c r="R19" s="122">
+      <c r="R19" s="120">
         <f t="shared" si="23"/>
         <v>15.517839000000004</v>
       </c>
-      <c r="S19" s="122">
+      <c r="S19" s="120">
         <f t="shared" ref="S19:Y19" si="24">S16-SUM(S17:S18)</f>
         <v>24.277938999999968</v>
       </c>
-      <c r="T19" s="122">
+      <c r="T19" s="120">
         <f t="shared" si="24"/>
         <v>36.256999999999991</v>
       </c>
-      <c r="U19" s="122">
+      <c r="U19" s="120">
         <f t="shared" si="24"/>
         <v>26.874999999999996</v>
       </c>
-      <c r="V19" s="126">
+      <c r="V19" s="124">
         <f t="shared" si="24"/>
         <v>26.332000000000008</v>
       </c>
-      <c r="W19" s="122">
+      <c r="W19" s="120">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="X19" s="122">
+      <c r="X19" s="120">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="122">
+      <c r="Y19" s="120">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17509,58 +17534,58 @@
       <c r="B20" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="124">
+      <c r="C20" s="122">
         <v>186.842646</v>
       </c>
-      <c r="D20" s="124">
+      <c r="D20" s="122">
         <v>200.34402800000001</v>
       </c>
-      <c r="E20" s="124">
+      <c r="E20" s="122">
         <v>5.4436049999999998</v>
       </c>
-      <c r="F20" s="124">
+      <c r="F20" s="122">
         <v>5.6785269999999999</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="123">
         <v>5.981795</v>
       </c>
-      <c r="H20" s="124">
+      <c r="H20" s="122">
         <f>T20</f>
         <v>36.170999999999999</v>
       </c>
       <c r="L20" s="17">
         <v>5.5568299999999997</v>
       </c>
-      <c r="M20" s="124">
+      <c r="M20" s="122">
         <v>5.6557409999999999</v>
       </c>
-      <c r="N20" s="123">
+      <c r="N20" s="121">
         <v>5.7296649999999998</v>
       </c>
-      <c r="O20" s="124">
+      <c r="O20" s="122">
         <f>F20</f>
         <v>5.6785269999999999</v>
       </c>
-      <c r="P20" s="124">
+      <c r="P20" s="122">
         <v>5.9607679999999998</v>
       </c>
-      <c r="Q20" s="124">
+      <c r="Q20" s="122">
         <v>6.0243779999999996</v>
       </c>
-      <c r="R20" s="124">
+      <c r="R20" s="122">
         <v>5.9058830000000002</v>
       </c>
-      <c r="S20" s="124">
+      <c r="S20" s="122">
         <f>G20</f>
         <v>5.981795</v>
       </c>
-      <c r="T20" s="124">
+      <c r="T20" s="122">
         <v>36.170999999999999</v>
       </c>
-      <c r="U20" s="124">
+      <c r="U20" s="122">
         <v>35.506999999999998</v>
       </c>
-      <c r="V20" s="125">
+      <c r="V20" s="123">
         <v>35.674999999999997</v>
       </c>
     </row>
@@ -17580,15 +17605,20 @@
         <f>E19/E20</f>
         <v>-6.77600064663031</v>
       </c>
-      <c r="F21" s="134">
+      <c r="F21" s="132">
         <f>F19/F20</f>
         <v>1.2505086266209531</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="50">
         <f>G19/G20</f>
         <v>12.969604775823973</v>
       </c>
-      <c r="H21" s="52"/>
+      <c r="H21" s="163">
+        <v>3.27</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4.2699999999999996</v>
+      </c>
       <c r="L21" s="2">
         <f t="shared" ref="L21:M21" si="25">(L19+L18)/L20</f>
         <v>0.3103470863783851</v>
@@ -17633,13 +17663,13 @@
         <f t="shared" si="27"/>
         <v>0.74761037140854969</v>
       </c>
-      <c r="W21" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="2" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="W21" s="8">
+        <f>W22</f>
+        <v>0.98</v>
+      </c>
+      <c r="X21" s="8">
+        <f>X22</f>
+        <v>1.22</v>
       </c>
       <c r="Y21" s="2" t="e">
         <f t="shared" si="27"/>
@@ -17654,34 +17684,37 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="136">
+      <c r="G22" s="134">
         <v>6.73</v>
       </c>
-      <c r="H22" s="43">
-        <v>3.27</v>
+      <c r="H22" s="42">
+        <v>3.38</v>
       </c>
       <c r="I22" s="1">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44">
+        <v>4.38</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43">
         <v>0.89</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="139">
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="137">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V22" s="140">
+      <c r="V22" s="138">
         <v>0.65</v>
       </c>
       <c r="W22" s="1">
-        <v>0.9</v>
+        <v>0.98</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.22</v>
       </c>
     </row>
     <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17708,13 +17741,13 @@
         <f t="shared" ref="G23:I23" si="29">1-(G6)/G3</f>
         <v>0.81055306777919456</v>
       </c>
-      <c r="H23" s="38" t="e">
+      <c r="H23" s="38">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="I23" s="38">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L23" s="38">
         <f t="shared" ref="L23:S23" si="30">1-(L6)/L3</f>
@@ -17797,13 +17830,13 @@
         <f t="shared" ref="G24:I24" si="33">G19/G3</f>
         <v>0.28614362395546977</v>
       </c>
-      <c r="H24" s="3" t="e">
+      <c r="H24" s="3">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="3" t="e">
+        <v>0.27219249265295214</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" ref="L24:Q24" si="34">L19/L3</f>
@@ -17853,85 +17886,87 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="e">
+      <c r="X24" s="3">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:25" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="127" t="s">
+    <row r="25" spans="2:25" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128">
+      <c r="C25" s="162"/>
+      <c r="D25" s="126">
         <f>D3/C3-1</f>
         <v>0.95305337511785693</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="127">
         <f>E3/D3-1</f>
         <v>9.3660696466152382E-2</v>
       </c>
-      <c r="F25" s="129">
+      <c r="F25" s="127">
         <f>F3/E3-1</f>
         <v>0.26906277250392074</v>
       </c>
-      <c r="G25" s="130">
+      <c r="G25" s="128">
         <f t="shared" ref="G25:I25" si="37">G3/F3-1</f>
         <v>0.70138919480622985</v>
       </c>
-      <c r="H25" s="129">
+      <c r="H25" s="127">
         <f t="shared" si="37"/>
-        <v>-1</v>
-      </c>
-      <c r="I25" s="129" t="e">
+        <v>0.65663517685325568</v>
+      </c>
+      <c r="I25" s="127">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129">
+        <v>0.2601522842639592</v>
+      </c>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="127">
         <f t="shared" ref="P25" si="38">P3/L3-1</f>
         <v>0.3548885312214991</v>
       </c>
-      <c r="Q25" s="129">
+      <c r="Q25" s="127">
         <f t="shared" ref="Q25:V25" si="39">Q3/M3-1</f>
         <v>0.60195322154471387</v>
       </c>
-      <c r="R25" s="129">
+      <c r="R25" s="127">
         <f t="shared" si="39"/>
         <v>0.71279372070468461</v>
       </c>
-      <c r="S25" s="129">
+      <c r="S25" s="127">
         <f t="shared" si="39"/>
         <v>1.0085909474100725</v>
       </c>
-      <c r="T25" s="129">
+      <c r="T25" s="127">
         <f t="shared" si="39"/>
         <v>1.2331854093501313</v>
       </c>
-      <c r="U25" s="129">
+      <c r="U25" s="127">
         <f t="shared" si="39"/>
         <v>0.76352754106974974</v>
       </c>
-      <c r="V25" s="130">
+      <c r="V25" s="128">
         <f t="shared" si="39"/>
         <v>0.66952336948913893</v>
       </c>
-      <c r="W25" s="129">
+      <c r="W25" s="127">
         <f>W4/S3-1</f>
-        <v>0.34744325823284306</v>
-      </c>
-      <c r="X25" s="129">
+        <v>0.31242093251829073</v>
+      </c>
+      <c r="X25" s="127">
         <f t="shared" ref="X25:Y25" si="40">X4/T3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Y25" s="129">
+        <v>0.22102333384169581</v>
+      </c>
+      <c r="Y25" s="127">
         <f t="shared" si="40"/>
         <v>-1</v>
       </c>
@@ -17960,13 +17995,13 @@
         <f t="shared" ref="G26:I26" si="41">G8/G3</f>
         <v>3.5923132068781269E-2</v>
       </c>
-      <c r="H26" s="3" t="e">
+      <c r="H26" s="3">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" ref="L26:S26" si="42">L8/L3</f>
@@ -18049,13 +18084,13 @@
         <f t="shared" ref="G27:I27" si="45">G5/G3</f>
         <v>0.19092452642920654</v>
       </c>
-      <c r="H27" s="3" t="e">
+      <c r="H27" s="3">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" ref="L27:S27" si="46">L5/L3</f>
@@ -18138,13 +18173,13 @@
         <f t="shared" ref="G28:I28" si="49">G11/G3</f>
         <v>0</v>
       </c>
-      <c r="H28" s="3" t="e">
+      <c r="H28" s="3">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" ref="L28:S28" si="50">L11/L3</f>
@@ -18203,76 +18238,78 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:25" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="127" t="s">
+    <row r="29" spans="2:25" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128">
+      <c r="C29" s="126"/>
+      <c r="D29" s="126">
         <f>-(D19/C19-1)</f>
         <v>-1.2884450628390551</v>
       </c>
-      <c r="E29" s="129">
+      <c r="E29" s="127">
         <f>E19/D19-1</f>
         <v>-0.50974262673844062</v>
       </c>
-      <c r="F29" s="129">
+      <c r="F29" s="127">
         <f>F21/E21-1</f>
         <v>-1.1845496616419049</v>
       </c>
-      <c r="G29" s="130">
+      <c r="G29" s="128">
         <f t="shared" ref="G29" si="53">G21/F21-1</f>
         <v>9.3714636586471496</v>
       </c>
-      <c r="H29" s="129">
+      <c r="H29" s="127">
         <f>H22/(G21*G20/H20)-1</f>
-        <v>0.52457923708813348</v>
-      </c>
-      <c r="I29" s="129">
+        <v>0.57586477717366691</v>
+      </c>
+      <c r="I29" s="127">
         <f>I22/(H22)-1</f>
-        <v>0.30581039755351669</v>
-      </c>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129">
+        <v>0.29585798816568043</v>
+      </c>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="127">
         <f t="shared" ref="P29" si="54">P21/L21-1</f>
         <v>3.3283284406211981</v>
       </c>
-      <c r="Q29" s="129">
+      <c r="Q29" s="127">
         <f>Q21/M21-1</f>
         <v>23.46476131398072</v>
       </c>
-      <c r="R29" s="129">
+      <c r="R29" s="127">
         <f>R21/N21-1</f>
         <v>10.577070923879727</v>
       </c>
-      <c r="S29" s="129">
+      <c r="S29" s="127">
         <f>S21/O21-1</f>
         <v>7.1928086112209204</v>
       </c>
-      <c r="T29" s="129">
+      <c r="T29" s="127">
         <f>T21/(P21*P20/T20)-1</f>
         <v>3.5165452001091522</v>
       </c>
-      <c r="U29" s="129">
+      <c r="U29" s="127">
         <f>U21/(Q21*Q20/U20)-1</f>
         <v>-7.0631250593186423E-2</v>
       </c>
-      <c r="V29" s="130">
+      <c r="V29" s="128">
         <f t="shared" ref="V29:Y29" si="55">V22/(R21*R20/U20)-1</f>
         <v>0.49418554326583353</v>
       </c>
-      <c r="W29" s="129">
-        <f t="shared" si="55"/>
-        <v>0.26571006068312664</v>
-      </c>
-      <c r="X29" s="129" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="129" t="e">
+      <c r="W29" s="127">
+        <f>W22/(S21*S20/V20)-1</f>
+        <v>0.37821762163273775</v>
+      </c>
+      <c r="X29" s="127">
+        <f>X22/(T21*T20/V20)-1</f>
+        <v>0.20350348412786223</v>
+      </c>
+      <c r="Y29" s="127" t="e">
         <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
@@ -18281,87 +18318,87 @@
       <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="46">
         <f>C13/C3</f>
         <v>-7.3197846788253168E-2</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="46">
         <f>D13/D3</f>
         <v>-4.5893036318300044E-2</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="46">
         <f>E13/E3</f>
         <v>-6.8493157557677126E-2</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="46">
         <f>F13/F3</f>
         <v>-0.10020521751030448</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="47">
         <f t="shared" ref="G30:I30" si="56">G13/G3</f>
         <v>-5.075702466463336E-2</v>
       </c>
-      <c r="H30" s="47" t="e">
+      <c r="H30" s="46">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="I30" s="46">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="47">
+        <v>0</v>
+      </c>
+      <c r="L30" s="46">
         <f t="shared" ref="L30:S30" si="57">L13/L3</f>
         <v>-9.7395812949690505E-2</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="46">
         <f t="shared" si="57"/>
         <v>-0.11258468475211493</v>
       </c>
-      <c r="N30" s="47">
+      <c r="N30" s="46">
         <f t="shared" si="57"/>
         <v>-0.1014405447666855</v>
       </c>
-      <c r="O30" s="47">
+      <c r="O30" s="46">
         <f t="shared" si="57"/>
         <v>-9.232091670036538E-2</v>
       </c>
-      <c r="P30" s="47">
+      <c r="P30" s="46">
         <f t="shared" si="57"/>
         <v>-8.6878686170398234E-2</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="46">
         <f>Q13/Q3</f>
         <v>-5.2013770959220725E-2</v>
       </c>
-      <c r="R30" s="47">
+      <c r="R30" s="46">
         <f>R13/R3</f>
         <v>-4.7571581514890195E-2</v>
       </c>
-      <c r="S30" s="47">
+      <c r="S30" s="46">
         <f t="shared" si="57"/>
         <v>-3.5033239648612068E-2</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T30" s="46">
         <f t="shared" ref="T30:U30" si="58">T13/T3</f>
         <v>-2.7775659600427025E-2</v>
       </c>
-      <c r="U30" s="47">
+      <c r="U30" s="46">
         <f t="shared" si="58"/>
         <v>-3.5470405868168832E-2</v>
       </c>
-      <c r="V30" s="48">
+      <c r="V30" s="47">
         <f t="shared" ref="V30:Y30" si="59">V13/V3</f>
         <v>-3.3588479057501966E-2</v>
       </c>
-      <c r="W30" s="47" t="e">
+      <c r="W30" s="46" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="47" t="e">
+      <c r="X30" s="46" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y30" s="47" t="e">
+      <c r="Y30" s="46" t="e">
         <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
@@ -18370,87 +18407,87 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="48">
         <f t="shared" ref="C31:F31" si="60">-C13/C12</f>
         <v>-0.1541124283771651</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="48">
         <f t="shared" si="60"/>
         <v>-7.671907679879103E-2</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="48">
         <f t="shared" si="60"/>
         <v>-0.30247355291202405</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="46">
         <f t="shared" si="60"/>
         <v>0.71928340393491097</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="47">
         <f t="shared" ref="G31:I31" si="61">-G13/G12</f>
         <v>0.16732385305731867</v>
       </c>
-      <c r="H31" s="47" t="e">
+      <c r="H31" s="46">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="I31" s="46">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="49">
+        <v>0</v>
+      </c>
+      <c r="L31" s="48">
         <f t="shared" ref="L31:S31" si="62">-L13/L12</f>
         <v>0.62307933440481045</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="48">
         <f t="shared" si="62"/>
         <v>1.0452144147237079</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="48">
         <f t="shared" si="62"/>
         <v>0.77447766201940493</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="48">
         <f t="shared" si="62"/>
         <v>0.58880572040137491</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="48">
         <f t="shared" si="62"/>
         <v>0.2950157709005724</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="46">
         <f>-Q13/Q12</f>
         <v>0.1743258132936672</v>
       </c>
-      <c r="R31" s="47">
+      <c r="R31" s="46">
         <f t="shared" si="62"/>
         <v>0.15968382966580907</v>
       </c>
-      <c r="S31" s="47">
+      <c r="S31" s="46">
         <f t="shared" si="62"/>
         <v>0.11146848377981249</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="46">
         <f t="shared" ref="T31:U31" si="63">-T13/T12</f>
         <v>5.8402645555666911E-2</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="46">
         <f t="shared" si="63"/>
         <v>9.7018234218256394E-2</v>
       </c>
-      <c r="V31" s="48">
+      <c r="V31" s="47">
         <f t="shared" ref="V31:Y31" si="64">-V13/V12</f>
         <v>0.11031748263547142</v>
       </c>
-      <c r="W31" s="47" t="e">
+      <c r="W31" s="46" t="e">
         <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X31" s="47" t="e">
+      <c r="X31" s="46" t="e">
         <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y31" s="47" t="e">
+      <c r="Y31" s="46" t="e">
         <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
@@ -18567,7 +18604,7 @@
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="124">
+      <c r="N35" s="122">
         <v>65.150279999999995</v>
       </c>
       <c r="O35" s="9">
@@ -18618,7 +18655,7 @@
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="124">
+      <c r="N36" s="122">
         <v>1.5804180000000001</v>
       </c>
       <c r="O36" s="9">
@@ -18669,7 +18706,7 @@
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="124">
+      <c r="N37" s="122">
         <v>111.146024</v>
       </c>
       <c r="O37" s="9">
@@ -18716,7 +18753,7 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="124">
+      <c r="N38" s="122">
         <v>-8.5979419999999998</v>
       </c>
       <c r="O38" s="9">
@@ -20119,15 +20156,15 @@
       <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="137">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="135">
         <f>G19/G62</f>
         <v>1.0892481418664739</v>
       </c>
-      <c r="H64" s="131" t="e">
+      <c r="H64" s="129" t="e">
         <f>H19/H62</f>
         <v>#DIV/0!</v>
       </c>
@@ -20144,7 +20181,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P37:V37">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20152,6 +20189,42 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:Y25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:I25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:I29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -20177,46 +20250,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="138">
+      <c r="B1" s="136">
         <v>45413</v>
       </c>
-      <c r="C1" s="138">
+      <c r="C1" s="136">
         <v>45444</v>
       </c>
-      <c r="D1" s="138">
+      <c r="D1" s="136">
         <v>45474</v>
       </c>
-      <c r="E1" s="138">
+      <c r="E1" s="136">
         <v>45505</v>
       </c>
-      <c r="F1" s="138">
+      <c r="F1" s="136">
         <v>45536</v>
       </c>
-      <c r="G1" s="138">
+      <c r="G1" s="136">
         <v>45566</v>
       </c>
-      <c r="H1" s="138">
+      <c r="H1" s="136">
         <v>45597</v>
       </c>
-      <c r="I1" s="138">
+      <c r="I1" s="136">
         <v>45627</v>
       </c>
-      <c r="J1" s="138">
+      <c r="J1" s="136">
         <v>45658</v>
       </c>
-      <c r="K1" s="138">
+      <c r="K1" s="136">
         <v>45689</v>
       </c>
-      <c r="L1" s="138">
+      <c r="L1" s="136">
         <v>45717</v>
       </c>
-      <c r="M1" s="138">
+      <c r="M1" s="136">
         <v>45748</v>
       </c>
-      <c r="N1" s="138">
+      <c r="N1" s="136">
         <v>45778</v>
       </c>
-      <c r="O1" s="138">
+      <c r="O1" s="136">
         <v>45809</v>
       </c>
     </row>
@@ -20495,41 +20568,41 @@
       <c r="A5" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="131">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133">
+      <c r="C5" s="131"/>
+      <c r="D5" s="131">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="131">
         <v>0.94699999999999995</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F5" s="131">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="131">
         <v>0.95299999999999996</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="131">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I5" s="133">
+      <c r="I5" s="131">
         <v>0.95499999999999996</v>
       </c>
-      <c r="J5" s="133">
+      <c r="J5" s="131">
         <v>0.95699999999999996</v>
       </c>
-      <c r="K5" s="133">
+      <c r="K5" s="131">
         <v>0.96</v>
       </c>
-      <c r="L5" s="133">
+      <c r="L5" s="131">
         <v>0.96199999999999997</v>
       </c>
-      <c r="M5" s="133">
+      <c r="M5" s="131">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N5" s="133">
+      <c r="N5" s="131">
         <v>0.96599999999999997</v>
       </c>
     </row>
@@ -20633,43 +20706,43 @@
       <c r="A9" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132">
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130">
         <f>F2/B2-1</f>
         <v>1.3863636363636362</v>
       </c>
-      <c r="G9" s="132" t="e">
+      <c r="G9" s="130" t="e">
         <f t="shared" ref="G9:I9" si="0">G2/C2-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="130">
         <f>H2/D2-1</f>
         <v>1.612676056338028</v>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="130">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="J9" s="132">
+      <c r="J9" s="130">
         <f t="shared" ref="J9" si="1">J2/F2-1</f>
         <v>1.519047619047619</v>
       </c>
-      <c r="K9" s="132">
+      <c r="K9" s="130">
         <f t="shared" ref="K9" si="2">K2/G2-1</f>
         <v>1.3029315960912053</v>
       </c>
-      <c r="L9" s="132">
+      <c r="L9" s="130">
         <f t="shared" ref="L9:N9" si="3">L2/H2-1</f>
         <v>0.77358490566037741</v>
       </c>
-      <c r="M9" s="132">
+      <c r="M9" s="130">
         <f t="shared" si="3"/>
         <v>0.61904761904761907</v>
       </c>
-      <c r="N9" s="132">
+      <c r="N9" s="130">
         <f t="shared" si="3"/>
         <v>0.48204158790170126</v>
       </c>
@@ -20678,43 +20751,43 @@
       <c r="A10" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130">
         <f>F7/B7-1</f>
         <v>0.24891067538126355</v>
       </c>
-      <c r="G10" s="132" t="e">
+      <c r="G10" s="130" t="e">
         <f t="shared" ref="G10:I10" si="4">G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="130">
         <f t="shared" si="4"/>
         <v>0.4591309632330598</v>
       </c>
-      <c r="I10" s="132">
+      <c r="I10" s="130">
         <f t="shared" si="4"/>
         <v>0.47308699447192315</v>
       </c>
-      <c r="J10" s="132">
+      <c r="J10" s="130">
         <f t="shared" ref="J10" si="5">J7/F7-1</f>
         <v>0.36153510684692547</v>
       </c>
-      <c r="K10" s="132">
+      <c r="K10" s="130">
         <f t="shared" ref="K10" si="6">K7/G7-1</f>
         <v>0.33761342235918512</v>
       </c>
-      <c r="L10" s="132">
+      <c r="L10" s="130">
         <f t="shared" ref="L10:N10" si="7">L7/H7-1</f>
         <v>0.52269887546855487</v>
       </c>
-      <c r="M10" s="132">
+      <c r="M10" s="130">
         <f t="shared" si="7"/>
         <v>0.62630851273948251</v>
       </c>
-      <c r="N10" s="132">
+      <c r="N10" s="130">
         <f t="shared" si="7"/>
         <v>0.52674567584881493</v>
       </c>
@@ -20749,17 +20822,17 @@
       <c r="A14" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141">
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139">
         <f>L13/H13-1</f>
         <v>0.64136391313172325</v>
       </c>
-      <c r="M14" s="141">
+      <c r="M14" s="139">
         <f>M13/I13-1</f>
         <v>0.74182638105975185</v>
       </c>
-      <c r="N14" s="141">
+      <c r="N14" s="139">
         <f>N13/J13-1</f>
         <v>0.58705864524928009</v>
       </c>
@@ -20768,31 +20841,31 @@
       <c r="A16" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="141">
+      <c r="H16" s="139">
         <f>Model!P3/KPIs!H13</f>
         <v>9.5349368784250058E-2</v>
       </c>
-      <c r="I16" s="141">
+      <c r="I16" s="139">
         <f>Model!Q3/KPIs!I13</f>
         <v>0.10516442127019916</v>
       </c>
-      <c r="J16" s="141">
+      <c r="J16" s="139">
         <f>Model!R3/KPIs!J13</f>
         <v>0.10601256402485225</v>
       </c>
-      <c r="K16" s="141">
+      <c r="K16" s="139">
         <f>Model!S3/KPIs!K13</f>
         <v>0.1148270516717325</v>
       </c>
-      <c r="L16" s="141">
+      <c r="L16" s="139">
         <f>Model!T3/KPIs!L13</f>
         <v>0.12972919500432795</v>
       </c>
-      <c r="M16" s="141">
+      <c r="M16" s="139">
         <f>Model!U3/KPIs!M13</f>
         <v>0.10647464940668824</v>
       </c>
-      <c r="N16" s="141">
+      <c r="N16" s="139">
         <f>Model!V3/KPIs!N13</f>
         <v>0.11152105413921513</v>
       </c>
@@ -20857,13 +20930,13 @@
       <c r="A21" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="161">
+      <c r="B21" s="140">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="C21" s="161">
+      <c r="C21" s="140">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D21" s="161">
+      <c r="D21" s="140">
         <v>2.18E-2</v>
       </c>
       <c r="E21" s="17">
@@ -20890,18 +20963,18 @@
         <f>E21/G21</f>
         <v>46.454545454545453</v>
       </c>
-      <c r="N21" s="132">
+      <c r="N21" s="130">
         <v>1</v>
       </c>
-      <c r="P21" s="132">
+      <c r="P21" s="130">
         <f>J21/I21-1</f>
         <v>0.28774928774928776</v>
       </c>
-      <c r="R21" s="162">
+      <c r="R21" s="141">
         <f>11567/I21</f>
         <v>3.2954415954415954</v>
       </c>
-      <c r="S21" s="162">
+      <c r="S21" s="141">
         <f>11567/J21</f>
         <v>2.5590707964601771</v>
       </c>
@@ -20910,7 +20983,7 @@
       <c r="A22" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="140">
         <v>2.4E-2</v>
       </c>
       <c r="E22">
@@ -20937,19 +21010,19 @@
         <f t="shared" ref="L22:L24" si="9">E22/G22</f>
         <v>17.783289817232376</v>
       </c>
-      <c r="N22" s="132">
+      <c r="N22" s="130">
         <f t="shared" ref="N22:N24" si="10">G22/F22-1</f>
         <v>0.23151125401929273</v>
       </c>
-      <c r="P22" s="132">
+      <c r="P22" s="130">
         <f t="shared" ref="P22:P24" si="11">J22/I22-1</f>
         <v>0.24019607843137258</v>
       </c>
-      <c r="R22" s="162">
+      <c r="R22" s="141">
         <f>22481/I22</f>
         <v>5.5100490196078429</v>
       </c>
-      <c r="S22" s="162">
+      <c r="S22" s="141">
         <f>22481/J22</f>
         <v>4.4428853754940709</v>
       </c>
@@ -20982,19 +21055,19 @@
         <f t="shared" si="9"/>
         <v>15.456621004566211</v>
       </c>
-      <c r="N23" s="132">
+      <c r="N23" s="130">
         <f t="shared" si="10"/>
         <v>0.29585798816568043</v>
       </c>
-      <c r="P23" s="132">
+      <c r="P23" s="130">
         <f t="shared" si="11"/>
         <v>0.2601522842639592</v>
       </c>
-      <c r="R23" s="162">
+      <c r="R23" s="141">
         <f>2312/I23</f>
         <v>5.1473862320776558</v>
       </c>
-      <c r="S23" s="162">
+      <c r="S23" s="141">
         <f>2312/J23</f>
         <v>4.0847334852741115</v>
       </c>
@@ -21027,19 +21100,19 @@
         <f t="shared" si="9"/>
         <v>10.494845360824742</v>
       </c>
-      <c r="N24" s="132">
+      <c r="N24" s="130">
         <f t="shared" si="10"/>
         <v>8.7850467289719791E-2</v>
       </c>
-      <c r="P24" s="132">
+      <c r="P24" s="130">
         <f t="shared" si="11"/>
         <v>5.9723889555822307E-2</v>
       </c>
-      <c r="R24" s="162">
+      <c r="R24" s="141">
         <f>58393/I24</f>
         <v>1.7524909963985593</v>
       </c>
-      <c r="S24" s="162">
+      <c r="S24" s="141">
         <f>58393/J24</f>
         <v>1.6537241574624753</v>
       </c>
@@ -29448,34 +29521,34 @@
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="64" t="s">
         <v>90</v>
       </c>
     </row>
@@ -29484,27 +29557,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="67" t="e">
+      <c r="H4" s="65" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="68" t="e">
+      <c r="I4" s="66" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="67">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="69" t="e">
+      <c r="K4" s="67" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="70" t="e">
+      <c r="L4" s="68" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="71" t="e">
+      <c r="M4" s="69" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -29514,27 +29587,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="72" t="e">
+      <c r="H5" s="70" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="73" t="e">
+      <c r="I5" s="71" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="72">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="75" t="e">
+      <c r="K5" s="73" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="76" t="e">
+      <c r="L5" s="74" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="77" t="e">
+      <c r="M5" s="75" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -29544,27 +29617,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="72" t="e">
+      <c r="H6" s="70" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="73" t="e">
+      <c r="I6" s="71" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="72">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="75" t="e">
+      <c r="K6" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="76" t="e">
+      <c r="L6" s="74" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="77" t="e">
+      <c r="M6" s="75" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -29574,27 +29647,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="72" t="e">
+      <c r="H7" s="70" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="73" t="e">
+      <c r="I7" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="75" t="e">
+      <c r="K7" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="76" t="e">
+      <c r="L7" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="77" t="e">
+      <c r="M7" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29604,27 +29677,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="72" t="e">
+      <c r="H8" s="70" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="73" t="e">
+      <c r="I8" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="75" t="e">
+      <c r="K8" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="76" t="e">
+      <c r="L8" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="77" t="e">
+      <c r="M8" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29634,27 +29707,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="72" t="e">
+      <c r="H9" s="70" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="73" t="e">
+      <c r="I9" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="75" t="e">
+      <c r="K9" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="76" t="e">
+      <c r="L9" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="77" t="e">
+      <c r="M9" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29664,27 +29737,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="72" t="e">
+      <c r="H10" s="70" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="73" t="e">
+      <c r="I10" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="75" t="e">
+      <c r="K10" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="76" t="e">
+      <c r="L10" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="77" t="e">
+      <c r="M10" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29694,27 +29767,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="72" t="e">
+      <c r="H11" s="70" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="73" t="e">
+      <c r="I11" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="75" t="e">
+      <c r="K11" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="76" t="e">
+      <c r="L11" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="77" t="e">
+      <c r="M11" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29724,27 +29797,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="72" t="e">
+      <c r="H12" s="70" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="73" t="e">
+      <c r="I12" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="75" t="e">
+      <c r="K12" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="76" t="e">
+      <c r="L12" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="77" t="e">
+      <c r="M12" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29754,27 +29827,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="72" t="e">
+      <c r="H13" s="70" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="73" t="e">
+      <c r="I13" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="75" t="e">
+      <c r="K13" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="76" t="e">
+      <c r="L13" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="77" t="e">
+      <c r="M13" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29784,27 +29857,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="72" t="e">
+      <c r="H14" s="70" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="73" t="e">
+      <c r="I14" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="75" t="e">
+      <c r="K14" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="76" t="e">
+      <c r="L14" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="77" t="e">
+      <c r="M14" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29814,23 +29887,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="77">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="79" t="e">
+      <c r="K15" s="77" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="80" t="e">
+      <c r="L15" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="80" t="e">
+      <c r="M15" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -29840,8 +29913,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="M16" s="82"/>
+      <c r="H16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
@@ -29852,7 +29925,7 @@
         <v>122</v>
       </c>
       <c r="I17" s="155"/>
-      <c r="M17" s="82"/>
+      <c r="M17" s="80"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
@@ -29861,328 +29934,328 @@
       </c>
       <c r="H18" s="156"/>
       <c r="I18" s="157"/>
-      <c r="M18" s="82"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="119" t="e">
+      <c r="I19" s="117" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="82"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="83" t="s">
+      <c r="H20" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="119" t="e">
+      <c r="I20" s="117" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="82"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="83" t="s">
+      <c r="H21" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="119" t="e">
+      <c r="I21" s="117" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="82"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="83" t="s">
+      <c r="H22" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="119" t="e">
+      <c r="I22" s="117" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="82"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="119" t="e">
+      <c r="I23" s="117" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="82"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="119" t="e">
+      <c r="I24" s="117" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="82"/>
+      <c r="M24" s="80"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="120" t="e">
+      <c r="I25" s="118" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="82"/>
+      <c r="M25" s="80"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="83" t="s">
+      <c r="H26" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="120" t="e">
+      <c r="I26" s="118" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="82"/>
+      <c r="M26" s="80"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="83" t="s">
+      <c r="H27" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="119" t="e">
+      <c r="I27" s="117" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="82"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="119" t="e">
+      <c r="I28" s="117" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="82"/>
+      <c r="M28" s="80"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="119" t="e">
+      <c r="I29" s="117" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="82"/>
+      <c r="M29" s="80"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="120" t="e">
+      <c r="I30" s="118" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="82"/>
+      <c r="M30" s="80"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="59">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="82"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="86"/>
-      <c r="M32" s="82"/>
+      <c r="H32" s="84"/>
+      <c r="M32" s="80"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88" t="s">
+      <c r="H33" s="85"/>
+      <c r="I33" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="J33" s="88" t="s">
+      <c r="J33" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="88" t="s">
+      <c r="K33" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="L33" s="89" t="s">
+      <c r="L33" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="82"/>
+      <c r="M33" s="80"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="90" t="s">
+      <c r="H34" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="76" t="e">
+      <c r="I34" s="74" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="74">
+      <c r="J34" s="72">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="76" t="e">
+      <c r="K34" s="74" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="77" t="e">
+      <c r="L34" s="75" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="82"/>
+      <c r="M34" s="80"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="76" t="e">
+      <c r="I35" s="74" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="74">
+      <c r="J35" s="72">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="76" t="e">
+      <c r="K35" s="74" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="77" t="e">
+      <c r="L35" s="75" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="82"/>
+      <c r="M35" s="80"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="79">
+      <c r="I36" s="77">
         <v>0</v>
       </c>
-      <c r="J36" s="79">
+      <c r="J36" s="77">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="92" t="e">
+      <c r="K36" s="90" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="80" t="e">
+      <c r="L36" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="82"/>
+      <c r="M36" s="80"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="86"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="82"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="80"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="H38" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="88" t="s">
+      <c r="I38" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="J38" s="88" t="s">
+      <c r="J38" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="K38" s="88" t="s">
+      <c r="K38" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="L38" s="88" t="s">
+      <c r="L38" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="M38" s="89" t="s">
+      <c r="M38" s="87" t="s">
         <v>115</v>
       </c>
     </row>
@@ -30191,26 +30264,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="94">
+      <c r="H39" s="92">
         <v>1</v>
       </c>
-      <c r="I39" s="76" t="e">
+      <c r="I39" s="74" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="76" t="e">
+      <c r="J39" s="74" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="74">
+      <c r="K39" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="76" t="e">
+      <c r="L39" s="74" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="77">
+      <c r="M39" s="75">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -30219,26 +30292,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="94">
+      <c r="H40" s="92">
         <v>2</v>
       </c>
-      <c r="I40" s="76" t="e">
+      <c r="I40" s="74" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="76" t="e">
+      <c r="J40" s="74" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="74">
+      <c r="K40" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="76" t="e">
+      <c r="L40" s="74" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="75">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -30247,26 +30320,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="94">
+      <c r="H41" s="92">
         <v>3</v>
       </c>
-      <c r="I41" s="76" t="e">
+      <c r="I41" s="74" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="76" t="e">
+      <c r="J41" s="74" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="74">
+      <c r="K41" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="76" t="e">
+      <c r="L41" s="74" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="95">
+      <c r="M41" s="93">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -30275,8 +30348,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="M42" s="95"/>
+      <c r="H42" s="70"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
@@ -30297,24 +30370,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="96">
+      <c r="H44" s="94">
         <v>0.01</v>
       </c>
-      <c r="I44" s="97" t="e">
+      <c r="I44" s="95" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="98">
+      <c r="J44" s="96">
         <v>0.2</v>
       </c>
-      <c r="K44" s="97" t="e">
+      <c r="K44" s="95" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="98">
+      <c r="L44" s="96">
         <v>0.85</v>
       </c>
-      <c r="M44" s="99" t="e">
+      <c r="M44" s="97" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -30324,24 +30397,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="100">
+      <c r="H45" s="98">
         <v>0.02</v>
       </c>
-      <c r="I45" s="101" t="e">
+      <c r="I45" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="102">
+      <c r="J45" s="100">
         <v>0.25</v>
       </c>
-      <c r="K45" s="101" t="e">
+      <c r="K45" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="102">
+      <c r="L45" s="100">
         <v>0.86</v>
       </c>
-      <c r="M45" s="103" t="e">
+      <c r="M45" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30351,24 +30424,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="100">
+      <c r="H46" s="98">
         <v>0.03</v>
       </c>
-      <c r="I46" s="101" t="e">
+      <c r="I46" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="102">
+      <c r="J46" s="100">
         <v>0.3</v>
       </c>
-      <c r="K46" s="101" t="e">
+      <c r="K46" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="102">
+      <c r="L46" s="100">
         <v>0.87</v>
       </c>
-      <c r="M46" s="103" t="e">
+      <c r="M46" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30378,24 +30451,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="100">
+      <c r="H47" s="98">
         <v>0.04</v>
       </c>
-      <c r="I47" s="101" t="e">
+      <c r="I47" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="102">
+      <c r="J47" s="100">
         <v>0.35</v>
       </c>
-      <c r="K47" s="101" t="e">
+      <c r="K47" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="102">
+      <c r="L47" s="100">
         <v>0.88</v>
       </c>
-      <c r="M47" s="103" t="e">
+      <c r="M47" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30405,24 +30478,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="100">
+      <c r="H48" s="98">
         <v>0.05</v>
       </c>
-      <c r="I48" s="101" t="e">
+      <c r="I48" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="102">
+      <c r="J48" s="100">
         <v>0.4</v>
       </c>
-      <c r="K48" s="101" t="e">
+      <c r="K48" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="102">
+      <c r="L48" s="100">
         <v>0.89</v>
       </c>
-      <c r="M48" s="103" t="e">
+      <c r="M48" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30432,24 +30505,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="100">
+      <c r="H49" s="98">
         <v>0.06</v>
       </c>
-      <c r="I49" s="101" t="e">
+      <c r="I49" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="102">
+      <c r="J49" s="100">
         <v>0.45</v>
       </c>
-      <c r="K49" s="101" t="e">
+      <c r="K49" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="102">
+      <c r="L49" s="100">
         <v>0.9</v>
       </c>
-      <c r="M49" s="103" t="e">
+      <c r="M49" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30459,24 +30532,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="100">
+      <c r="H50" s="98">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="101" t="e">
+      <c r="I50" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="102">
+      <c r="J50" s="100">
         <v>0.5</v>
       </c>
-      <c r="K50" s="101" t="e">
+      <c r="K50" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="102">
+      <c r="L50" s="100">
         <v>0.91</v>
       </c>
-      <c r="M50" s="103" t="e">
+      <c r="M50" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30486,24 +30559,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="100">
+      <c r="H51" s="98">
         <v>0.08</v>
       </c>
-      <c r="I51" s="101" t="e">
+      <c r="I51" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="102">
+      <c r="J51" s="100">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="101" t="e">
+      <c r="K51" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="102">
+      <c r="L51" s="100">
         <v>0.92</v>
       </c>
-      <c r="M51" s="103" t="e">
+      <c r="M51" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30513,24 +30586,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="100">
+      <c r="H52" s="98">
         <v>0.09</v>
       </c>
-      <c r="I52" s="101" t="e">
+      <c r="I52" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="102">
+      <c r="J52" s="100">
         <v>0.6</v>
       </c>
-      <c r="K52" s="101" t="e">
+      <c r="K52" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="102">
+      <c r="L52" s="100">
         <v>0.93</v>
       </c>
-      <c r="M52" s="103" t="e">
+      <c r="M52" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30540,24 +30613,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="100">
+      <c r="H53" s="98">
         <v>0.1</v>
       </c>
-      <c r="I53" s="101" t="e">
+      <c r="I53" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="102">
+      <c r="J53" s="100">
         <v>0.65</v>
       </c>
-      <c r="K53" s="101" t="e">
+      <c r="K53" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="102">
+      <c r="L53" s="100">
         <v>0.94</v>
       </c>
-      <c r="M53" s="103" t="e">
+      <c r="M53" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30567,24 +30640,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="100">
+      <c r="H54" s="98">
         <v>0.11</v>
       </c>
-      <c r="I54" s="101" t="e">
+      <c r="I54" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="102">
+      <c r="J54" s="100">
         <v>0.7</v>
       </c>
-      <c r="K54" s="101" t="e">
+      <c r="K54" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="102">
+      <c r="L54" s="100">
         <v>0.95</v>
       </c>
-      <c r="M54" s="103" t="e">
+      <c r="M54" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30594,24 +30667,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="100">
+      <c r="H55" s="98">
         <v>0.12</v>
       </c>
-      <c r="I55" s="101" t="e">
+      <c r="I55" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="102">
+      <c r="J55" s="100">
         <v>0.75</v>
       </c>
-      <c r="K55" s="101" t="e">
+      <c r="K55" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="102">
+      <c r="L55" s="100">
         <v>0.96</v>
       </c>
-      <c r="M55" s="103" t="e">
+      <c r="M55" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30621,24 +30694,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="100">
+      <c r="H56" s="98">
         <v>0.13</v>
       </c>
-      <c r="I56" s="101" t="e">
+      <c r="I56" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="102">
+      <c r="J56" s="100">
         <v>0.8</v>
       </c>
-      <c r="K56" s="101" t="e">
+      <c r="K56" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="102">
+      <c r="L56" s="100">
         <v>0.97</v>
       </c>
-      <c r="M56" s="103" t="e">
+      <c r="M56" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30648,19 +30721,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="100">
+      <c r="H57" s="98">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="101" t="e">
+      <c r="I57" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="102"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="102">
+      <c r="J57" s="100"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="100">
         <v>0.98</v>
       </c>
-      <c r="M57" s="103" t="e">
+      <c r="M57" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30670,19 +30743,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="104">
+      <c r="H58" s="102">
         <v>0.15</v>
       </c>
-      <c r="I58" s="105" t="e">
+      <c r="I58" s="103" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="106"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="107">
+      <c r="J58" s="104"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="105">
         <v>0.99</v>
       </c>
-      <c r="M58" s="108" t="e">
+      <c r="M58" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -30698,47 +30771,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="109" t="s">
+      <c r="H60" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="I60" s="110"/>
+      <c r="I60" s="108"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="111" t="s">
+      <c r="H61" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="112"/>
+      <c r="I61" s="110"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="113"/>
+      <c r="H62" s="111"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="109" t="s">
+      <c r="H63" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="114"/>
+      <c r="I63" s="112"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="115" t="s">
+      <c r="H64" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="I64" s="116">
+      <c r="I64" s="114">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -30748,10 +30821,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="111" t="s">
+      <c r="H65" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="I65" s="117">
+      <c r="I65" s="115">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B122434-4033-4BCD-B339-0A5E6B6926D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FE189-10BB-4FD2-8749-5F86B58C3133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="90" windowWidth="14010" windowHeight="15345" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="120" windowWidth="14805" windowHeight="15345" tabRatio="647" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="227">
   <si>
     <t>Price</t>
   </si>
@@ -937,9 +937,6 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>Underperform</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
@@ -950,15 +947,6 @@
   </si>
   <si>
     <t>Price Targets</t>
-  </si>
-  <si>
-    <t>Goldman Sachs</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>TD Cowen</t>
   </si>
   <si>
     <t>Active Subscribers (MODS)</t>
@@ -1025,6 +1013,12 @@
   </si>
   <si>
     <t>R0 in M</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Consensus</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1770,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1957,6 +1951,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,15 +2012,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2207,52 +2196,73 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45413</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45444</c:v>
+                  <c:v>45505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45474</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45505</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45536</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45566</c:v>
+                  <c:v>45627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45597</c:v>
+                  <c:v>45658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45627</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45658</c:v>
+                  <c:v>45717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45689</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45717</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$2:$L$2</c:f>
+              <c:f>Analysts!$B$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2263,7 +2273,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2271,14 +2281,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Underperform</c:v>
+                  <c:v>Hold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2346,191 +2359,82 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45413</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45444</c:v>
+                  <c:v>45505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45474</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45505</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45536</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45566</c:v>
+                  <c:v>45627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45597</c:v>
+                  <c:v>45658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45627</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45658</c:v>
+                  <c:v>45717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45689</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45717</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$3:$L$3</c:f>
+              <c:f>Analysts!$B$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09D4-4C63-8E1F-BE059CF4356D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysts!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45566</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45627</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45717</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysts!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2542,10 +2446,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$5</c:f>
+              <c:f>Analysts!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2624,57 +2528,126 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45413</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45444</c:v>
+                  <c:v>45505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45474</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45505</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45536</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45566</c:v>
+                  <c:v>45627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45597</c:v>
+                  <c:v>45658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45627</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45658</c:v>
+                  <c:v>45717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45689</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45717</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$5:$L$5</c:f>
+              <c:f>Analysts!$B$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,10 +2660,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$6</c:f>
+              <c:f>Analysts!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2769,52 +2742,109 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45413</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45444</c:v>
+                  <c:v>45505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45474</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45505</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45536</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45566</c:v>
+                  <c:v>45627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45597</c:v>
+                  <c:v>45658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45627</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45658</c:v>
+                  <c:v>45717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45689</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45717</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$6:$L$6</c:f>
+              <c:f>Analysts!$B$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3443,11 +3473,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$10</c:f>
+              <c:f>Analysts!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Goldman Sachs</c:v>
+                  <c:v>Share Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3478,52 +3508,127 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45413</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45444</c:v>
+                  <c:v>45505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45474</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45505</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45536</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45566</c:v>
+                  <c:v>45627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45597</c:v>
+                  <c:v>45658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45627</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45658</c:v>
+                  <c:v>45717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45689</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45717</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$10:$L$10</c:f>
+              <c:f>Analysts!$B$9:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.98</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3539,11 +3644,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysts!$A$11</c:f>
+              <c:f>Analysts!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wells Fargo</c:v>
+                  <c:v>Consensus</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3574,52 +3679,127 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
+              <c:f>Analysts!$B$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45413</c:v>
+                  <c:v>45474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45444</c:v>
+                  <c:v>45505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45474</c:v>
+                  <c:v>45536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45505</c:v>
+                  <c:v>45566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45536</c:v>
+                  <c:v>45597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45566</c:v>
+                  <c:v>45627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45597</c:v>
+                  <c:v>45658</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45627</c:v>
+                  <c:v>45689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45658</c:v>
+                  <c:v>45717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45689</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45717</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysts!$B$11:$L$11</c:f>
+              <c:f>Analysts!$B$10:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>18.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3627,102 +3807,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CF75-4B8E-92FF-9687CB96230A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Analysts!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TD Cowen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Analysts!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>[$-407]mmm/\ yy;@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45566</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45627</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45689</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45717</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Analysts!$B$12:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF75-4B8E-92FF-9687CB96230A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14945,13 +15029,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14981,16 +15065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16175,11 +16259,11 @@
       <c r="E17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="142" t="s">
+      <c r="L17" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="143"/>
-      <c r="N17" s="144"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -16189,9 +16273,9 @@
         <f>C14/(C16*100)</f>
         <v>0.37134786207225007</v>
       </c>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="151"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -16201,9 +16285,9 @@
         <f>C15/(C17*100)</f>
         <v>0.55777716894977181</v>
       </c>
-      <c r="L19" s="145"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="147"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -16213,9 +16297,9 @@
         <f>Model!H4/Model!G4-1</f>
         <v>1.0343312650029444</v>
       </c>
-      <c r="L20" s="145"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="147"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="151"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -16225,9 +16309,9 @@
         <f>Model!I4/Model!H4-1</f>
         <v>0.2601522842639592</v>
       </c>
-      <c r="L21" s="145"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="147"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="151"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -16237,9 +16321,9 @@
         <f>Model!G12</f>
         <v>82.245565999999968</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="147"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="151"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -16249,9 +16333,9 @@
         <f>Model!G12</f>
         <v>82.245565999999968</v>
       </c>
-      <c r="L23" s="145"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="147"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="151"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -16261,9 +16345,9 @@
         <f>Model!V23</f>
         <v>0.8507226274872427</v>
       </c>
-      <c r="L24" s="145"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="147"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="151"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -16273,9 +16357,9 @@
         <f>Model!V24</f>
         <v>0.25149952244508123</v>
       </c>
-      <c r="L25" s="145"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="147"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="151"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -16285,9 +16369,9 @@
         <f>C12/C23</f>
         <v>31.51238572545055</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="147"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="151"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -16299,9 +16383,9 @@
       <c r="E27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="145"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="147"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="151"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
@@ -16314,9 +16398,9 @@
       <c r="E28" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="150"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="154"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
@@ -16339,7 +16423,7 @@
         <v>3.4378509961350385</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -16360,7 +16444,7 @@
         <v>7.6608829712683937</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -16431,7 +16515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -16511,10 +16595,10 @@
         <v>196</v>
       </c>
       <c r="X2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Y2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16538,11 +16622,11 @@
       <c r="G3" s="123">
         <v>271.12788999999998</v>
       </c>
-      <c r="H3" s="164">
+      <c r="H3" s="144">
         <f>H4</f>
         <v>449.16</v>
       </c>
-      <c r="I3" s="166">
+      <c r="I3" s="125">
         <f>I4</f>
         <v>566.01</v>
       </c>
@@ -16621,7 +16705,7 @@
       <c r="W4" s="122">
         <v>128.91</v>
       </c>
-      <c r="X4" s="169">
+      <c r="X4" s="122">
         <v>128.1</v>
       </c>
     </row>
@@ -16644,7 +16728,7 @@
       <c r="G5" s="123">
         <v>51.764963999999999</v>
       </c>
-      <c r="H5" s="165"/>
+      <c r="H5" s="39"/>
       <c r="L5" s="17">
         <v>11.57399</v>
       </c>
@@ -16700,7 +16784,7 @@
       <c r="G6" s="123">
         <v>51.364347000000002</v>
       </c>
-      <c r="H6" s="165"/>
+      <c r="H6" s="39"/>
       <c r="L6" s="17">
         <v>8.2385859999999997</v>
       </c>
@@ -16756,7 +16840,7 @@
       <c r="G7" s="123">
         <v>9.5951059999999995</v>
       </c>
-      <c r="H7" s="165"/>
+      <c r="H7" s="39"/>
       <c r="L7" s="17">
         <v>1.7491760000000001</v>
       </c>
@@ -17316,15 +17400,15 @@
         <f t="shared" si="16"/>
         <v>31.632000000000009</v>
       </c>
-      <c r="W16" s="161">
+      <c r="W16" s="120">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X16" s="161">
+      <c r="X16" s="120">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="161">
+      <c r="Y16" s="120">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -17613,7 +17697,7 @@
         <f>G19/G20</f>
         <v>12.969604775823973</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="143">
         <v>3.27</v>
       </c>
       <c r="I21" s="8">
@@ -17899,7 +17983,7 @@
       <c r="B25" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="162"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="126">
         <f>D3/C3-1</f>
         <v>0.95305337511785693</v>
@@ -17924,12 +18008,12 @@
         <f t="shared" si="37"/>
         <v>0.2601522842639592</v>
       </c>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="168"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
-      <c r="O25" s="168"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
       <c r="P25" s="127">
         <f t="shared" ref="P25" si="38">P3/L3-1</f>
         <v>0.3548885312214991</v>
@@ -18267,12 +18351,12 @@
         <f>I22/(H22)-1</f>
         <v>0.29585798816568043</v>
       </c>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
       <c r="P29" s="127">
         <f t="shared" ref="P29" si="54">P21/L21-1</f>
         <v>3.3283284406211981</v>
@@ -20180,6 +20264,30 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D25:I25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:I29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P37:V37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -20204,30 +20312,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:I25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:I29">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A5C06EBA-D952-421E-93A2-3BF49E6344BF}"/>
   </hyperlinks>
@@ -20238,10 +20322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F36EF4F-E5E5-45DB-97EA-17BE29C5255C}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20249,105 +20333,317 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="136">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="C1" s="136">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="D1" s="136">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="E1" s="136">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="F1" s="136">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="G1" s="136">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="H1" s="136">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I1" s="136">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="J1" s="136">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="K1" s="136">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="L1" s="136">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="M1" s="136">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="N1" s="136">
-        <v>45778</v>
+        <v>45839</v>
       </c>
       <c r="O1" s="136">
-        <v>45809</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>45870</v>
+      </c>
+      <c r="P1" s="136">
+        <v>45901</v>
+      </c>
+      <c r="Q1" s="136">
+        <v>45931</v>
+      </c>
+      <c r="R1" s="136">
+        <v>45962</v>
+      </c>
+      <c r="S1" s="136">
+        <v>45992</v>
+      </c>
+      <c r="T1" s="136">
+        <v>46023</v>
+      </c>
+      <c r="U1" s="136">
+        <v>46054</v>
+      </c>
+      <c r="V1" s="136">
+        <v>46082</v>
+      </c>
+      <c r="W1" s="136">
+        <v>46113</v>
+      </c>
+      <c r="X1" s="136">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>201</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9">
+        <v>14.34</v>
+      </c>
+      <c r="C9">
+        <v>15.47</v>
+      </c>
+      <c r="D9">
+        <v>22.31</v>
+      </c>
+      <c r="E9">
+        <v>27.92</v>
+      </c>
+      <c r="F9">
+        <v>44.89</v>
+      </c>
+      <c r="G9">
+        <v>64.31</v>
+      </c>
+      <c r="H9">
+        <v>43.14</v>
+      </c>
+      <c r="I9">
+        <v>42.29</v>
+      </c>
+      <c r="J9">
+        <v>46.09</v>
+      </c>
+      <c r="K9">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="L9">
+        <v>60.04</v>
+      </c>
+      <c r="M9">
+        <v>116</v>
+      </c>
+      <c r="N9">
+        <v>157</v>
+      </c>
+      <c r="O9">
+        <v>129</v>
+      </c>
+      <c r="P9">
+        <v>90.84</v>
+      </c>
+      <c r="Q9">
+        <v>83.76</v>
+      </c>
+      <c r="R9">
+        <v>65.89</v>
+      </c>
+      <c r="S9">
+        <v>59.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>206</v>
+        <v>226</v>
+      </c>
+      <c r="B10">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="C10">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="D10">
+        <v>26.08</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>38.58</v>
+      </c>
+      <c r="H10">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>61</v>
+      </c>
+      <c r="J10">
+        <v>61.42</v>
+      </c>
+      <c r="K10">
+        <v>61.42</v>
+      </c>
+      <c r="L10">
+        <v>61.42</v>
+      </c>
+      <c r="M10">
+        <v>61.42</v>
+      </c>
+      <c r="N10">
+        <v>96.94</v>
+      </c>
+      <c r="O10">
+        <v>108</v>
+      </c>
+      <c r="P10">
+        <v>124</v>
+      </c>
+      <c r="Q10">
+        <v>114</v>
+      </c>
+      <c r="R10">
+        <v>114</v>
+      </c>
+      <c r="S10">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -20440,7 +20736,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B2" s="9">
         <v>88000</v>
@@ -20794,7 +21090,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H13">
         <v>492.7</v>
@@ -20820,7 +21116,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J14" s="139"/>
       <c r="K14" s="139"/>
@@ -20839,7 +21135,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H16" s="139">
         <f>Model!P3/KPIs!H13</f>
@@ -20872,31 +21168,31 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
       <c r="F20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" t="s">
         <v>224</v>
       </c>
-      <c r="G20" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I20" t="s">
-        <v>228</v>
-      </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
         <v>39</v>
@@ -20920,15 +21216,15 @@
         <v>72</v>
       </c>
       <c r="R20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" s="140">
         <v>5.5999999999999999E-3</v>
@@ -20981,7 +21277,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C22" s="140">
         <v>2.4E-2</v>
@@ -21029,7 +21325,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E23" s="17">
         <v>67.7</v>
@@ -21074,7 +21370,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E24">
         <v>61.08</v>
@@ -29507,14 +29803,14 @@
       <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="153"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="157"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -29921,10 +30217,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="154" t="s">
+      <c r="H17" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="155"/>
+      <c r="I17" s="159"/>
       <c r="M17" s="80"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -29932,8 +30228,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="156"/>
-      <c r="I18" s="157"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
       <c r="M18" s="80"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -30356,14 +30652,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="158" t="s">
+      <c r="H43" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="159"/>
-      <c r="M43" s="160"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="164"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Business - Technology Services/SEZL.xlsx
+++ b/Business - Technology Services/SEZL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FE189-10BB-4FD2-8749-5F86B58C3133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F39696-DB31-4D32-B92C-C13C9B23EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="120" windowWidth="14805" windowHeight="15345" tabRatio="647" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$P$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$P$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$P$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8174,18 +8174,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8229,7 +8229,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8249,7 +8249,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8280,18 +8280,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8335,7 +8335,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8355,7 +8355,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16515,11 +16515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18647,7 +18647,7 @@
         <v>-41.558000000000007</v>
       </c>
       <c r="V34" s="13">
-        <f t="shared" si="72"/>
+        <f>V35-V56-V58</f>
         <v>-13.164999999999992</v>
       </c>
       <c r="W34" s="10">
@@ -20324,7 +20324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F36EF4F-E5E5-45DB-97EA-17BE29C5255C}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
